--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$200</definedName>
-    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$201</definedName>
+    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$172</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="391">
   <si>
     <t>Version</t>
   </si>
@@ -1859,6 +1859,15 @@
   </si>
   <si>
     <t>git #105</t>
+  </si>
+  <si>
+    <t>3.30.16.04beta</t>
+  </si>
+  <si>
+    <t>TimeVary:  fix, and augment control of, the continue last dev feature</t>
+  </si>
+  <si>
+    <t>git #110</t>
   </si>
 </sst>
 </file>
@@ -2157,11 +2166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2206,40 +2215,50 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B2" s="5">
-        <v>44180</v>
+        <v>44183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+        <v>390</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B3" s="5">
-        <v>44168</v>
+        <v>44180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3"/>
@@ -2249,13 +2268,13 @@
         <v>385</v>
       </c>
       <c r="B4" s="5">
-        <v>44140</v>
+        <v>44168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2268,12 +2287,14 @@
         <v>385</v>
       </c>
       <c r="B5" s="5">
-        <v>44136</v>
+        <v>44140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>381</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2285,14 +2306,12 @@
         <v>385</v>
       </c>
       <c r="B6" s="5">
-        <v>44127</v>
+        <v>44136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>377</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2304,10 +2323,10 @@
         <v>385</v>
       </c>
       <c r="B7" s="5">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>377</v>
@@ -2326,10 +2345,10 @@
         <v>44123</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2342,13 +2361,13 @@
         <v>385</v>
       </c>
       <c r="B9" s="5">
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2358,16 +2377,16 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B10" s="5">
-        <v>44099</v>
+        <v>44117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2380,13 +2399,13 @@
         <v>370</v>
       </c>
       <c r="B11" s="5">
-        <v>44095</v>
+        <v>44099</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -2396,16 +2415,16 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B12" s="5">
-        <v>44090</v>
+        <v>44095</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2418,13 +2437,13 @@
         <v>364</v>
       </c>
       <c r="B13" s="5">
-        <v>44077</v>
+        <v>44090</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>369</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2434,83 +2453,58 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="B14" s="5">
-        <v>44075</v>
+        <v>44077</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>367</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="B15" s="5">
-        <v>44018</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5">
-        <v>44005</v>
+        <v>44018</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
@@ -2519,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
@@ -2543,7 +2537,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2551,22 +2545,22 @@
         <v>44005</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2587,24 +2581,24 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B18" s="5">
-        <v>43998</v>
+        <v>44005</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
@@ -2614,6 +2608,22 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2623,38 +2633,38 @@
         <v>43998</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5">
-        <v>43991</v>
+        <v>43998</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>20</v>
@@ -2671,30 +2681,30 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5">
-        <v>43972</v>
+        <v>43991</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2704,22 +2714,22 @@
         <v>35</v>
       </c>
       <c r="B22" s="5">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>329</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>23</v>
@@ -2729,25 +2739,25 @@
     </row>
     <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>43957</v>
+        <v>43970</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>23</v>
@@ -2755,7 +2765,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2763,10 +2773,10 @@
         <v>43957</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>11</v>
@@ -2775,15 +2785,15 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2791,22 +2801,22 @@
         <v>43957</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2816,69 +2826,53 @@
         <v>41</v>
       </c>
       <c r="B26" s="5">
-        <v>43952</v>
+        <v>43957</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="5">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -2899,7 +2893,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -2907,19 +2901,23 @@
         <v>43951</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2944,26 +2942,22 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>43948</v>
+        <v>43951</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2985,16 +2979,16 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B30" s="5">
-        <v>43944</v>
+        <v>43948</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
@@ -3003,10 +2997,10 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -3029,28 +3023,28 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5">
         <v>43944</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>63</v>
+      <c r="C31" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -3071,18 +3065,18 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="5">
-        <v>43935</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>333</v>
+        <v>43944</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>20</v>
@@ -3091,7 +3085,7 @@
         <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>31</v>
@@ -3115,18 +3109,18 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="5">
-        <v>43927</v>
+        <v>43935</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>20</v>
@@ -3138,12 +3132,28 @@
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -3151,10 +3161,10 @@
         <v>43927</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>20</v>
@@ -3163,25 +3173,26 @@
         <v>27</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="5">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>335</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>20</v>
@@ -3193,11 +3204,11 @@
         <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -3205,10 +3216,10 @@
         <v>43923</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>20</v>
@@ -3217,25 +3228,25 @@
         <v>27</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>336</v>
+        <v>43923</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>20</v>
@@ -3244,13 +3255,14 @@
         <v>27</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -3258,25 +3270,25 @@
         <v>43916</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -3284,25 +3296,25 @@
         <v>43916</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -3310,23 +3322,25 @@
         <v>43916</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -3334,25 +3348,23 @@
         <v>43916</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -3360,25 +3372,25 @@
         <v>43916</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
@@ -3386,25 +3398,25 @@
         <v>43916</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,25 +3424,25 @@
         <v>43916</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
@@ -3438,15 +3450,17 @@
         <v>43916</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>88</v>
       </c>
@@ -3454,7 +3468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>74</v>
       </c>
@@ -3462,25 +3476,23 @@
         <v>43916</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -3488,25 +3500,25 @@
         <v>43916</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
@@ -3514,22 +3526,22 @@
         <v>43916</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3540,22 +3552,22 @@
         <v>43916</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3566,20 +3578,22 @@
         <v>43916</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3590,20 +3604,20 @@
         <v>43916</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3614,11 +3628,9 @@
         <v>43916</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3626,10 +3638,10 @@
         <v>27</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3640,10 +3652,10 @@
         <v>43916</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>20</v>
@@ -3652,7 +3664,7 @@
         <v>27</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>31</v>
@@ -3666,10 +3678,10 @@
         <v>43916</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>20</v>
@@ -3678,7 +3690,7 @@
         <v>27</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>31</v>
@@ -3692,10 +3704,10 @@
         <v>43916</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>20</v>
@@ -3704,7 +3716,7 @@
         <v>27</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>31</v>
@@ -3718,19 +3730,19 @@
         <v>43916</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>31</v>
@@ -3744,22 +3756,22 @@
         <v>43916</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3770,22 +3782,22 @@
         <v>43916</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3796,10 +3808,10 @@
         <v>43916</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>20</v>
@@ -3808,10 +3820,10 @@
         <v>27</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3822,22 +3834,22 @@
         <v>43916</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3848,10 +3860,10 @@
         <v>43916</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>20</v>
@@ -3860,7 +3872,7 @@
         <v>21</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>61</v>
@@ -3874,10 +3886,10 @@
         <v>43916</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>20</v>
@@ -3886,7 +3898,7 @@
         <v>21</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>61</v>
@@ -3900,10 +3912,10 @@
         <v>43916</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>20</v>
@@ -3912,10 +3924,10 @@
         <v>21</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3926,10 +3938,10 @@
         <v>43916</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>20</v>
@@ -3938,7 +3950,7 @@
         <v>21</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>31</v>
@@ -3952,10 +3964,10 @@
         <v>43916</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>20</v>
@@ -3964,34 +3976,36 @@
         <v>21</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B66" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="1"/>
+        <v>363</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4002,20 +4016,20 @@
         <v>43665</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4026,20 +4040,20 @@
         <v>43665</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4047,14 +4061,12 @@
         <v>120</v>
       </c>
       <c r="B69" s="5">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
         <v>20</v>
       </c>
@@ -4062,10 +4074,10 @@
         <v>21</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4076,19 +4088,19 @@
         <v>43662</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>31</v>
@@ -4099,25 +4111,25 @@
         <v>120</v>
       </c>
       <c r="B71" s="5">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4128,9 +4140,11 @@
         <v>43658</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>11</v>
       </c>
@@ -4138,7 +4152,7 @@
         <v>27</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>23</v>
@@ -4146,25 +4160,23 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B73" s="5">
-        <v>43656</v>
+        <v>43658</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>23</v>
@@ -4178,10 +4190,10 @@
         <v>43656</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>20</v>
@@ -4190,24 +4202,24 @@
         <v>21</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B75" s="5">
-        <v>43647</v>
+        <v>43656</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>20</v>
@@ -4216,7 +4228,7 @@
         <v>21</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>31</v>
@@ -4230,7 +4242,7 @@
         <v>43647</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>139</v>
@@ -4242,7 +4254,7 @@
         <v>21</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>31</v>
@@ -4253,22 +4265,22 @@
         <v>137</v>
       </c>
       <c r="B77" s="5">
-        <v>43644</v>
+        <v>43647</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>31</v>
@@ -4276,28 +4288,28 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B78" s="5">
-        <v>43632</v>
+        <v>43644</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4305,10 +4317,10 @@
         <v>144</v>
       </c>
       <c r="B79" s="5">
-        <v>43631</v>
+        <v>43632</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>146</v>
@@ -4317,52 +4329,52 @@
         <v>20</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B80" s="5">
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B81" s="5">
-        <v>43626</v>
+        <v>43629</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
         <v>20</v>
       </c>
@@ -4370,10 +4382,10 @@
         <v>21</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4384,10 +4396,10 @@
         <v>43626</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>20</v>
@@ -4396,24 +4408,24 @@
         <v>21</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B83" s="5">
-        <v>43620</v>
+        <v>43626</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>20</v>
@@ -4422,36 +4434,36 @@
         <v>21</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B84" s="5">
-        <v>43616</v>
+        <v>43620</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,19 +4474,19 @@
         <v>43616</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>61</v>
@@ -4488,10 +4500,10 @@
         <v>43616</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>20</v>
@@ -4500,45 +4512,47 @@
         <v>21</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B87" s="5">
-        <v>43599</v>
+        <v>43616</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B88" s="5">
-        <v>43593</v>
+        <v>43599</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
@@ -4548,10 +4562,10 @@
         <v>27</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4562,17 +4576,17 @@
         <v>43593</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>23</v>
@@ -4580,13 +4594,13 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B90" s="5">
-        <v>43574</v>
+        <v>43593</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
@@ -4596,21 +4610,21 @@
         <v>21</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B91" s="5">
-        <v>43532</v>
+        <v>43574</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
@@ -4620,10 +4634,10 @@
         <v>21</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4634,7 +4648,7 @@
         <v>43532</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
@@ -4644,10 +4658,10 @@
         <v>21</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4658,7 +4672,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
@@ -4668,10 +4682,10 @@
         <v>21</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4682,7 +4696,7 @@
         <v>43532</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
@@ -4692,7 +4706,7 @@
         <v>21</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>23</v>
@@ -4706,7 +4720,7 @@
         <v>43532</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
@@ -4716,10 +4730,10 @@
         <v>21</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4730,7 +4744,7 @@
         <v>43532</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
@@ -4740,7 +4754,7 @@
         <v>21</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>61</v>
@@ -4754,7 +4768,7 @@
         <v>43532</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
@@ -4764,10 +4778,10 @@
         <v>21</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4778,7 +4792,7 @@
         <v>43532</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
@@ -4788,10 +4802,10 @@
         <v>21</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4802,7 +4816,7 @@
         <v>43532</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
@@ -4826,7 +4840,7 @@
         <v>43532</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
@@ -4836,10 +4850,10 @@
         <v>21</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4850,20 +4864,20 @@
         <v>43532</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,7 +4888,7 @@
         <v>43532</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
@@ -4884,7 +4898,7 @@
         <v>82</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>14</v>
@@ -4898,7 +4912,7 @@
         <v>43532</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
@@ -4908,10 +4922,10 @@
         <v>82</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4922,7 +4936,7 @@
         <v>43532</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
@@ -4932,10 +4946,10 @@
         <v>82</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4946,7 +4960,7 @@
         <v>43532</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
@@ -4956,7 +4970,7 @@
         <v>82</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>14</v>
@@ -4970,20 +4984,20 @@
         <v>43532</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,20 +5008,20 @@
         <v>43532</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5018,7 +5032,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
@@ -5028,10 +5042,10 @@
         <v>27</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5042,7 +5056,7 @@
         <v>43532</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
@@ -5052,10 +5066,10 @@
         <v>27</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5066,7 +5080,7 @@
         <v>43532</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
@@ -5076,7 +5090,7 @@
         <v>27</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>61</v>
@@ -5084,13 +5098,13 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B111" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
@@ -5100,10 +5114,10 @@
         <v>27</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5114,7 +5128,7 @@
         <v>43356</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
@@ -5127,7 +5141,7 @@
         <v>178</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5135,20 +5149,20 @@
         <v>196</v>
       </c>
       <c r="B113" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>31</v>
@@ -5162,7 +5176,7 @@
         <v>43341</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
@@ -5172,10 +5186,10 @@
         <v>21</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5186,7 +5200,7 @@
         <v>43341</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -5196,10 +5210,10 @@
         <v>21</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5210,7 +5224,7 @@
         <v>43341</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
@@ -5220,7 +5234,7 @@
         <v>21</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>31</v>
@@ -5234,7 +5248,7 @@
         <v>43341</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
@@ -5244,7 +5258,7 @@
         <v>21</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>31</v>
@@ -5258,20 +5272,20 @@
         <v>43341</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5282,7 +5296,7 @@
         <v>43341</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
@@ -5292,7 +5306,7 @@
         <v>82</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>14</v>
@@ -5306,20 +5320,20 @@
         <v>43341</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5330,7 +5344,7 @@
         <v>43341</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
@@ -5340,7 +5354,7 @@
         <v>27</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>23</v>
@@ -5354,7 +5368,7 @@
         <v>43341</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
@@ -5364,7 +5378,7 @@
         <v>27</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>23</v>
@@ -5378,7 +5392,7 @@
         <v>43341</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
@@ -5388,7 +5402,7 @@
         <v>27</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>23</v>
@@ -5402,7 +5416,7 @@
         <v>43341</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
@@ -5412,10 +5426,10 @@
         <v>27</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5426,7 +5440,7 @@
         <v>43341</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
@@ -5436,10 +5450,10 @@
         <v>27</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5450,7 +5464,7 @@
         <v>43341</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
@@ -5460,10 +5474,10 @@
         <v>27</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5474,20 +5488,20 @@
         <v>43341</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5498,7 +5512,7 @@
         <v>43341</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
@@ -5508,7 +5522,7 @@
         <v>27</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>14</v>
@@ -5522,17 +5536,17 @@
         <v>43341</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>14</v>
@@ -5546,7 +5560,7 @@
         <v>43341</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
@@ -5556,7 +5570,7 @@
         <v>82</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>14</v>
@@ -5570,20 +5584,20 @@
         <v>43341</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5594,7 +5608,7 @@
         <v>43341</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
@@ -5604,7 +5618,7 @@
         <v>27</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>61</v>
@@ -5618,7 +5632,7 @@
         <v>43341</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
@@ -5628,7 +5642,7 @@
         <v>27</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>61</v>
@@ -5642,7 +5656,7 @@
         <v>43341</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
@@ -5652,7 +5666,7 @@
         <v>27</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>61</v>
@@ -5666,7 +5680,7 @@
         <v>43341</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
@@ -5676,7 +5690,7 @@
         <v>27</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>61</v>
@@ -5690,7 +5704,7 @@
         <v>43341</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
@@ -5700,7 +5714,7 @@
         <v>27</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>61</v>
@@ -5714,17 +5728,17 @@
         <v>43341</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>61</v>
@@ -5738,20 +5752,20 @@
         <v>43341</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5762,7 +5776,7 @@
         <v>43341</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
@@ -5772,10 +5786,10 @@
         <v>27</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5786,31 +5800,31 @@
         <v>43341</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B141" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
@@ -5820,10 +5834,10 @@
         <v>27</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5834,11 +5848,11 @@
         <v>43187</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>27</v>
@@ -5847,7 +5861,7 @@
         <v>231</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5858,7 +5872,7 @@
         <v>43187</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -5879,10 +5893,10 @@
         <v>229</v>
       </c>
       <c r="B144" s="5">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
@@ -5892,10 +5906,10 @@
         <v>27</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5906,20 +5920,20 @@
         <v>43185</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5927,10 +5941,10 @@
         <v>229</v>
       </c>
       <c r="B146" s="5">
-        <v>43169</v>
+        <v>43185</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
@@ -5940,10 +5954,10 @@
         <v>82</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5951,23 +5965,23 @@
         <v>229</v>
       </c>
       <c r="B147" s="5">
-        <v>43166</v>
+        <v>43169</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5975,20 +5989,20 @@
         <v>229</v>
       </c>
       <c r="B148" s="5">
-        <v>43165</v>
+        <v>43166</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>61</v>
@@ -5999,23 +6013,23 @@
         <v>229</v>
       </c>
       <c r="B149" s="5">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,20 +6040,20 @@
         <v>43158</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6050,14 +6064,14 @@
         <v>43158</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>97</v>
@@ -6074,7 +6088,7 @@
         <v>43158</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
@@ -6092,26 +6106,26 @@
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B153" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6122,20 +6136,20 @@
         <v>43133</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6146,7 +6160,7 @@
         <v>43133</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
@@ -6159,55 +6173,55 @@
         <v>245</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B156" s="5">
-        <v>43125</v>
+        <v>43133</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B157" s="5">
-        <v>43109</v>
+        <v>43125</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6215,23 +6229,23 @@
         <v>250</v>
       </c>
       <c r="B158" s="5">
-        <v>43066</v>
+        <v>43109</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6242,20 +6256,20 @@
         <v>43066</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6266,44 +6280,44 @@
         <v>43066</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B161" s="5">
-        <v>43059</v>
+        <v>43066</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6311,20 +6325,20 @@
         <v>256</v>
       </c>
       <c r="B162" s="5">
-        <v>43056</v>
+        <v>43059</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>14</v>
@@ -6332,26 +6346,26 @@
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B163" s="5">
-        <v>43046</v>
+        <v>43056</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6362,7 +6376,7 @@
         <v>43046</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
@@ -6372,10 +6386,10 @@
         <v>27</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6383,34 +6397,34 @@
         <v>259</v>
       </c>
       <c r="B165" s="5">
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B166" s="5">
-        <v>43007</v>
+        <v>43045</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
@@ -6420,21 +6434,21 @@
         <v>21</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B167" s="5">
-        <v>42989</v>
+        <v>43007</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
@@ -6444,7 +6458,7 @@
         <v>21</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>61</v>
@@ -6458,7 +6472,7 @@
         <v>42989</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
@@ -6468,7 +6482,7 @@
         <v>21</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>61</v>
@@ -6482,17 +6496,17 @@
         <v>42989</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>61</v>
@@ -6500,37 +6514,37 @@
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B170" s="5">
-        <v>42976</v>
+        <v>42989</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B171" s="5">
-        <v>42962</v>
+        <v>42976</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
@@ -6540,34 +6554,34 @@
         <v>21</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B172" s="5">
-        <v>42954</v>
+        <v>42962</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,44 +6592,44 @@
         <v>42954</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B174" s="5">
-        <v>42943</v>
+        <v>42954</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6623,20 +6637,20 @@
         <v>277</v>
       </c>
       <c r="B175" s="5">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>31</v>
@@ -6650,20 +6664,20 @@
         <v>42942</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6674,7 +6688,7 @@
         <v>42942</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
@@ -6684,7 +6698,7 @@
         <v>27</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>61</v>
@@ -6698,17 +6712,17 @@
         <v>42942</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>61</v>
@@ -6722,20 +6736,20 @@
         <v>42942</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6746,7 +6760,7 @@
         <v>42942</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
@@ -6756,106 +6770,106 @@
         <v>27</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B181" s="5">
-        <v>42928</v>
+        <v>42942</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B182" s="5">
-        <v>42914</v>
+        <v>42928</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B183" s="5">
-        <v>42907</v>
+        <v>42914</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B184" s="5">
-        <v>42885</v>
+        <v>42907</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6863,20 +6877,20 @@
         <v>292</v>
       </c>
       <c r="B185" s="5">
-        <v>42878</v>
+        <v>42885</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>23</v>
@@ -6884,23 +6898,23 @@
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B186" s="5">
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>23</v>
@@ -6914,41 +6928,41 @@
         <v>42865</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B188" s="5">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>61</v>
@@ -6962,17 +6976,17 @@
         <v>42863</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>61</v>
@@ -6980,13 +6994,13 @@
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B190" s="5">
-        <v>42856</v>
+        <v>42863</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
@@ -6996,21 +7010,21 @@
         <v>21</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B191" s="5">
-        <v>42843</v>
+        <v>42856</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
@@ -7020,34 +7034,34 @@
         <v>21</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B192" s="5">
         <v>42843</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7055,10 +7069,10 @@
         <v>305</v>
       </c>
       <c r="B193" s="5">
-        <v>42839</v>
+        <v>42843</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
@@ -7068,7 +7082,7 @@
         <v>82</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>23</v>
@@ -7076,97 +7090,97 @@
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B194" s="5">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>310</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B195" s="5">
         <v>42838</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D195" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="E195" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B196" s="5">
-        <v>42696</v>
+        <v>42838</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>315</v>
+        <v>57</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B197" s="5">
-        <v>42691</v>
+        <v>42696</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>23</v>
@@ -7174,13 +7188,13 @@
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B198" s="5">
-        <v>42689</v>
+        <v>42691</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
@@ -7190,21 +7204,21 @@
         <v>21</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B199" s="5">
-        <v>42683</v>
+        <v>42689</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
@@ -7214,44 +7228,59 @@
         <v>21</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B200" s="5">
         <v>42683</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B201" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="1"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
@@ -14561,8 +14590,17 @@
       <c r="G1013" s="1"/>
       <c r="H1013" s="1"/>
     </row>
+    <row r="1014" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1"/>
+      <c r="C1014" s="2"/>
+      <c r="D1014" s="1"/>
+      <c r="E1014" s="1"/>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="1"/>
+      <c r="H1014" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I200"/>
+  <autoFilter ref="A1:I201"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -15,10 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$201</definedName>
-    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$220</definedName>
+    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$191</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi4WkenwnMcSsUiikKJ4C7a9hIVow=="/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="439">
   <si>
     <t>Version</t>
   </si>
@@ -1792,9 +1792,6 @@
     <t>3.30.16.01</t>
   </si>
   <si>
-    <t>#83055</t>
-  </si>
-  <si>
     <t>release of 3.30.16.00</t>
   </si>
   <si>
@@ -1804,9 +1801,6 @@
     <t>fix output of mean size-at-age when N platoons &gt; 1</t>
   </si>
   <si>
-    <t>#82912</t>
-  </si>
-  <si>
     <t>3.30.16.02</t>
   </si>
   <si>
@@ -1816,18 +1810,9 @@
     <t>#73992</t>
   </si>
   <si>
-    <t>correct to use of the init_equil catch lambda</t>
-  </si>
-  <si>
     <t>#83773</t>
   </si>
   <si>
-    <t>#83861</t>
-  </si>
-  <si>
-    <t>add component specific logL to parmtrace.sso</t>
-  </si>
-  <si>
     <t>#82601</t>
   </si>
   <si>
@@ -1855,9 +1840,6 @@
     <t>3.30.16.beta</t>
   </si>
   <si>
-    <t>improve forecast performance when forecast F approaches the max F constraint in control file</t>
-  </si>
-  <si>
     <t>git #105</t>
   </si>
   <si>
@@ -1868,6 +1850,168 @@
   </si>
   <si>
     <t>git #110</t>
+  </si>
+  <si>
+    <t>add component specific logL to parmtrace.sso; can allow component-specific gradients to be calculated from parmtrace entries during Hessian creation</t>
+  </si>
+  <si>
+    <t>correction to use of the init_equil catch lambda, it was mixed up with catch lambda</t>
+  </si>
+  <si>
+    <t>git #57</t>
+  </si>
+  <si>
+    <t>improve reporting of Hessian status in report.sso</t>
+  </si>
+  <si>
+    <t>#83055; git #89</t>
+  </si>
+  <si>
+    <t>improve forecast performance when forecast F approaches the max F constraint in control file; add warning when constraint is hit</t>
+  </si>
+  <si>
+    <t>Fix problem with D-M indexing for length when no age data</t>
+  </si>
+  <si>
+    <t>git #113</t>
+  </si>
+  <si>
+    <t>misc.input</t>
+  </si>
+  <si>
+    <t>git #130</t>
+  </si>
+  <si>
+    <t>negative year inputs for Bmark_years in forecast file working again after getting broken with 3.30.16.</t>
+  </si>
+  <si>
+    <t>fix updating of empirical wt-at-age vector at beginning of year as used for smrybio</t>
+  </si>
+  <si>
+    <t>git #138</t>
+  </si>
+  <si>
+    <t>git #134</t>
+  </si>
+  <si>
+    <t>create len selex pattern No. 2 as a modification of pattern No. 24 to provide better control in sex-specific selex situations</t>
+  </si>
+  <si>
+    <t>git #147</t>
+  </si>
+  <si>
+    <t>Improve error checking for parameter min-max bounds</t>
+  </si>
+  <si>
+    <t>Fix fleet indexing error in age-based retention calculations</t>
+  </si>
+  <si>
+    <t>git #100</t>
+  </si>
+  <si>
+    <t>TimeVary:  improve control of the time-varying recruitment distribution (among areas) feature during forecast years (git #101) and provide report.sso output of time-series of recruitment distribution results (git #96); fixes in #153 for transition to forecast years</t>
+  </si>
+  <si>
+    <t>git #96, #101, #153</t>
+  </si>
+  <si>
+    <t>git #168</t>
+  </si>
+  <si>
+    <t>git #154</t>
+  </si>
+  <si>
+    <t>fix reporting of total biomass in ss_summary.sso (also see #155 regarding small fix to time-varying growth)</t>
+  </si>
+  <si>
+    <t>provide std.err. for time series of summary biomass, see Extra_Std input options</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>likelihood</t>
+  </si>
+  <si>
+    <t>misc.output</t>
+  </si>
+  <si>
+    <t>#82912; git #87</t>
+  </si>
+  <si>
+    <t>3.30.17.00</t>
+  </si>
+  <si>
+    <t>release of 3.30.17.00</t>
+  </si>
+  <si>
+    <t>git #177</t>
+  </si>
+  <si>
+    <t>git #102</t>
+  </si>
+  <si>
+    <t>#83861; git #92</t>
+  </si>
+  <si>
+    <t>reduce output of derived quantities if there is no recruitment deviations used, and/or if implementation error is 0.0</t>
+  </si>
+  <si>
+    <t>git #135</t>
+  </si>
+  <si>
+    <t>git #139</t>
+  </si>
+  <si>
+    <t>modify hermaphroditism to allow entry of age-at-first-transition, and fraction of males contributing to SSB; thanks SEFSC</t>
+  </si>
+  <si>
+    <t>new age and maturity linked natural mortality option; thanks Mark Maunder</t>
+  </si>
+  <si>
+    <t>deprecate SIS_table.sso; instead, use routines found in r4ss</t>
+  </si>
+  <si>
+    <t>git #21</t>
+  </si>
+  <si>
+    <t>begin using ADMB 12.3</t>
+  </si>
+  <si>
+    <t>git #123</t>
+  </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t>#82601; git #83</t>
+  </si>
+  <si>
+    <t>report empirical autocorrelation of dev vectors, including recdevs</t>
+  </si>
+  <si>
+    <t>git #65</t>
+  </si>
+  <si>
+    <t>change logL for D-M composition; will cause a change in reported logL if used</t>
+  </si>
+  <si>
+    <t>git #31</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>fix error in recommended var_adjustment for age comp sample size</t>
+  </si>
+  <si>
+    <t>git #128</t>
   </si>
 </sst>
 </file>
@@ -2166,17 +2310,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1014"/>
+  <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="71" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.875" style="4" customWidth="1"/>
@@ -2188,7 +2332,7 @@
     <col min="27" max="16384" width="12.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,484 +2359,493 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B2" s="5">
-        <v>44183</v>
+        <v>44341</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="5">
-        <v>44180</v>
+        <v>44322</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>406</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="5">
-        <v>44168</v>
+        <v>44316</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>419</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="5">
-        <v>44140</v>
+        <v>44299</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="5">
-        <v>44136</v>
+        <v>44291</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>434</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="5">
-        <v>44127</v>
+        <v>44285</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>405</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="5">
-        <v>44123</v>
+        <v>44277</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="5">
-        <v>44123</v>
+        <v>44273</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>385</v>
-      </c>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="5">
-        <v>44117</v>
+        <v>44272</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>423</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>370</v>
-      </c>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="5">
-        <v>44099</v>
+        <v>44272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>370</v>
-      </c>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>44095</v>
+        <v>44266</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>427</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>364</v>
-      </c>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>44090</v>
+        <v>44266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>364</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>44077</v>
+        <v>44264</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>429</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>326</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="5">
-        <v>44075</v>
+        <v>44260</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>44018</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>44236</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>393</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>328</v>
+        <v>44232</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>438</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
       <c r="B18" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>44223</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>433</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5">
+        <v>44222</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5">
-        <v>43998</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>393</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>43998</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
+        <v>44186</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>411</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="B21" s="5">
-        <v>43991</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
+        <v>44183</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>384</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>20</v>
@@ -2701,254 +2854,214 @@
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="B22" s="5">
-        <v>43972</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>44180</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="5">
+        <v>44168</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5">
-        <v>43970</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B24" s="5">
-        <v>43957</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>42</v>
+        <v>44140</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B25" s="5">
-        <v>43957</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>44136</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>412</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>412</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>412</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>412</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B26" s="5">
-        <v>43957</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>330</v>
+        <v>44127</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B27" s="5">
-        <v>43952</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>331</v>
+        <v>44123</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>431</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B28" s="5">
-        <v>43951</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>51</v>
+        <v>44123</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>420</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>411</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B29" s="5">
-        <v>43951</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>44117</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
@@ -2956,324 +3069,289 @@
       <c r="F29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="B30" s="5">
-        <v>43948</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>55</v>
+        <v>44099</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>57</v>
+        <v>414</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
       <c r="B31" s="5">
-        <v>43944</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>332</v>
+        <v>44095</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>370</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>60</v>
+        <v>414</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="B32" s="5">
-        <v>43944</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>44090</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>414</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-    </row>
-    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="B33" s="5">
-        <v>43935</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>333</v>
+        <v>44077</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>393</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="B34" s="5">
-        <v>43927</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B35" s="5">
-        <v>43927</v>
+        <v>44018</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B36" s="5">
-        <v>43923</v>
+        <v>44005</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B37" s="5">
-        <v>43923</v>
+        <v>44005</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B38" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>336</v>
+        <v>43998</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>20</v>
@@ -3282,24 +3360,26 @@
         <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B39" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>337</v>
+        <v>43998</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>20</v>
@@ -3308,329 +3388,455 @@
         <v>21</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B40" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>338</v>
+        <v>43991</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B41" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>339</v>
+        <v>43972</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B42" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>340</v>
+        <v>43970</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
+        <v>43957</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B44" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>342</v>
+        <v>43957</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B45" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>343</v>
+        <v>43957</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B46" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>344</v>
+        <v>43952</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G46" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B47" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>345</v>
+        <v>43951</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="5">
+        <v>43944</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="5">
+        <v>43944</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B52" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>43935</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>20</v>
       </c>
@@ -3638,24 +3844,42 @@
         <v>27</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B53" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>351</v>
+        <v>43927</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>20</v>
@@ -3664,24 +3888,26 @@
         <v>27</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B54" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>352</v>
+        <v>43927</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>20</v>
@@ -3690,24 +3916,25 @@
         <v>27</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B55" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>353</v>
+        <v>43923</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>20</v>
@@ -3716,24 +3943,25 @@
         <v>27</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B56" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>354</v>
+        <v>43923</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>20</v>
@@ -3742,13 +3970,14 @@
         <v>27</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -3756,25 +3985,25 @@
         <v>43916</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
@@ -3782,25 +4011,25 @@
         <v>43916</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -3808,25 +4037,25 @@
         <v>43916</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>108</v>
+        <v>338</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -3834,25 +4063,23 @@
         <v>43916</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
@@ -3860,25 +4087,25 @@
         <v>43916</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -3886,10 +4113,10 @@
         <v>43916</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>20</v>
@@ -3898,13 +4125,13 @@
         <v>21</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>74</v>
       </c>
@@ -3912,25 +4139,25 @@
         <v>43916</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3938,10 +4165,10 @@
         <v>43916</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>20</v>
@@ -3950,7 +4177,7 @@
         <v>21</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>31</v>
@@ -3964,19 +4191,17 @@
         <v>43916</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>31</v>
@@ -3990,10 +4215,10 @@
         <v>43916</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>20</v>
@@ -4002,123 +4227,125 @@
         <v>21</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B67" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>346</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B68" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B69" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B70" s="5">
-        <v>43662</v>
+        <v>43916</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>125</v>
+        <v>349</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B71" s="5">
-        <v>43662</v>
+        <v>43916</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
         <v>20</v>
       </c>
@@ -4126,109 +4353,111 @@
         <v>27</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B72" s="5">
-        <v>43658</v>
+        <v>43916</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="B73" s="5">
-        <v>43658</v>
+        <v>43916</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>352</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B74" s="5">
-        <v>43656</v>
+        <v>43916</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B75" s="5">
-        <v>43656</v>
+        <v>43916</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>135</v>
+        <v>354</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>31</v>
@@ -4236,25 +4465,25 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B76" s="5">
-        <v>43647</v>
+        <v>43916</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>138</v>
+        <v>355</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>31</v>
@@ -4262,42 +4491,42 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B77" s="5">
-        <v>43647</v>
+        <v>43916</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B78" s="5">
-        <v>43644</v>
+        <v>43916</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>20</v>
@@ -4306,7 +4535,7 @@
         <v>27</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>31</v>
@@ -4314,67 +4543,69 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B79" s="5">
-        <v>43632</v>
+        <v>43916</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>145</v>
+        <v>357</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B80" s="5">
-        <v>43631</v>
+        <v>43916</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>147</v>
+        <v>358</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B81" s="5">
-        <v>43629</v>
+        <v>43916</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E81" s="1" t="s">
         <v>20</v>
       </c>
@@ -4382,24 +4613,24 @@
         <v>21</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B82" s="5">
-        <v>43626</v>
+        <v>43916</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>151</v>
+        <v>360</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>20</v>
@@ -4408,24 +4639,24 @@
         <v>21</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="B83" s="5">
-        <v>43626</v>
+        <v>43916</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>153</v>
+        <v>361</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>20</v>
@@ -4434,24 +4665,24 @@
         <v>21</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="B84" s="5">
-        <v>43620</v>
+        <v>43916</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>20</v>
@@ -4460,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>31</v>
@@ -4468,25 +4699,25 @@
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B85" s="5">
-        <v>43616</v>
+        <v>43916</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>159</v>
+        <v>363</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>61</v>
@@ -4494,75 +4725,71 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B86" s="5">
-        <v>43616</v>
+        <v>43665</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B87" s="5">
-        <v>43616</v>
+        <v>43665</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B88" s="5">
-        <v>43599</v>
+        <v>43665</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>61</v>
@@ -4570,111 +4797,119 @@
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B89" s="5">
-        <v>43593</v>
+        <v>43662</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B90" s="5">
-        <v>43593</v>
+        <v>43662</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B91" s="5">
-        <v>43574</v>
+        <v>43658</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="B92" s="5">
-        <v>43532</v>
+        <v>43658</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B93" s="5">
-        <v>43532</v>
+        <v>43656</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E93" s="1" t="s">
         <v>20</v>
       </c>
@@ -4682,23 +4917,25 @@
         <v>21</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B94" s="5">
-        <v>43532</v>
+        <v>43656</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D94" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E94" s="1" t="s">
         <v>20</v>
       </c>
@@ -4706,23 +4943,25 @@
         <v>21</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B95" s="5">
-        <v>43532</v>
+        <v>43647</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D95" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E95" s="1" t="s">
         <v>20</v>
       </c>
@@ -4730,23 +4969,25 @@
         <v>21</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B96" s="5">
-        <v>43532</v>
+        <v>43647</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E96" s="1" t="s">
         <v>20</v>
       </c>
@@ -4757,44 +4998,48 @@
         <v>106</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B97" s="5">
-        <v>43532</v>
+        <v>43644</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D97" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B98" s="5">
-        <v>43532</v>
+        <v>43632</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D98" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E98" s="1" t="s">
         <v>20</v>
       </c>
@@ -4802,45 +5047,47 @@
         <v>21</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B99" s="5">
-        <v>43532</v>
+        <v>43631</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B100" s="5">
-        <v>43532</v>
+        <v>43629</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
@@ -4850,23 +5097,25 @@
         <v>21</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B101" s="5">
-        <v>43532</v>
+        <v>43626</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E101" s="1" t="s">
         <v>20</v>
       </c>
@@ -4874,7 +5123,7 @@
         <v>21</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>31</v>
@@ -4882,143 +5131,153 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B102" s="5">
-        <v>43532</v>
+        <v>43626</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B103" s="5">
-        <v>43532</v>
+        <v>43620</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D103" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B104" s="5">
-        <v>43532</v>
+        <v>43616</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B105" s="5">
-        <v>43532</v>
+        <v>43616</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D105" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E105" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B106" s="5">
-        <v>43532</v>
+        <v>43616</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D106" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B107" s="5">
-        <v>43532</v>
+        <v>43599</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>61</v>
@@ -5026,13 +5285,13 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B108" s="5">
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
@@ -5042,7 +5301,7 @@
         <v>27</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>23</v>
@@ -5050,50 +5309,50 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B109" s="5">
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B110" s="5">
-        <v>43532</v>
+        <v>43574</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5104,17 +5363,17 @@
         <v>43532</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>61</v>
@@ -5122,61 +5381,61 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B112" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B113" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>178</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B114" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
@@ -5186,21 +5445,21 @@
         <v>21</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B115" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -5210,21 +5469,21 @@
         <v>21</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B116" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
@@ -5234,21 +5493,21 @@
         <v>21</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B117" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
@@ -5258,21 +5517,21 @@
         <v>21</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B118" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
@@ -5282,199 +5541,199 @@
         <v>21</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B119" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B120" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B121" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B122" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B123" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B124" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B125" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B126" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>61</v>
@@ -5482,13 +5741,13 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B127" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
@@ -5498,7 +5757,7 @@
         <v>27</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>23</v>
@@ -5506,74 +5765,74 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B128" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B129" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B130" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5581,23 +5840,23 @@
         <v>196</v>
       </c>
       <c r="B131" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5605,10 +5864,10 @@
         <v>196</v>
       </c>
       <c r="B132" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
@@ -5618,10 +5877,10 @@
         <v>27</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5632,20 +5891,20 @@
         <v>43341</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5656,20 +5915,20 @@
         <v>43341</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5680,20 +5939,20 @@
         <v>43341</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5704,20 +5963,20 @@
         <v>43341</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5728,20 +5987,20 @@
         <v>43341</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5752,20 +6011,20 @@
         <v>43341</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5776,20 +6035,20 @@
         <v>43341</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5800,7 +6059,7 @@
         <v>43341</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
@@ -5810,10 +6069,10 @@
         <v>27</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5824,55 +6083,55 @@
         <v>43341</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B142" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B143" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -5882,21 +6141,21 @@
         <v>27</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B144" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
@@ -5906,21 +6165,21 @@
         <v>27</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B145" s="5">
-        <v>43185</v>
+        <v>43341</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
@@ -5930,55 +6189,55 @@
         <v>27</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B146" s="5">
-        <v>43185</v>
+        <v>43341</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B147" s="5">
-        <v>43169</v>
+        <v>43341</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>14</v>
@@ -5986,85 +6245,85 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B148" s="5">
-        <v>43166</v>
+        <v>43341</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B149" s="5">
-        <v>43165</v>
+        <v>43341</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B150" s="5">
-        <v>43158</v>
+        <v>43341</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B151" s="5">
-        <v>43158</v>
+        <v>43341</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
@@ -6074,7 +6333,7 @@
         <v>27</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>61</v>
@@ -6082,23 +6341,23 @@
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B152" s="5">
-        <v>43158</v>
+        <v>43341</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>61</v>
@@ -6106,23 +6365,23 @@
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="B153" s="5">
-        <v>43158</v>
+        <v>43341</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>61</v>
@@ -6130,37 +6389,37 @@
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B154" s="5">
-        <v>43133</v>
+        <v>43341</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B155" s="5">
-        <v>43133</v>
+        <v>43341</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
@@ -6170,21 +6429,21 @@
         <v>27</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>245</v>
+        <v>57</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="B156" s="5">
-        <v>43133</v>
+        <v>43341</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
@@ -6194,7 +6453,7 @@
         <v>27</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>61</v>
@@ -6202,37 +6461,37 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B157" s="5">
-        <v>43125</v>
+        <v>43341</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B158" s="5">
-        <v>43109</v>
+        <v>43341</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
@@ -6245,52 +6504,52 @@
         <v>30</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B159" s="5">
-        <v>43066</v>
+        <v>43341</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B160" s="5">
-        <v>43066</v>
+        <v>43341</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>14</v>
@@ -6298,23 +6557,23 @@
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="B161" s="5">
-        <v>43066</v>
+        <v>43187</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>31</v>
@@ -6322,61 +6581,61 @@
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B162" s="5">
-        <v>43059</v>
+        <v>43187</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B163" s="5">
-        <v>43056</v>
+        <v>43187</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B164" s="5">
-        <v>43046</v>
+        <v>43185</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
@@ -6386,7 +6645,7 @@
         <v>27</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>31</v>
@@ -6394,23 +6653,23 @@
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B165" s="5">
-        <v>43046</v>
+        <v>43185</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>61</v>
@@ -6418,47 +6677,47 @@
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="B166" s="5">
-        <v>43045</v>
+        <v>43169</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="B167" s="5">
-        <v>43007</v>
+        <v>43166</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>61</v>
@@ -6466,23 +6725,23 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B168" s="5">
-        <v>42989</v>
+        <v>43165</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>61</v>
@@ -6490,13 +6749,13 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B169" s="5">
-        <v>42989</v>
+        <v>43158</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
@@ -6506,31 +6765,31 @@
         <v>21</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B170" s="5">
-        <v>42989</v>
+        <v>43158</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>61</v>
@@ -6538,157 +6797,157 @@
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="B171" s="5">
-        <v>42976</v>
+        <v>43158</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="B172" s="5">
-        <v>42962</v>
+        <v>43158</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B173" s="5">
-        <v>42954</v>
+        <v>43133</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B174" s="5">
-        <v>42954</v>
+        <v>43133</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B175" s="5">
-        <v>42943</v>
+        <v>43133</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B176" s="5">
-        <v>42942</v>
+        <v>43125</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B177" s="5">
-        <v>42942</v>
+        <v>43109</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
@@ -6698,7 +6957,7 @@
         <v>27</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>61</v>
@@ -6706,61 +6965,61 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B178" s="5">
-        <v>42942</v>
+        <v>43066</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B179" s="5">
-        <v>42942</v>
+        <v>43066</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B180" s="5">
-        <v>42942</v>
+        <v>43066</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
@@ -6770,7 +7029,7 @@
         <v>27</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>31</v>
@@ -6778,109 +7037,109 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B181" s="5">
-        <v>42942</v>
+        <v>43059</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B182" s="5">
-        <v>42928</v>
+        <v>43056</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="B183" s="5">
-        <v>42914</v>
+        <v>43046</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="B184" s="5">
-        <v>42907</v>
+        <v>43046</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>245</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="B185" s="5">
-        <v>42885</v>
+        <v>43045</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
@@ -6890,69 +7149,69 @@
         <v>21</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B186" s="5">
-        <v>42878</v>
+        <v>43007</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B187" s="5">
-        <v>42865</v>
+        <v>42989</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="B188" s="5">
-        <v>42865</v>
+        <v>42989</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
@@ -6962,7 +7221,7 @@
         <v>21</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>61</v>
@@ -6970,23 +7229,23 @@
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="B189" s="5">
-        <v>42863</v>
+        <v>42989</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>61</v>
@@ -6994,13 +7253,13 @@
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="B190" s="5">
-        <v>42863</v>
+        <v>42976</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
@@ -7010,21 +7269,21 @@
         <v>21</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B191" s="5">
-        <v>42856</v>
+        <v>42962</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
@@ -7042,23 +7301,23 @@
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="B192" s="5">
-        <v>42843</v>
+        <v>42954</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>61</v>
@@ -7066,23 +7325,23 @@
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="B193" s="5">
-        <v>42843</v>
+        <v>42954</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>23</v>
@@ -7090,111 +7349,109 @@
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B194" s="5">
-        <v>42839</v>
+        <v>42943</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="B195" s="5">
-        <v>42838</v>
+        <v>42942</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>310</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B196" s="5">
-        <v>42838</v>
+        <v>42942</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B197" s="5">
-        <v>42696</v>
+        <v>42942</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="B198" s="5">
-        <v>42691</v>
+        <v>42942</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
@@ -7204,254 +7461,541 @@
         <v>21</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="B199" s="5">
-        <v>42689</v>
+        <v>42942</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="B200" s="5">
-        <v>42683</v>
+        <v>42942</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="B201" s="5">
-        <v>42683</v>
+        <v>42928</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B202" s="5">
+        <v>42914</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B203" s="5">
+        <v>42907</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="F203" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B204" s="5">
+        <v>42885</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B205" s="5">
+        <v>42878</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B206" s="5">
+        <v>42865</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B207" s="5">
+        <v>42865</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B208" s="5">
+        <v>42863</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B209" s="5">
+        <v>42863</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B210" s="5">
+        <v>42856</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B211" s="5">
+        <v>42843</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B212" s="5">
+        <v>42843</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B213" s="5">
+        <v>42839</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B214" s="5">
+        <v>42838</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B215" s="5">
+        <v>42838</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B216" s="5">
+        <v>42696</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B217" s="5">
+        <v>42691</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B218" s="5">
+        <v>42689</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B219" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B220" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="G220" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="1"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="1"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="1"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="1"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="1"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="1"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="1"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="1"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="1"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="1"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="1"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
@@ -14599,8 +15143,182 @@
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
     </row>
+    <row r="1015" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1"/>
+      <c r="C1015" s="2"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+    </row>
+    <row r="1016" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1"/>
+      <c r="C1016" s="2"/>
+      <c r="D1016" s="1"/>
+      <c r="E1016" s="1"/>
+      <c r="F1016" s="1"/>
+      <c r="G1016" s="1"/>
+      <c r="H1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1"/>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="1"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+    </row>
+    <row r="1018" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1"/>
+      <c r="C1019" s="2"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="1"/>
+      <c r="F1019" s="1"/>
+      <c r="G1019" s="1"/>
+      <c r="H1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1"/>
+      <c r="C1020" s="2"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="1"/>
+      <c r="F1020" s="1"/>
+      <c r="G1020" s="1"/>
+      <c r="H1020" s="1"/>
+    </row>
+    <row r="1021" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="1"/>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="1"/>
+      <c r="H1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="1"/>
+      <c r="E1022" s="1"/>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1"/>
+    </row>
+    <row r="1023" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1"/>
+      <c r="C1023" s="2"/>
+      <c r="D1023" s="1"/>
+      <c r="E1023" s="1"/>
+      <c r="F1023" s="1"/>
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1"/>
+      <c r="C1024" s="2"/>
+      <c r="D1024" s="1"/>
+      <c r="E1024" s="1"/>
+      <c r="F1024" s="1"/>
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1"/>
+      <c r="C1025" s="2"/>
+      <c r="D1025" s="1"/>
+      <c r="E1025" s="1"/>
+      <c r="F1025" s="1"/>
+      <c r="G1025" s="1"/>
+      <c r="H1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="1"/>
+      <c r="E1026" s="1"/>
+      <c r="F1026" s="1"/>
+      <c r="G1026" s="1"/>
+      <c r="H1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1"/>
+      <c r="C1027" s="2"/>
+      <c r="D1027" s="1"/>
+      <c r="E1027" s="1"/>
+      <c r="F1027" s="1"/>
+      <c r="G1027" s="1"/>
+      <c r="H1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1"/>
+      <c r="C1028" s="2"/>
+      <c r="D1028" s="1"/>
+      <c r="E1028" s="1"/>
+      <c r="F1028" s="1"/>
+      <c r="G1028" s="1"/>
+      <c r="H1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1"/>
+      <c r="C1029" s="2"/>
+      <c r="D1029" s="1"/>
+      <c r="E1029" s="1"/>
+      <c r="F1029" s="1"/>
+      <c r="G1029" s="1"/>
+      <c r="H1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1"/>
+      <c r="C1030" s="2"/>
+      <c r="D1030" s="1"/>
+      <c r="E1030" s="1"/>
+      <c r="F1030" s="1"/>
+      <c r="G1030" s="1"/>
+      <c r="H1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1"/>
+      <c r="C1031" s="2"/>
+      <c r="D1031" s="1"/>
+      <c r="E1031" s="1"/>
+      <c r="F1031" s="1"/>
+      <c r="G1031" s="1"/>
+      <c r="H1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1"/>
+      <c r="C1032" s="2"/>
+      <c r="D1032" s="1"/>
+      <c r="E1032" s="1"/>
+      <c r="F1032" s="1"/>
+      <c r="G1032" s="1"/>
+      <c r="H1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1"/>
+      <c r="C1033" s="2"/>
+      <c r="D1033" s="1"/>
+      <c r="E1033" s="1"/>
+      <c r="F1033" s="1"/>
+      <c r="G1033" s="1"/>
+      <c r="H1033" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I201"/>
+  <autoFilter ref="A1:I220"/>
+  <sortState ref="A2:K20">
+    <sortCondition descending="1" ref="B2:B20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard.Methot\Documents\GitHub\StockSynthesis_git\stock-synthesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn.Doering\Documents\Documents\Stock_Synthesis\nmfs-stock-synthesis-repos\stock-synthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$220</definedName>
-    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$221</definedName>
+    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$192</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="439">
   <si>
     <t>Version</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>VLAB_issue</t>
-  </si>
-  <si>
     <t>Input_Change?</t>
   </si>
   <si>
@@ -1009,9 +1006,6 @@
   </si>
   <si>
     <t>3.30.16.00</t>
-  </si>
-  <si>
-    <t>provide log-scale option for depletion and F_std; and provide multi-yr averaging</t>
   </si>
   <si>
     <r>
@@ -1795,18 +1789,9 @@
     <t>release of 3.30.16.00</t>
   </si>
   <si>
-    <t>fix problem with N forecast years &gt; 50</t>
-  </si>
-  <si>
-    <t>fix output of mean size-at-age when N platoons &gt; 1</t>
-  </si>
-  <si>
     <t>3.30.16.02</t>
   </si>
   <si>
-    <t>calculate and report autocorrelation for parameter and recruitment deviations</t>
-  </si>
-  <si>
     <t>#73992</t>
   </si>
   <si>
@@ -1816,63 +1801,27 @@
     <t>#82601</t>
   </si>
   <si>
-    <t>create control rule option 0:  this ignores ramp and intercept values, which are still read</t>
-  </si>
-  <si>
-    <t>fix error in control rule for Fmethod 1 in forecast</t>
-  </si>
-  <si>
     <t>Move repository to github, import open issues</t>
   </si>
   <si>
-    <t>fix read error for mean weight-at-age data</t>
-  </si>
-  <si>
     <t>git #97</t>
   </si>
   <si>
-    <t>add output table with Z and F by area and platoon</t>
-  </si>
-  <si>
     <t>#84179; git #94</t>
   </si>
   <si>
-    <t>3.30.16.beta</t>
-  </si>
-  <si>
     <t>git #105</t>
   </si>
   <si>
-    <t>3.30.16.04beta</t>
-  </si>
-  <si>
-    <t>TimeVary:  fix, and augment control of, the continue last dev feature</t>
-  </si>
-  <si>
     <t>git #110</t>
   </si>
   <si>
-    <t>add component specific logL to parmtrace.sso; can allow component-specific gradients to be calculated from parmtrace entries during Hessian creation</t>
-  </si>
-  <si>
-    <t>correction to use of the init_equil catch lambda, it was mixed up with catch lambda</t>
-  </si>
-  <si>
     <t>git #57</t>
   </si>
   <si>
-    <t>improve reporting of Hessian status in report.sso</t>
-  </si>
-  <si>
     <t>#83055; git #89</t>
   </si>
   <si>
-    <t>improve forecast performance when forecast F approaches the max F constraint in control file; add warning when constraint is hit</t>
-  </si>
-  <si>
-    <t>Fix problem with D-M indexing for length when no age data</t>
-  </si>
-  <si>
     <t>git #113</t>
   </si>
   <si>
@@ -1882,36 +1831,18 @@
     <t>git #130</t>
   </si>
   <si>
-    <t>negative year inputs for Bmark_years in forecast file working again after getting broken with 3.30.16.</t>
-  </si>
-  <si>
-    <t>fix updating of empirical wt-at-age vector at beginning of year as used for smrybio</t>
-  </si>
-  <si>
     <t>git #138</t>
   </si>
   <si>
     <t>git #134</t>
   </si>
   <si>
-    <t>create len selex pattern No. 2 as a modification of pattern No. 24 to provide better control in sex-specific selex situations</t>
-  </si>
-  <si>
     <t>git #147</t>
   </si>
   <si>
-    <t>Improve error checking for parameter min-max bounds</t>
-  </si>
-  <si>
-    <t>Fix fleet indexing error in age-based retention calculations</t>
-  </si>
-  <si>
     <t>git #100</t>
   </si>
   <si>
-    <t>TimeVary:  improve control of the time-varying recruitment distribution (among areas) feature during forecast years (git #101) and provide report.sso output of time-series of recruitment distribution results (git #96); fixes in #153 for transition to forecast years</t>
-  </si>
-  <si>
     <t>git #96, #101, #153</t>
   </si>
   <si>
@@ -1921,12 +1852,6 @@
     <t>git #154</t>
   </si>
   <si>
-    <t>fix reporting of total biomass in ss_summary.sso (also see #155 regarding small fix to time-varying growth)</t>
-  </si>
-  <si>
-    <t>provide std.err. for time series of summary biomass, see Extra_Std input options</t>
-  </si>
-  <si>
     <t>mortality</t>
   </si>
   <si>
@@ -1960,58 +1885,691 @@
     <t>#83861; git #92</t>
   </si>
   <si>
-    <t>reduce output of derived quantities if there is no recruitment deviations used, and/or if implementation error is 0.0</t>
-  </si>
-  <si>
     <t>git #135</t>
   </si>
   <si>
     <t>git #139</t>
   </si>
   <si>
-    <t>modify hermaphroditism to allow entry of age-at-first-transition, and fraction of males contributing to SSB; thanks SEFSC</t>
-  </si>
-  <si>
-    <t>new age and maturity linked natural mortality option; thanks Mark Maunder</t>
-  </si>
-  <si>
-    <t>deprecate SIS_table.sso; instead, use routines found in r4ss</t>
-  </si>
-  <si>
     <t>git #21</t>
   </si>
   <si>
-    <t>begin using ADMB 12.3</t>
-  </si>
-  <si>
     <t>git #123</t>
   </si>
   <si>
-    <t>workflow</t>
-  </si>
-  <si>
     <t>#82601; git #83</t>
   </si>
   <si>
-    <t>report empirical autocorrelation of dev vectors, including recdevs</t>
-  </si>
-  <si>
     <t>git #65</t>
   </si>
   <si>
-    <t>change logL for D-M composition; will cause a change in reported logL if used</t>
-  </si>
-  <si>
     <t>git #31</t>
   </si>
   <si>
     <t>composition</t>
   </si>
   <si>
-    <t>fix error in recommended var_adjustment for age comp sample size</t>
-  </si>
-  <si>
     <t>git #128</t>
+  </si>
+  <si>
+    <t>Issue_number</t>
+  </si>
+  <si>
+    <t>git #148</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>forecast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: fix problem with N forecast years &gt; 50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: fix output of mean size-at-age when N platoons &gt; 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: calculate and report autocorrelation for parameter and recruitment deviations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: provide log-scale option for depletion and F_std; and provide multi-yr averaging</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>likelihood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: correction to use of the init_equil catch lambda, it was mixed up with catch lambda</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: add component specific logL to parmtrace.sso; can allow component-specific gradients to be calculated from parmtrace entries during Hessian creation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>forecast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: create control rule option 0:  this ignores ramp and intercept values, which are still read</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>forecast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: fix error in control rule for Fmethod 1 in forecast</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: add output table with Z and F by area and platoon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>forecast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: improve forecast performance when forecast F approaches the max F constraint in control file; add warning when constraint is hit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>timevary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  fix, and augment control of, the continue last dev feature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>forecast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  fix, and augment control of, the continue last dev feature</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: improve reporting of Hessian status in report.sso</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>likelihood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Fix problem with D-M indexing for length when no age data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: report empirical autocorrelation of dev vectors, including recdevs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>likelihood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: fix error in recommended var_adjustment for age comp sample size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>forecast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: negative year inputs for Bmark_years in forecast file working again after breaking in 3.30.16.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: fix updating of empirical wt-at-age vector at beginning of year as used for smrybio</t>
+    </r>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: begin using ADMB 12.3 instead of 12.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>selectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: create len selex pattern No. 2 as a modification of pattern No. 24 to provide better control in sex-specific selex situations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: deprecate SIS_table.sso; use r4ss::get_SIS_info instead</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>timevary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Fix error in environmental link option 4 (logistic link)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>selectivity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Fix fleet indexing error in age-based retention calculations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: modify hermaphroditism to allow entry of age-at-first-transition, and fraction of males contributing to SSB options; thanks SEFSC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: reduce output of derived quantities if there is no recruitment deviations used, and/or if implementation error is 0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>checks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Improve error checking for parameter min-max bounds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>timevary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  improve control of the time-varying recruitment distribution (among areas) feature during forecast years (git #101) and provide report.sso output of time-series of recruitment distribution results (git #96); fixes in #153 for transition to forecast years</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>likelihood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: change logL for D-M composition; will cause a change in reported logL if used</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: fix reporting of total biomass in ss_summary.sso (also see #155 regarding small fix to time-varying growth)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>biology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: new age and maturity linked natural mortality option; thanks Mark Maunder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>output</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: provide std.err. for time series of summary biomass, see Extra_Std input options</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2310,20 +2868,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1033"/>
+  <dimension ref="A1:Z1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K20"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="71" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="15" style="4" customWidth="1"/>
@@ -2343,791 +2901,829 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="B2" s="5">
         <v>44341</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B3" s="5">
         <v>44322</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B4" s="5">
         <v>44316</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>410</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B5" s="5">
         <v>44299</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B6" s="5">
         <v>44291</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B7" s="5">
         <v>44285</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B8" s="5">
         <v>44277</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B9" s="5">
         <v>44273</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B10" s="5">
         <v>44272</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B11" s="5">
         <v>44272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B12" s="5">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>414</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="B13" s="5">
         <v>44266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>398</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44266</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="5">
         <v>44264</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="5">
+        <v>44260</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5">
-        <v>44260</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="5">
+        <v>44236</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5">
-        <v>44236</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" s="5">
+        <v>44232</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5">
-        <v>44232</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B19" s="5">
+        <v>44223</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44222</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5">
-        <v>44223</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5">
-        <v>44222</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5">
-        <v>44186</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B21" s="5">
+        <v>44186</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="5">
         <v>44183</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="G22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B23" s="5">
         <v>44180</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B23" s="5">
-        <v>44168</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B24" s="5">
-        <v>44140</v>
+        <v>44168</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B25" s="5">
-        <v>44136</v>
+        <v>44140</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>412</v>
+        <v>19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>412</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>412</v>
+        <v>22</v>
       </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B26" s="5">
-        <v>44127</v>
+        <v>44136</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>387</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>387</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>31</v>
+        <v>387</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B27" s="5">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B28" s="5">
         <v>44123</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="5">
+        <v>44123</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="5">
+        <v>44117</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="5">
-        <v>44117</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B30" s="5">
-        <v>44099</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B31" s="5">
-        <v>44095</v>
+        <v>44099</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -3136,146 +3732,129 @@
         <v>364</v>
       </c>
       <c r="B32" s="5">
-        <v>44090</v>
+        <v>44095</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B33" s="5">
-        <v>44077</v>
+        <v>44090</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="B34" s="5">
-        <v>44075</v>
+        <v>44077</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>325</v>
       </c>
       <c r="B35" s="5">
-        <v>44018</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B36" s="5">
-        <v>44005</v>
+        <v>44018</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>328</v>
+        <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -3296,30 +3875,30 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="5">
         <v>44005</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -3340,298 +3919,298 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B38" s="5">
-        <v>43998</v>
+        <v>44005</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="5">
         <v>43998</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B40" s="5">
-        <v>43991</v>
+        <v>43998</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B41" s="5">
-        <v>43972</v>
+        <v>43991</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="5">
+        <v>43972</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="5">
-        <v>43970</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B43" s="5">
-        <v>43957</v>
+        <v>43970</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="5">
         <v>43957</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="5">
         <v>43957</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="5">
-        <v>43952</v>
+        <v>43957</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="5">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>51</v>
+        <v>329</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -3652,27 +4231,31 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="5">
         <v>43951</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -3694,29 +4277,25 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="5">
-        <v>43948</v>
+        <v>43951</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3738,28 +4317,28 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B50" s="5">
-        <v>43944</v>
+        <v>43948</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>332</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -3782,28 +4361,28 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51" s="5">
         <v>43944</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>63</v>
+      <c r="C51" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -3824,30 +4403,30 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5">
-        <v>43935</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>333</v>
+        <v>43944</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -3870,4141 +4449,4176 @@
     </row>
     <row r="53" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="5">
-        <v>43927</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="5">
         <v>43927</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>68</v>
+        <v>332</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="5">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="5">
         <v>43923</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="5">
+        <v>43923</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="5">
         <v>43916</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="5">
         <v>43916</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="5">
         <v>43916</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="5">
         <v>43916</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="5">
         <v>43916</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="5">
         <v>43916</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="5">
         <v>43916</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="5">
         <v>43916</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" s="5">
         <v>43916</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="5">
         <v>43916</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="5">
         <v>43916</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="5">
         <v>43916</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="5">
         <v>43916</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="5">
         <v>43916</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D71" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="5">
         <v>43916</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="5">
         <v>43916</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="5">
         <v>43916</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="5">
         <v>43916</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="5">
         <v>43916</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="5">
         <v>43916</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78" s="5">
         <v>43916</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="5">
         <v>43916</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B80" s="5">
         <v>43916</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="5">
         <v>43916</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82" s="5">
         <v>43916</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" s="5">
         <v>43916</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" s="5">
         <v>43916</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" s="5">
         <v>43916</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B86" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D86" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" s="5">
         <v>43665</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B88" s="5">
         <v>43665</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" s="5">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B90" s="5">
         <v>43662</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B91" s="5">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B92" s="5">
         <v>43658</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B93" s="5">
-        <v>43656</v>
+        <v>43658</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="5">
         <v>43656</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G94" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B95" s="5">
-        <v>43647</v>
+        <v>43656</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="5">
         <v>43647</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H96" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B97" s="5">
-        <v>43644</v>
+        <v>43647</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B98" s="5">
-        <v>43632</v>
+        <v>43644</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="5">
+        <v>43632</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B99" s="5">
-        <v>43631</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B100" s="5">
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B101" s="5">
-        <v>43626</v>
+        <v>43629</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B102" s="5">
         <v>43626</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G102" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B103" s="5">
-        <v>43620</v>
+        <v>43626</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G103" s="1" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B104" s="5">
-        <v>43616</v>
+        <v>43620</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B105" s="5">
         <v>43616</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B106" s="5">
         <v>43616</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B107" s="5">
-        <v>43599</v>
+        <v>43616</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D107" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G107" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B108" s="5">
-        <v>43593</v>
+        <v>43599</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B109" s="5">
         <v>43593</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B110" s="5">
-        <v>43574</v>
+        <v>43593</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G110" s="1" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B111" s="5">
-        <v>43532</v>
+        <v>43574</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G111" s="1" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112" s="5">
         <v>43532</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G112" s="1" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B113" s="5">
         <v>43532</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G113" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B114" s="5">
         <v>43532</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G114" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B115" s="5">
         <v>43532</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G115" s="1" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B116" s="5">
         <v>43532</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117" s="5">
         <v>43532</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G117" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B118" s="5">
         <v>43532</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G118" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119" s="5">
         <v>43532</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" s="5">
         <v>43532</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G120" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B121" s="5">
         <v>43532</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B122" s="5">
         <v>43532</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B123" s="5">
         <v>43532</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" s="5">
         <v>43532</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" s="5">
         <v>43532</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B126" s="5">
         <v>43532</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B127" s="5">
         <v>43532</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B128" s="5">
         <v>43532</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" s="5">
         <v>43532</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B130" s="5">
         <v>43532</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B131" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B132" s="5">
         <v>43356</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B133" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G133" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B134" s="5">
         <v>43341</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F134" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G134" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B135" s="5">
         <v>43341</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B136" s="5">
         <v>43341</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="H136" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B137" s="5">
         <v>43341</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F137" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G137" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B138" s="5">
         <v>43341</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G138" s="1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B139" s="5">
         <v>43341</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B140" s="5">
         <v>43341</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B141" s="5">
         <v>43341</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B142" s="5">
         <v>43341</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B143" s="5">
         <v>43341</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B144" s="5">
         <v>43341</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B145" s="5">
         <v>43341</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B146" s="5">
         <v>43341</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B147" s="5">
         <v>43341</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B148" s="5">
         <v>43341</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B149" s="5">
         <v>43341</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G149" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B150" s="5">
         <v>43341</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B151" s="5">
         <v>43341</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B152" s="5">
         <v>43341</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B153" s="5">
         <v>43341</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B154" s="5">
         <v>43341</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B155" s="5">
         <v>43341</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156" s="5">
         <v>43341</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B157" s="5">
         <v>43341</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G157" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="5">
         <v>43341</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B159" s="5">
         <v>43341</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160" s="5">
         <v>43341</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B161" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B162" s="5">
         <v>43187</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B163" s="5">
         <v>43187</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B164" s="5">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B165" s="5">
         <v>43185</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B166" s="5">
-        <v>43169</v>
+        <v>43185</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B167" s="5">
-        <v>43166</v>
+        <v>43169</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B168" s="5">
-        <v>43165</v>
+        <v>43166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B169" s="5">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B170" s="5">
         <v>43158</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G170" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B171" s="5">
         <v>43158</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B172" s="5">
         <v>43158</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B173" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B174" s="5">
         <v>43133</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G174" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B175" s="5">
         <v>43133</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B176" s="5">
-        <v>43125</v>
+        <v>43133</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B177" s="5">
-        <v>43109</v>
+        <v>43125</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G177" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B178" s="5">
+        <v>43109</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="B178" s="5">
-        <v>43066</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B179" s="5">
         <v>43066</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B180" s="5">
         <v>43066</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B181" s="5">
-        <v>43059</v>
+        <v>43066</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B182" s="5">
+        <v>43059</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B182" s="5">
-        <v>43056</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="G182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B183" s="5">
-        <v>43046</v>
+        <v>43056</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B184" s="5">
         <v>43046</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B185" s="5">
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B186" s="5">
-        <v>43007</v>
+        <v>43045</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G186" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B187" s="5">
-        <v>42989</v>
+        <v>43007</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G187" s="1" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B188" s="5">
         <v>42989</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G188" s="1" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B189" s="5">
         <v>42989</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G189" s="1" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B190" s="5">
-        <v>42976</v>
+        <v>42989</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B191" s="5">
-        <v>42962</v>
+        <v>42976</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G191" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B192" s="5">
-        <v>42954</v>
+        <v>42962</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G192" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B193" s="5">
         <v>42954</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B194" s="5">
-        <v>42943</v>
+        <v>42954</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B195" s="5">
+        <v>42943</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B195" s="5">
-        <v>42942</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G195" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H195" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B196" s="5">
         <v>42942</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G196" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B197" s="5">
         <v>42942</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B198" s="5">
         <v>42942</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B199" s="5">
         <v>42942</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G199" s="1" t="s">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B200" s="5">
         <v>42942</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B201" s="5">
-        <v>42928</v>
+        <v>42942</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>283</v>
+        <v>29</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B202" s="5">
-        <v>42914</v>
+        <v>42928</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B203" s="5">
-        <v>42907</v>
+        <v>42914</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B204" s="5">
-        <v>42885</v>
+        <v>42907</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B205" s="5">
+        <v>42885</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B205" s="5">
-        <v>42878</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B206" s="5">
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B207" s="5">
         <v>42865</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B208" s="5">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G208" s="1" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B209" s="5">
         <v>42863</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B210" s="5">
-        <v>42856</v>
+        <v>42863</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F210" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G210" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B211" s="5">
-        <v>42843</v>
+        <v>42856</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G211" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B212" s="5">
         <v>42843</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B213" s="5">
+        <v>42843</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B213" s="5">
-        <v>42839</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B214" s="5">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>310</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B215" s="5">
         <v>42838</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D215" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="E215" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B216" s="5">
-        <v>42696</v>
+        <v>42838</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B217" s="5">
-        <v>42691</v>
+        <v>42696</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B218" s="5">
-        <v>42689</v>
+        <v>42691</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G218" s="1" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B219" s="5">
-        <v>42683</v>
+        <v>42689</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G219" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B220" s="5">
         <v>42683</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>325</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1"/>
-      <c r="C221" s="2"/>
+      <c r="A221" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B221" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
+      <c r="E221" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
@@ -15314,8 +15928,16 @@
       <c r="G1033" s="1"/>
       <c r="H1033" s="1"/>
     </row>
+    <row r="1034" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1"/>
+      <c r="C1034" s="2"/>
+      <c r="D1034" s="1"/>
+      <c r="E1034" s="1"/>
+      <c r="F1034" s="1"/>
+      <c r="G1034" s="1"/>
+      <c r="H1034" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I220"/>
   <sortState ref="A2:K20">
     <sortCondition descending="1" ref="B2:B20"/>
   </sortState>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -2157,27 +2157,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>forecast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:  fix, and augment control of, the continue last dev feature</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>output</t>
     </r>
     <r>
@@ -2569,6 +2548,27 @@
         <family val="2"/>
       </rPr>
       <t>: provide std.err. for time series of summary biomass, see Extra_Std input options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>:  fix read error for mean weight-at-age data</t>
     </r>
   </si>
 </sst>
@@ -2871,7 +2871,7 @@
   <dimension ref="A1:Z1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2952,7 +2952,7 @@
         <v>44322</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>383</v>
@@ -2979,7 +2979,7 @@
         <v>44316</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>394</v>
@@ -3006,7 +3006,7 @@
         <v>44299</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>384</v>
@@ -3033,7 +3033,7 @@
         <v>44291</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>402</v>
@@ -3060,7 +3060,7 @@
         <v>44285</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>382</v>
@@ -3087,7 +3087,7 @@
         <v>44277</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>396</v>
@@ -3114,7 +3114,7 @@
         <v>44273</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>380</v>
@@ -3141,7 +3141,7 @@
         <v>44272</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>397</v>
@@ -3168,7 +3168,7 @@
         <v>44272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>381</v>
@@ -3195,7 +3195,7 @@
         <v>44267</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>406</v>
@@ -3222,7 +3222,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>398</v>
@@ -3249,7 +3249,7 @@
         <v>44266</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>379</v>
@@ -3276,7 +3276,7 @@
         <v>44264</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>399</v>
@@ -3288,7 +3288,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>30</v>
@@ -3303,7 +3303,7 @@
         <v>44260</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>378</v>
@@ -3330,7 +3330,7 @@
         <v>44236</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>377</v>
@@ -3357,7 +3357,7 @@
         <v>44232</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>404</v>
@@ -3384,7 +3384,7 @@
         <v>44223</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>401</v>
@@ -3411,7 +3411,7 @@
         <v>44222</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>375</v>
@@ -3438,7 +3438,7 @@
         <v>44186</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>373</v>
@@ -3546,7 +3546,7 @@
         <v>44140</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>369</v>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -2871,7 +2871,7 @@
   <dimension ref="A1:Z1034"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2922,7 +2922,7 @@
         <v>391</v>
       </c>
       <c r="B2" s="5">
-        <v>44341</v>
+        <v>44358</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>392</v>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$221</definedName>
-    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$222</definedName>
+    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$193</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="443">
   <si>
     <t>Version</t>
   </si>
@@ -2570,6 +2570,18 @@
       </rPr>
       <t>:  fix read error for mean weight-at-age data</t>
     </r>
+  </si>
+  <si>
+    <t>3.30.17.01</t>
+  </si>
+  <si>
+    <t>git #183</t>
+  </si>
+  <si>
+    <t>Internal calc: fix bug that stopped run for some valid dirichlet multinomial specifications</t>
+  </si>
+  <si>
+    <t>misc. internal calc</t>
   </si>
 </sst>
 </file>
@@ -2868,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1034"/>
+  <dimension ref="A1:Z1035"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2881,7 +2893,7 @@
     <col min="2" max="2" width="11.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="71.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="16" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="4" customWidth="1"/>
     <col min="8" max="8" width="15" style="4" customWidth="1"/>
@@ -2919,28 +2931,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="B2" s="5">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>442</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -2949,25 +2961,25 @@
         <v>391</v>
       </c>
       <c r="B3" s="5">
-        <v>44322</v>
+        <v>44358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -2976,148 +2988,148 @@
         <v>391</v>
       </c>
       <c r="B4" s="5">
-        <v>44316</v>
+        <v>44322</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B5" s="5">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B6" s="5">
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B7" s="5">
-        <v>44285</v>
+        <v>44291</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B8" s="5">
-        <v>44277</v>
+        <v>44285</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B9" s="5">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -3126,41 +3138,41 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B10" s="5">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>376</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>391</v>
       </c>
@@ -3168,22 +3180,22 @@
         <v>44272</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -3192,13 +3204,13 @@
         <v>391</v>
       </c>
       <c r="B12" s="5">
-        <v>44267</v>
+        <v>44272</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -3207,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>30</v>
@@ -3219,29 +3231,29 @@
         <v>391</v>
       </c>
       <c r="B13" s="5">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>391</v>
       </c>
@@ -3249,49 +3261,49 @@
         <v>44266</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B15" s="5">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -3300,40 +3312,40 @@
         <v>391</v>
       </c>
       <c r="B16" s="5">
-        <v>44260</v>
+        <v>44264</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="5">
-        <v>44236</v>
+        <v>44260</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -3342,25 +3354,25 @@
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>376</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B18" s="5">
-        <v>44232</v>
+        <v>44236</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -3369,10 +3381,10 @@
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -3381,22 +3393,22 @@
         <v>391</v>
       </c>
       <c r="B19" s="5">
-        <v>44223</v>
+        <v>44232</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>60</v>
@@ -3408,25 +3420,25 @@
         <v>391</v>
       </c>
       <c r="B20" s="5">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -3435,25 +3447,25 @@
         <v>391</v>
       </c>
       <c r="B21" s="5">
-        <v>44186</v>
+        <v>44222</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -3462,79 +3474,79 @@
         <v>391</v>
       </c>
       <c r="B22" s="5">
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B23" s="5">
-        <v>44180</v>
+        <v>44183</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B24" s="5">
-        <v>44168</v>
+        <v>44180</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -3543,25 +3555,25 @@
         <v>391</v>
       </c>
       <c r="B25" s="5">
-        <v>44140</v>
+        <v>44168</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -3570,25 +3582,25 @@
         <v>391</v>
       </c>
       <c r="B26" s="5">
-        <v>44136</v>
+        <v>44140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>387</v>
+        <v>22</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -3597,46 +3609,46 @@
         <v>391</v>
       </c>
       <c r="B27" s="5">
-        <v>44127</v>
+        <v>44136</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>30</v>
+        <v>387</v>
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B28" s="5">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>29</v>
@@ -3654,22 +3666,22 @@
         <v>44123</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I29" s="3"/>
     </row>
@@ -3678,52 +3690,52 @@
         <v>391</v>
       </c>
       <c r="B30" s="5">
+        <v>44123</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B31" s="5">
         <v>44117</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="5">
-        <v>44099</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -3732,16 +3744,16 @@
         <v>364</v>
       </c>
       <c r="B32" s="5">
-        <v>44095</v>
+        <v>44099</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>26</v>
@@ -3750,28 +3762,28 @@
         <v>389</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B33" s="5">
-        <v>44090</v>
+        <v>44095</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>389</v>
@@ -3786,13 +3798,13 @@
         <v>362</v>
       </c>
       <c r="B34" s="5">
-        <v>44077</v>
+        <v>44090</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>19</v>
@@ -3801,92 +3813,75 @@
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="B35" s="5">
-        <v>44075</v>
+        <v>44077</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>325</v>
       </c>
       <c r="B36" s="5">
-        <v>44018</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B37" s="5">
-        <v>44005</v>
+        <v>44018</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>326</v>
+        <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
@@ -3895,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>13</v>
@@ -3919,7 +3914,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -3927,22 +3922,22 @@
         <v>44005</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -3963,24 +3958,24 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B39" s="5">
-        <v>43998</v>
+        <v>44005</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>21</v>
@@ -3990,6 +3985,22 @@
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -3999,38 +4010,38 @@
         <v>43998</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B41" s="5">
-        <v>43991</v>
+        <v>43998</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>19</v>
@@ -4047,30 +4058,30 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B42" s="5">
-        <v>43972</v>
+        <v>43991</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -4080,22 +4091,22 @@
         <v>34</v>
       </c>
       <c r="B43" s="5">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>327</v>
+        <v>35</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>22</v>
@@ -4105,25 +4116,25 @@
     </row>
     <row r="44" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B44" s="5">
-        <v>43957</v>
+        <v>43970</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>22</v>
@@ -4131,7 +4142,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -4139,10 +4150,10 @@
         <v>43957</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
@@ -4151,15 +4162,15 @@
         <v>11</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
@@ -4167,22 +4178,22 @@
         <v>43957</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -4192,69 +4203,53 @@
         <v>40</v>
       </c>
       <c r="B47" s="5">
-        <v>43952</v>
+        <v>43957</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="5">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>50</v>
+        <v>329</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -4275,7 +4270,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
@@ -4283,19 +4278,23 @@
         <v>43951</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -4320,26 +4319,22 @@
         <v>40</v>
       </c>
       <c r="B50" s="5">
-        <v>43948</v>
+        <v>43951</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -4361,16 +4356,16 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B51" s="5">
-        <v>43944</v>
+        <v>43948</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>330</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
@@ -4379,10 +4374,10 @@
         <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -4405,28 +4400,28 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B52" s="5">
         <v>43944</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>62</v>
+      <c r="C52" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -4447,18 +4442,18 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B53" s="5">
-        <v>43935</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>331</v>
+        <v>43944</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>19</v>
@@ -4467,7 +4462,7 @@
         <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>30</v>
@@ -4496,13 +4491,13 @@
         <v>64</v>
       </c>
       <c r="B54" s="5">
-        <v>43927</v>
+        <v>43935</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>19</v>
@@ -4514,12 +4509,28 @@
         <v>29</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -4527,10 +4538,10 @@
         <v>43927</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>19</v>
@@ -4539,25 +4550,26 @@
         <v>26</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="5">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>333</v>
+        <v>67</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>19</v>
@@ -4569,7 +4581,7 @@
         <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I56" s="3"/>
     </row>
@@ -4581,10 +4593,10 @@
         <v>43923</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>19</v>
@@ -4593,25 +4605,25 @@
         <v>26</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B58" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>334</v>
+        <v>43923</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>19</v>
@@ -4620,11 +4632,12 @@
         <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -4634,22 +4647,22 @@
         <v>43916</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4660,22 +4673,22 @@
         <v>43916</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4686,20 +4699,22 @@
         <v>43916</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4710,22 +4725,20 @@
         <v>43916</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4736,22 +4749,22 @@
         <v>43916</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4762,22 +4775,22 @@
         <v>43916</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4788,22 +4801,22 @@
         <v>43916</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4814,15 +4827,17 @@
         <v>43916</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>87</v>
       </c>
@@ -4838,22 +4853,20 @@
         <v>43916</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4864,22 +4877,22 @@
         <v>43916</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4890,22 +4903,22 @@
         <v>43916</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4916,22 +4929,22 @@
         <v>43916</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4942,20 +4955,22 @@
         <v>43916</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G71" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4966,20 +4981,20 @@
         <v>43916</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D72" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4990,11 +5005,9 @@
         <v>43916</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
         <v>19</v>
       </c>
@@ -5002,10 +5015,10 @@
         <v>26</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5016,10 +5029,10 @@
         <v>43916</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>19</v>
@@ -5028,7 +5041,7 @@
         <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>30</v>
@@ -5042,10 +5055,10 @@
         <v>43916</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>19</v>
@@ -5054,7 +5067,7 @@
         <v>26</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>30</v>
@@ -5068,10 +5081,10 @@
         <v>43916</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>19</v>
@@ -5080,7 +5093,7 @@
         <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>30</v>
@@ -5094,19 +5107,19 @@
         <v>43916</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>30</v>
@@ -5120,22 +5133,22 @@
         <v>43916</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5146,22 +5159,22 @@
         <v>43916</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5172,10 +5185,10 @@
         <v>43916</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>355</v>
+        <v>107</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>19</v>
@@ -5184,10 +5197,10 @@
         <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5198,22 +5211,22 @@
         <v>43916</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5224,10 +5237,10 @@
         <v>43916</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>19</v>
@@ -5236,7 +5249,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>60</v>
@@ -5250,10 +5263,10 @@
         <v>43916</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>19</v>
@@ -5262,7 +5275,7 @@
         <v>20</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>60</v>
@@ -5276,10 +5289,10 @@
         <v>43916</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>19</v>
@@ -5288,10 +5301,10 @@
         <v>20</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5302,10 +5315,10 @@
         <v>43916</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>19</v>
@@ -5314,7 +5327,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>30</v>
@@ -5328,10 +5341,10 @@
         <v>43916</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>19</v>
@@ -5340,34 +5353,36 @@
         <v>20</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B87" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5378,20 +5393,20 @@
         <v>43665</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5402,20 +5417,20 @@
         <v>43665</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5423,14 +5438,12 @@
         <v>119</v>
       </c>
       <c r="B90" s="5">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
         <v>19</v>
       </c>
@@ -5438,10 +5451,10 @@
         <v>20</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5452,19 +5465,19 @@
         <v>43662</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>30</v>
@@ -5475,25 +5488,25 @@
         <v>119</v>
       </c>
       <c r="B92" s="5">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5504,9 +5517,11 @@
         <v>43658</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
@@ -5514,7 +5529,7 @@
         <v>26</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>22</v>
@@ -5522,25 +5537,23 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B94" s="5">
-        <v>43656</v>
+        <v>43658</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>22</v>
@@ -5554,10 +5567,10 @@
         <v>43656</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>19</v>
@@ -5566,24 +5579,24 @@
         <v>20</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B96" s="5">
-        <v>43647</v>
+        <v>43656</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>19</v>
@@ -5592,7 +5605,7 @@
         <v>20</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>30</v>
@@ -5606,7 +5619,7 @@
         <v>43647</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>138</v>
@@ -5618,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>30</v>
@@ -5629,22 +5642,22 @@
         <v>136</v>
       </c>
       <c r="B98" s="5">
-        <v>43644</v>
+        <v>43647</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>30</v>
@@ -5652,28 +5665,28 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B99" s="5">
-        <v>43632</v>
+        <v>43644</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5681,10 +5694,10 @@
         <v>143</v>
       </c>
       <c r="B100" s="5">
-        <v>43631</v>
+        <v>43632</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>145</v>
@@ -5693,52 +5706,52 @@
         <v>19</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B101" s="5">
-        <v>43629</v>
+        <v>43631</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>146</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B102" s="5">
-        <v>43626</v>
+        <v>43629</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
         <v>19</v>
       </c>
@@ -5746,10 +5759,10 @@
         <v>20</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5760,10 +5773,10 @@
         <v>43626</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>19</v>
@@ -5772,24 +5785,24 @@
         <v>20</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B104" s="5">
-        <v>43620</v>
+        <v>43626</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>19</v>
@@ -5798,36 +5811,36 @@
         <v>20</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B105" s="5">
-        <v>43616</v>
+        <v>43620</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5838,19 +5851,19 @@
         <v>43616</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>60</v>
@@ -5864,10 +5877,10 @@
         <v>43616</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>19</v>
@@ -5876,45 +5889,47 @@
         <v>20</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B108" s="5">
-        <v>43599</v>
+        <v>43616</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B109" s="5">
-        <v>43593</v>
+        <v>43599</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
@@ -5924,10 +5939,10 @@
         <v>26</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5938,17 +5953,17 @@
         <v>43593</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>22</v>
@@ -5956,13 +5971,13 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B111" s="5">
-        <v>43574</v>
+        <v>43593</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
@@ -5972,21 +5987,21 @@
         <v>20</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B112" s="5">
-        <v>43532</v>
+        <v>43574</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
@@ -5996,10 +6011,10 @@
         <v>20</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6010,7 +6025,7 @@
         <v>43532</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
@@ -6020,10 +6035,10 @@
         <v>20</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6034,7 +6049,7 @@
         <v>43532</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
@@ -6044,10 +6059,10 @@
         <v>20</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6058,7 +6073,7 @@
         <v>43532</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -6068,7 +6083,7 @@
         <v>20</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>22</v>
@@ -6082,7 +6097,7 @@
         <v>43532</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
@@ -6092,10 +6107,10 @@
         <v>20</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6106,7 +6121,7 @@
         <v>43532</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
@@ -6116,7 +6131,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>60</v>
@@ -6130,7 +6145,7 @@
         <v>43532</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
@@ -6140,10 +6155,10 @@
         <v>20</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6154,7 +6169,7 @@
         <v>43532</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
@@ -6164,10 +6179,10 @@
         <v>20</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6178,7 +6193,7 @@
         <v>43532</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
@@ -6202,7 +6217,7 @@
         <v>43532</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
@@ -6212,10 +6227,10 @@
         <v>20</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6226,20 +6241,20 @@
         <v>43532</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6250,7 +6265,7 @@
         <v>43532</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
@@ -6260,7 +6275,7 @@
         <v>81</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>13</v>
@@ -6274,7 +6289,7 @@
         <v>43532</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
@@ -6284,10 +6299,10 @@
         <v>81</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6298,7 +6313,7 @@
         <v>43532</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
@@ -6308,10 +6323,10 @@
         <v>81</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6322,7 +6337,7 @@
         <v>43532</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
@@ -6332,7 +6347,7 @@
         <v>81</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>13</v>
@@ -6346,20 +6361,20 @@
         <v>43532</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6370,20 +6385,20 @@
         <v>43532</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6394,7 +6409,7 @@
         <v>43532</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
@@ -6404,10 +6419,10 @@
         <v>26</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6418,7 +6433,7 @@
         <v>43532</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
@@ -6428,10 +6443,10 @@
         <v>26</v>
       </c>
       <c r="G130" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6442,7 +6457,7 @@
         <v>43532</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
@@ -6452,7 +6467,7 @@
         <v>26</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>60</v>
@@ -6460,13 +6475,13 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B132" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
@@ -6476,10 +6491,10 @@
         <v>26</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6490,7 +6505,7 @@
         <v>43356</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
@@ -6503,7 +6518,7 @@
         <v>177</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6511,20 +6526,20 @@
         <v>195</v>
       </c>
       <c r="B134" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>30</v>
@@ -6538,7 +6553,7 @@
         <v>43341</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
@@ -6548,10 +6563,10 @@
         <v>20</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6562,7 +6577,7 @@
         <v>43341</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
@@ -6572,10 +6587,10 @@
         <v>20</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6586,7 +6601,7 @@
         <v>43341</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
@@ -6596,7 +6611,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>30</v>
@@ -6610,7 +6625,7 @@
         <v>43341</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
@@ -6620,7 +6635,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>30</v>
@@ -6634,20 +6649,20 @@
         <v>43341</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6658,7 +6673,7 @@
         <v>43341</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
@@ -6668,7 +6683,7 @@
         <v>81</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>13</v>
@@ -6682,20 +6697,20 @@
         <v>43341</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6706,7 +6721,7 @@
         <v>43341</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
@@ -6716,7 +6731,7 @@
         <v>26</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>22</v>
@@ -6730,7 +6745,7 @@
         <v>43341</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -6740,7 +6755,7 @@
         <v>26</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>22</v>
@@ -6754,7 +6769,7 @@
         <v>43341</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
@@ -6764,7 +6779,7 @@
         <v>26</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>22</v>
@@ -6778,7 +6793,7 @@
         <v>43341</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
@@ -6788,10 +6803,10 @@
         <v>26</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6802,7 +6817,7 @@
         <v>43341</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
@@ -6812,10 +6827,10 @@
         <v>26</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6826,7 +6841,7 @@
         <v>43341</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
@@ -6836,10 +6851,10 @@
         <v>26</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6850,20 +6865,20 @@
         <v>43341</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6874,7 +6889,7 @@
         <v>43341</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
@@ -6884,7 +6899,7 @@
         <v>26</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>13</v>
@@ -6898,17 +6913,17 @@
         <v>43341</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>13</v>
@@ -6922,7 +6937,7 @@
         <v>43341</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
@@ -6932,7 +6947,7 @@
         <v>81</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>13</v>
@@ -6946,20 +6961,20 @@
         <v>43341</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6970,7 +6985,7 @@
         <v>43341</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
@@ -6980,7 +6995,7 @@
         <v>26</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>60</v>
@@ -6994,7 +7009,7 @@
         <v>43341</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
@@ -7004,7 +7019,7 @@
         <v>26</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>60</v>
@@ -7018,7 +7033,7 @@
         <v>43341</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
@@ -7028,7 +7043,7 @@
         <v>26</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>60</v>
@@ -7042,7 +7057,7 @@
         <v>43341</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
@@ -7052,7 +7067,7 @@
         <v>26</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>60</v>
@@ -7066,7 +7081,7 @@
         <v>43341</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
@@ -7076,7 +7091,7 @@
         <v>26</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>60</v>
@@ -7090,17 +7105,17 @@
         <v>43341</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>60</v>
@@ -7114,20 +7129,20 @@
         <v>43341</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7138,7 +7153,7 @@
         <v>43341</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
@@ -7148,10 +7163,10 @@
         <v>26</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7162,31 +7177,31 @@
         <v>43341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B162" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
@@ -7196,10 +7211,10 @@
         <v>26</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7210,11 +7225,11 @@
         <v>43187</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>26</v>
@@ -7223,7 +7238,7 @@
         <v>230</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7234,7 +7249,7 @@
         <v>43187</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
@@ -7255,10 +7270,10 @@
         <v>228</v>
       </c>
       <c r="B165" s="5">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
@@ -7268,10 +7283,10 @@
         <v>26</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7282,20 +7297,20 @@
         <v>43185</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7303,10 +7318,10 @@
         <v>228</v>
       </c>
       <c r="B167" s="5">
-        <v>43169</v>
+        <v>43185</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
@@ -7316,10 +7331,10 @@
         <v>81</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7327,23 +7342,23 @@
         <v>228</v>
       </c>
       <c r="B168" s="5">
-        <v>43166</v>
+        <v>43169</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7351,20 +7366,20 @@
         <v>228</v>
       </c>
       <c r="B169" s="5">
-        <v>43165</v>
+        <v>43166</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>60</v>
@@ -7375,23 +7390,23 @@
         <v>228</v>
       </c>
       <c r="B170" s="5">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7402,20 +7417,20 @@
         <v>43158</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7426,14 +7441,14 @@
         <v>43158</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>96</v>
@@ -7450,7 +7465,7 @@
         <v>43158</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
@@ -7468,26 +7483,26 @@
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B174" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7498,20 +7513,20 @@
         <v>43133</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7522,7 +7537,7 @@
         <v>43133</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
@@ -7535,55 +7550,55 @@
         <v>244</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B177" s="5">
-        <v>43125</v>
+        <v>43133</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B178" s="5">
-        <v>43109</v>
+        <v>43125</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7591,23 +7606,23 @@
         <v>249</v>
       </c>
       <c r="B179" s="5">
-        <v>43066</v>
+        <v>43109</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7618,20 +7633,20 @@
         <v>43066</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7642,44 +7657,44 @@
         <v>43066</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B182" s="5">
-        <v>43059</v>
+        <v>43066</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7687,20 +7702,20 @@
         <v>255</v>
       </c>
       <c r="B183" s="5">
-        <v>43056</v>
+        <v>43059</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>13</v>
@@ -7708,26 +7723,26 @@
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B184" s="5">
-        <v>43046</v>
+        <v>43056</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7738,7 +7753,7 @@
         <v>43046</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
@@ -7748,10 +7763,10 @@
         <v>26</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7759,34 +7774,34 @@
         <v>258</v>
       </c>
       <c r="B186" s="5">
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B187" s="5">
-        <v>43007</v>
+        <v>43045</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
@@ -7796,21 +7811,21 @@
         <v>20</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B188" s="5">
-        <v>42989</v>
+        <v>43007</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
@@ -7820,7 +7835,7 @@
         <v>20</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>60</v>
@@ -7834,7 +7849,7 @@
         <v>42989</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
@@ -7844,7 +7859,7 @@
         <v>20</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>72</v>
+        <v>266</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>60</v>
@@ -7858,17 +7873,17 @@
         <v>42989</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>60</v>
@@ -7876,37 +7891,37 @@
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B191" s="5">
-        <v>42976</v>
+        <v>42989</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B192" s="5">
-        <v>42962</v>
+        <v>42976</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
@@ -7916,34 +7931,34 @@
         <v>20</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B193" s="5">
-        <v>42954</v>
+        <v>42962</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7954,44 +7969,44 @@
         <v>42954</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B195" s="5">
-        <v>42943</v>
+        <v>42954</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7999,20 +8014,20 @@
         <v>276</v>
       </c>
       <c r="B196" s="5">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>30</v>
@@ -8026,20 +8041,20 @@
         <v>42942</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8050,7 +8065,7 @@
         <v>42942</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
@@ -8060,7 +8075,7 @@
         <v>26</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>60</v>
@@ -8074,17 +8089,17 @@
         <v>42942</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>60</v>
@@ -8098,20 +8113,20 @@
         <v>42942</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8122,7 +8137,7 @@
         <v>42942</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
@@ -8132,106 +8147,106 @@
         <v>26</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B202" s="5">
-        <v>42928</v>
+        <v>42942</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B203" s="5">
-        <v>42914</v>
+        <v>42928</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B204" s="5">
-        <v>42907</v>
+        <v>42914</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B205" s="5">
-        <v>42885</v>
+        <v>42907</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8239,20 +8254,20 @@
         <v>291</v>
       </c>
       <c r="B206" s="5">
-        <v>42878</v>
+        <v>42885</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>22</v>
@@ -8260,23 +8275,23 @@
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B207" s="5">
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>22</v>
@@ -8290,41 +8305,41 @@
         <v>42865</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B209" s="5">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>60</v>
@@ -8338,17 +8353,17 @@
         <v>42863</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>60</v>
@@ -8356,13 +8371,13 @@
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B211" s="5">
-        <v>42856</v>
+        <v>42863</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
@@ -8372,21 +8387,21 @@
         <v>20</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B212" s="5">
-        <v>42843</v>
+        <v>42856</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
@@ -8396,34 +8411,34 @@
         <v>20</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B213" s="5">
         <v>42843</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8431,10 +8446,10 @@
         <v>304</v>
       </c>
       <c r="B214" s="5">
-        <v>42839</v>
+        <v>42843</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
@@ -8444,7 +8459,7 @@
         <v>81</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>22</v>
@@ -8452,97 +8467,97 @@
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B215" s="5">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B216" s="5">
         <v>42838</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D216" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="E216" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B217" s="5">
-        <v>42696</v>
+        <v>42838</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B218" s="5">
-        <v>42691</v>
+        <v>42696</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>22</v>
@@ -8550,13 +8565,13 @@
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B219" s="5">
-        <v>42689</v>
+        <v>42691</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
@@ -8566,21 +8581,21 @@
         <v>20</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B220" s="5">
-        <v>42683</v>
+        <v>42689</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
@@ -8590,44 +8605,59 @@
         <v>20</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B221" s="5">
         <v>42683</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B222" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G222" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="H222" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="1"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
@@ -15937,6 +15967,15 @@
       <c r="G1034" s="1"/>
       <c r="H1034" s="1"/>
     </row>
+    <row r="1035" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="1"/>
+      <c r="E1035" s="1"/>
+      <c r="F1035" s="1"/>
+      <c r="G1035" s="1"/>
+      <c r="H1035" s="1"/>
+    </row>
   </sheetData>
   <sortState ref="A2:K20">
     <sortCondition descending="1" ref="B2:B20"/>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn.Doering\Documents\Documents\Stock_Synthesis\nmfs-stock-synthesis-repos\stock-synthesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard.Methot\Documents\GitHub\StockSynthesis_git\stock-synthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$222</definedName>
-    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$225</definedName>
+    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$196</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="450">
   <si>
     <t>Version</t>
   </si>
@@ -2575,13 +2575,34 @@
     <t>3.30.17.01</t>
   </si>
   <si>
-    <t>git #183</t>
-  </si>
-  <si>
-    <t>Internal calc: fix bug that stopped run for some valid dirichlet multinomial specifications</t>
-  </si>
-  <si>
     <t>misc. internal calc</t>
+  </si>
+  <si>
+    <t>Internal calc: fix bug in indexing for some valid dirichlet multinomial specifications</t>
+  </si>
+  <si>
+    <t>3.30.18beta</t>
+  </si>
+  <si>
+    <t>fleet-specific F method; allows mix of parameter and hybrid methods</t>
+  </si>
+  <si>
+    <t>git #33</t>
+  </si>
+  <si>
+    <t>fix Lorenzen M was not updating by season</t>
+  </si>
+  <si>
+    <t>git #181</t>
+  </si>
+  <si>
+    <t>add output of F at Blimit (usage is for approaching overfished condition</t>
+  </si>
+  <si>
+    <t>git #188</t>
+  </si>
+  <si>
+    <t>git #183; #184</t>
   </si>
 </sst>
 </file>
@@ -2880,11 +2901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1035"/>
+  <dimension ref="A1:Z1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2931,70 +2952,70 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B2" s="5">
-        <v>44362</v>
+        <v>44432</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>442</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="B3" s="5">
-        <v>44358</v>
+        <v>44427</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="B4" s="5">
-        <v>44322</v>
+        <v>44427</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -3003,64 +3024,64 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="B5" s="5">
-        <v>44316</v>
+        <v>44362</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>440</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B6" s="5">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -3069,49 +3090,49 @@
         <v>391</v>
       </c>
       <c r="B7" s="5">
-        <v>44291</v>
+        <v>44322</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B8" s="5">
-        <v>44285</v>
+        <v>44316</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>13</v>
@@ -3123,16 +3144,16 @@
         <v>391</v>
       </c>
       <c r="B9" s="5">
-        <v>44277</v>
+        <v>44299</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
@@ -3150,13 +3171,13 @@
         <v>391</v>
       </c>
       <c r="B10" s="5">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -3165,25 +3186,25 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B11" s="5">
-        <v>44272</v>
+        <v>44285</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -3192,37 +3213,37 @@
         <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B12" s="5">
-        <v>44272</v>
+        <v>44277</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -3231,79 +3252,79 @@
         <v>391</v>
       </c>
       <c r="B13" s="5">
-        <v>44267</v>
+        <v>44273</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>376</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B14" s="5">
-        <v>44266</v>
+        <v>44272</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>389</v>
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B15" s="5">
-        <v>44266</v>
+        <v>44272</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -3312,22 +3333,22 @@
         <v>391</v>
       </c>
       <c r="B16" s="5">
-        <v>44264</v>
+        <v>44267</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>424</v>
+        <v>46</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>30</v>
@@ -3339,25 +3360,25 @@
         <v>391</v>
       </c>
       <c r="B17" s="5">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>389</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -3366,25 +3387,25 @@
         <v>391</v>
       </c>
       <c r="B18" s="5">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -3393,25 +3414,25 @@
         <v>391</v>
       </c>
       <c r="B19" s="5">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="3"/>
     </row>
@@ -3420,40 +3441,40 @@
         <v>391</v>
       </c>
       <c r="B20" s="5">
-        <v>44223</v>
+        <v>44260</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>389</v>
+        <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B21" s="5">
-        <v>44222</v>
+        <v>44236</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -3474,22 +3495,22 @@
         <v>391</v>
       </c>
       <c r="B22" s="5">
-        <v>44186</v>
+        <v>44232</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>60</v>
@@ -3501,52 +3522,52 @@
         <v>391</v>
       </c>
       <c r="B23" s="5">
-        <v>44183</v>
+        <v>44223</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B24" s="5">
-        <v>44180</v>
+        <v>44222</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -3555,22 +3576,22 @@
         <v>391</v>
       </c>
       <c r="B25" s="5">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>60</v>
@@ -3582,13 +3603,13 @@
         <v>391</v>
       </c>
       <c r="B26" s="5">
-        <v>44140</v>
+        <v>44183</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>19</v>
@@ -3597,37 +3618,37 @@
         <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B27" s="5">
-        <v>44136</v>
+        <v>44180</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>387</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>387</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -3636,94 +3657,94 @@
         <v>391</v>
       </c>
       <c r="B28" s="5">
-        <v>44127</v>
+        <v>44168</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>29</v>
+        <v>385</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B29" s="5">
-        <v>44123</v>
+        <v>44140</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B30" s="5">
-        <v>44123</v>
+        <v>44136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>60</v>
+        <v>387</v>
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B31" s="5">
-        <v>44117</v>
+        <v>44127</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>19</v>
@@ -3732,25 +3753,25 @@
         <v>20</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B32" s="5">
-        <v>44099</v>
+        <v>44123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -3759,25 +3780,25 @@
         <v>26</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>389</v>
+        <v>29</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B33" s="5">
-        <v>44095</v>
+        <v>44123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
@@ -3786,25 +3807,25 @@
         <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B34" s="5">
-        <v>44090</v>
+        <v>44117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>19</v>
@@ -3813,263 +3834,244 @@
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B35" s="5">
-        <v>44077</v>
+        <v>44099</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>374</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="B36" s="5">
-        <v>44075</v>
+        <v>44095</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>409</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>121</v>
+        <v>389</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="B37" s="5">
-        <v>44018</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>8</v>
+        <v>44090</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="B38" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>326</v>
+        <v>44077</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>16</v>
+        <v>376</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44075</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B40" s="5">
-        <v>43998</v>
+        <v>44018</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B41" s="5">
-        <v>43998</v>
+        <v>44005</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B42" s="5">
-        <v>43991</v>
+        <v>44005</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>19</v>
@@ -4078,35 +4080,51 @@
         <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B43" s="5">
-        <v>43972</v>
+        <v>43998</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>22</v>
@@ -4114,74 +4132,74 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B44" s="5">
-        <v>43970</v>
+        <v>43998</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B45" s="5">
-        <v>43957</v>
+        <v>43991</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B46" s="5">
-        <v>43957</v>
+        <v>43972</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
@@ -4190,26 +4208,26 @@
         <v>11</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B47" s="5">
-        <v>43957</v>
+        <v>43970</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>19</v>
@@ -4218,70 +4236,54 @@
         <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="5">
-        <v>43952</v>
+        <v>43957</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="5">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>10</v>
@@ -4297,87 +4299,59 @@
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B50" s="5">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>52</v>
+        <v>328</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="5">
-        <v>43948</v>
+        <v>43952</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -4398,18 +4372,18 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B52" s="5">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>10</v>
@@ -4418,10 +4392,10 @@
         <v>11</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -4444,29 +4418,25 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B53" s="5">
-        <v>43944</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>62</v>
+        <v>43951</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -4486,30 +4456,30 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B54" s="5">
-        <v>43935</v>
+        <v>43948</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>331</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -4530,46 +4500,62 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B55" s="5">
-        <v>43927</v>
+        <v>43944</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="5">
-        <v>43927</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>67</v>
+        <v>43944</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>19</v>
@@ -4578,25 +4564,42 @@
         <v>26</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="5">
-        <v>43923</v>
+        <v>43935</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>19</v>
@@ -4605,25 +4608,42 @@
         <v>26</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="5">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>70</v>
+        <v>332</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>19</v>
@@ -4632,25 +4652,26 @@
         <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B59" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>334</v>
+        <v>43927</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>19</v>
@@ -4659,63 +4680,66 @@
         <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B60" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>335</v>
+        <v>43923</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B61" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>336</v>
+        <v>43923</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -4725,20 +4749,22 @@
         <v>43916</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4749,22 +4775,22 @@
         <v>43916</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4775,22 +4801,22 @@
         <v>43916</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4801,19 +4827,17 @@
         <v>43916</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>13</v>
@@ -4827,22 +4851,22 @@
         <v>43916</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4853,17 +4877,19 @@
         <v>43916</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G67" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>30</v>
@@ -4877,22 +4903,22 @@
         <v>43916</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4903,19 +4929,19 @@
         <v>43916</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>30</v>
@@ -4929,22 +4955,20 @@
         <v>43916</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4955,19 +4979,19 @@
         <v>43916</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>22</v>
@@ -4981,20 +5005,22 @@
         <v>43916</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G72" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5005,20 +5031,22 @@
         <v>43916</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5029,10 +5057,10 @@
         <v>43916</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>19</v>
@@ -5041,10 +5069,10 @@
         <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5055,22 +5083,20 @@
         <v>43916</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5081,11 +5107,9 @@
         <v>43916</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
         <v>19</v>
       </c>
@@ -5093,10 +5117,10 @@
         <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5107,10 +5131,10 @@
         <v>43916</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>19</v>
@@ -5119,7 +5143,7 @@
         <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>30</v>
@@ -5133,19 +5157,19 @@
         <v>43916</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>30</v>
@@ -5159,22 +5183,22 @@
         <v>43916</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5185,10 +5209,10 @@
         <v>43916</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>107</v>
+        <v>352</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>19</v>
@@ -5197,7 +5221,7 @@
         <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>30</v>
@@ -5211,22 +5235,22 @@
         <v>43916</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5237,19 +5261,19 @@
         <v>43916</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>60</v>
@@ -5263,22 +5287,22 @@
         <v>43916</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5289,22 +5313,22 @@
         <v>43916</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5315,10 +5339,10 @@
         <v>43916</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>19</v>
@@ -5327,10 +5351,10 @@
         <v>20</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5341,10 +5365,10 @@
         <v>43916</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>19</v>
@@ -5353,10 +5377,10 @@
         <v>20</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5367,10 +5391,10 @@
         <v>43916</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>19</v>
@@ -5379,7 +5403,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>60</v>
@@ -5387,47 +5411,51 @@
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B88" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B89" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>30</v>
@@ -5435,15 +5463,17 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B90" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E90" s="1" t="s">
         <v>19</v>
       </c>
@@ -5451,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>60</v>
@@ -5462,25 +5492,23 @@
         <v>119</v>
       </c>
       <c r="B91" s="5">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5488,14 +5516,12 @@
         <v>119</v>
       </c>
       <c r="B92" s="5">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
         <v>19</v>
       </c>
@@ -5503,7 +5529,7 @@
         <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>30</v>
@@ -5514,25 +5540,23 @@
         <v>119</v>
       </c>
       <c r="B93" s="5">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5540,115 +5564,115 @@
         <v>119</v>
       </c>
       <c r="B94" s="5">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B95" s="5">
-        <v>43656</v>
+        <v>43662</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B96" s="5">
-        <v>43656</v>
+        <v>43658</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B97" s="5">
-        <v>43647</v>
+        <v>43658</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B98" s="5">
-        <v>43647</v>
+        <v>43656</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>19</v>
@@ -5657,33 +5681,33 @@
         <v>20</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B99" s="5">
-        <v>43644</v>
+        <v>43656</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>30</v>
@@ -5691,16 +5715,16 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B100" s="5">
-        <v>43632</v>
+        <v>43647</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>19</v>
@@ -5709,33 +5733,33 @@
         <v>20</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B101" s="5">
-        <v>43631</v>
+        <v>43647</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>30</v>
@@ -5743,40 +5767,42 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B102" s="5">
-        <v>43629</v>
+        <v>43644</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D102" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E102" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B103" s="5">
-        <v>43626</v>
+        <v>43632</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>19</v>
@@ -5788,48 +5814,46 @@
         <v>29</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B104" s="5">
-        <v>43626</v>
+        <v>43631</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B105" s="5">
-        <v>43620</v>
+        <v>43629</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
         <v>19</v>
       </c>
@@ -5837,50 +5861,50 @@
         <v>20</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B106" s="5">
-        <v>43616</v>
+        <v>43626</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B107" s="5">
-        <v>43616</v>
+        <v>43626</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>19</v>
@@ -5897,16 +5921,16 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B108" s="5">
-        <v>43616</v>
+        <v>43620</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>19</v>
@@ -5915,23 +5939,25 @@
         <v>20</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B109" s="5">
-        <v>43599</v>
+        <v>43616</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>19</v>
       </c>
@@ -5947,39 +5973,43 @@
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B110" s="5">
-        <v>43593</v>
+        <v>43616</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D110" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B111" s="5">
-        <v>43593</v>
+        <v>43616</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D111" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>19</v>
       </c>
@@ -5987,7 +6017,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>22</v>
@@ -5995,61 +6025,61 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B112" s="5">
-        <v>43574</v>
+        <v>43599</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B113" s="5">
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B114" s="5">
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
@@ -6059,21 +6089,21 @@
         <v>20</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B115" s="5">
-        <v>43532</v>
+        <v>43574</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
@@ -6083,10 +6113,10 @@
         <v>20</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6097,7 +6127,7 @@
         <v>43532</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
@@ -6107,10 +6137,10 @@
         <v>20</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6121,7 +6151,7 @@
         <v>43532</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
@@ -6131,10 +6161,10 @@
         <v>20</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6145,7 +6175,7 @@
         <v>43532</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
@@ -6155,10 +6185,10 @@
         <v>20</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6169,7 +6199,7 @@
         <v>43532</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
@@ -6179,7 +6209,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>22</v>
@@ -6193,7 +6223,7 @@
         <v>43532</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
@@ -6203,7 +6233,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>60</v>
@@ -6217,7 +6247,7 @@
         <v>43532</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
@@ -6227,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>60</v>
@@ -6241,7 +6271,7 @@
         <v>43532</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
@@ -6251,10 +6281,10 @@
         <v>20</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6265,20 +6295,20 @@
         <v>43532</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6289,20 +6319,20 @@
         <v>43532</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6313,17 +6343,17 @@
         <v>43532</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>30</v>
@@ -6337,7 +6367,7 @@
         <v>43532</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
@@ -6347,7 +6377,7 @@
         <v>81</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>13</v>
@@ -6361,7 +6391,7 @@
         <v>43532</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
@@ -6371,7 +6401,7 @@
         <v>81</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>13</v>
@@ -6385,20 +6415,20 @@
         <v>43532</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6409,20 +6439,20 @@
         <v>43532</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6433,20 +6463,20 @@
         <v>43532</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6457,17 +6487,17 @@
         <v>43532</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>60</v>
@@ -6481,7 +6511,7 @@
         <v>43532</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
@@ -6491,21 +6521,21 @@
         <v>26</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B133" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
@@ -6515,21 +6545,21 @@
         <v>26</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B134" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
@@ -6539,34 +6569,34 @@
         <v>26</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B135" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6574,20 +6604,20 @@
         <v>195</v>
       </c>
       <c r="B136" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>22</v>
@@ -6598,20 +6628,20 @@
         <v>195</v>
       </c>
       <c r="B137" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>30</v>
@@ -6625,7 +6655,7 @@
         <v>43341</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
@@ -6635,7 +6665,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>30</v>
@@ -6649,7 +6679,7 @@
         <v>43341</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
@@ -6659,10 +6689,10 @@
         <v>20</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6673,20 +6703,20 @@
         <v>43341</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6697,20 +6727,20 @@
         <v>43341</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6721,20 +6751,20 @@
         <v>43341</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6745,20 +6775,20 @@
         <v>43341</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6769,20 +6799,20 @@
         <v>43341</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6793,7 +6823,7 @@
         <v>43341</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
@@ -6803,7 +6833,7 @@
         <v>26</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>22</v>
@@ -6817,7 +6847,7 @@
         <v>43341</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
@@ -6827,10 +6857,10 @@
         <v>26</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6841,7 +6871,7 @@
         <v>43341</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
@@ -6851,10 +6881,10 @@
         <v>26</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6865,7 +6895,7 @@
         <v>43341</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
@@ -6875,7 +6905,7 @@
         <v>26</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>22</v>
@@ -6889,20 +6919,20 @@
         <v>43341</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6913,20 +6943,20 @@
         <v>43341</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6937,20 +6967,20 @@
         <v>43341</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6961,17 +6991,17 @@
         <v>43341</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>13</v>
@@ -6985,20 +7015,20 @@
         <v>43341</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7009,20 +7039,20 @@
         <v>43341</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7033,20 +7063,20 @@
         <v>43341</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7057,7 +7087,7 @@
         <v>43341</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
@@ -7067,7 +7097,7 @@
         <v>26</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>60</v>
@@ -7081,7 +7111,7 @@
         <v>43341</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
@@ -7091,7 +7121,7 @@
         <v>26</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>60</v>
@@ -7105,7 +7135,7 @@
         <v>43341</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
@@ -7115,7 +7145,7 @@
         <v>26</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>60</v>
@@ -7129,17 +7159,17 @@
         <v>43341</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>60</v>
@@ -7153,7 +7183,7 @@
         <v>43341</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
@@ -7163,10 +7193,10 @@
         <v>26</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7177,7 +7207,7 @@
         <v>43341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
@@ -7187,10 +7217,10 @@
         <v>26</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7201,7 +7231,7 @@
         <v>43341</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
@@ -7211,45 +7241,45 @@
         <v>26</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B163" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B164" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
@@ -7259,34 +7289,34 @@
         <v>26</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B165" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7294,20 +7324,20 @@
         <v>228</v>
       </c>
       <c r="B166" s="5">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>30</v>
@@ -7318,20 +7348,20 @@
         <v>228</v>
       </c>
       <c r="B167" s="5">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>60</v>
@@ -7342,23 +7372,23 @@
         <v>228</v>
       </c>
       <c r="B168" s="5">
-        <v>43169</v>
+        <v>43187</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7366,10 +7396,10 @@
         <v>228</v>
       </c>
       <c r="B169" s="5">
-        <v>43166</v>
+        <v>43185</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
@@ -7379,10 +7409,10 @@
         <v>26</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7390,10 +7420,10 @@
         <v>228</v>
       </c>
       <c r="B170" s="5">
-        <v>43165</v>
+        <v>43185</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
@@ -7403,7 +7433,7 @@
         <v>81</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>60</v>
@@ -7414,23 +7444,23 @@
         <v>228</v>
       </c>
       <c r="B171" s="5">
-        <v>43158</v>
+        <v>43169</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7438,10 +7468,10 @@
         <v>228</v>
       </c>
       <c r="B172" s="5">
-        <v>43158</v>
+        <v>43166</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
@@ -7451,7 +7481,7 @@
         <v>26</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>60</v>
@@ -7462,10 +7492,10 @@
         <v>228</v>
       </c>
       <c r="B173" s="5">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
@@ -7489,89 +7519,89 @@
         <v>43158</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B175" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B176" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B177" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>60</v>
@@ -7579,13 +7609,13 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B178" s="5">
-        <v>43125</v>
+        <v>43133</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
@@ -7595,21 +7625,21 @@
         <v>20</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B179" s="5">
-        <v>43109</v>
+        <v>43133</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
@@ -7619,58 +7649,58 @@
         <v>26</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B180" s="5">
-        <v>43066</v>
+        <v>43133</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B181" s="5">
-        <v>43066</v>
+        <v>43125</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7678,10 +7708,10 @@
         <v>249</v>
       </c>
       <c r="B182" s="5">
-        <v>43066</v>
+        <v>43109</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
@@ -7694,18 +7724,18 @@
         <v>29</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B183" s="5">
-        <v>43059</v>
+        <v>43066</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
@@ -7715,31 +7745,31 @@
         <v>81</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B184" s="5">
-        <v>43056</v>
+        <v>43066</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>13</v>
@@ -7747,13 +7777,13 @@
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B185" s="5">
-        <v>43046</v>
+        <v>43066</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
@@ -7763,7 +7793,7 @@
         <v>26</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>30</v>
@@ -7771,95 +7801,95 @@
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B186" s="5">
-        <v>43046</v>
+        <v>43059</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B187" s="5">
-        <v>43045</v>
+        <v>43056</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B188" s="5">
-        <v>43007</v>
+        <v>43046</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B189" s="5">
-        <v>42989</v>
+        <v>43046</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>60</v>
@@ -7867,13 +7897,13 @@
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B190" s="5">
-        <v>42989</v>
+        <v>43045</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
@@ -7883,31 +7913,31 @@
         <v>20</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B191" s="5">
-        <v>42989</v>
+        <v>43007</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>60</v>
@@ -7915,13 +7945,13 @@
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B192" s="5">
-        <v>42976</v>
+        <v>42989</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
@@ -7931,21 +7961,21 @@
         <v>20</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B193" s="5">
-        <v>42962</v>
+        <v>42989</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
@@ -7955,31 +7985,31 @@
         <v>20</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B194" s="5">
-        <v>42954</v>
+        <v>42989</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>60</v>
@@ -7987,23 +8017,23 @@
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B195" s="5">
-        <v>42954</v>
+        <v>42976</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>22</v>
@@ -8011,13 +8041,13 @@
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B196" s="5">
-        <v>42943</v>
+        <v>42962</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
@@ -8027,7 +8057,7 @@
         <v>20</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>30</v>
@@ -8035,50 +8065,50 @@
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B197" s="5">
-        <v>42942</v>
+        <v>42954</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B198" s="5">
-        <v>42942</v>
+        <v>42954</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8086,23 +8116,23 @@
         <v>276</v>
       </c>
       <c r="B199" s="5">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8113,20 +8143,20 @@
         <v>42942</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8137,7 +8167,7 @@
         <v>42942</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
@@ -8150,7 +8180,7 @@
         <v>12</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8161,7 +8191,7 @@
         <v>42942</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
@@ -8171,7 +8201,7 @@
         <v>26</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>60</v>
@@ -8179,95 +8209,95 @@
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B203" s="5">
-        <v>42928</v>
+        <v>42942</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>282</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B204" s="5">
-        <v>42914</v>
+        <v>42942</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B205" s="5">
-        <v>42907</v>
+        <v>42942</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B206" s="5">
-        <v>42885</v>
+        <v>42928</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>22</v>
@@ -8275,61 +8305,61 @@
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B207" s="5">
-        <v>42878</v>
+        <v>42914</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B208" s="5">
-        <v>42865</v>
+        <v>42907</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B209" s="5">
-        <v>42865</v>
+        <v>42885</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
@@ -8339,69 +8369,69 @@
         <v>20</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B210" s="5">
-        <v>42863</v>
+        <v>42878</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B211" s="5">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B212" s="5">
-        <v>42856</v>
+        <v>42865</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
@@ -8411,31 +8441,31 @@
         <v>20</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B213" s="5">
-        <v>42843</v>
+        <v>42863</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>60</v>
@@ -8443,121 +8473,119 @@
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B214" s="5">
-        <v>42843</v>
+        <v>42863</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B215" s="5">
-        <v>42839</v>
+        <v>42856</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B216" s="5">
-        <v>42838</v>
+        <v>42843</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B217" s="5">
-        <v>42838</v>
+        <v>42843</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B218" s="5">
-        <v>42696</v>
+        <v>42839</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>314</v>
+        <v>56</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>22</v>
@@ -8565,126 +8593,173 @@
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B219" s="5">
-        <v>42691</v>
+        <v>42838</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D219" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="E219" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B220" s="5">
-        <v>42689</v>
+        <v>42838</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B221" s="5">
-        <v>42683</v>
+        <v>42696</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B222" s="5">
-        <v>42683</v>
+        <v>42691</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B223" s="5">
+        <v>42689</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B224" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B225" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F225" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G225" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="1"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="1"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-    </row>
-    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="1"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
     </row>
     <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
@@ -15976,6 +16051,33 @@
       <c r="G1035" s="1"/>
       <c r="H1035" s="1"/>
     </row>
+    <row r="1036" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1"/>
+      <c r="C1036" s="2"/>
+      <c r="D1036" s="1"/>
+      <c r="E1036" s="1"/>
+      <c r="F1036" s="1"/>
+      <c r="G1036" s="1"/>
+      <c r="H1036" s="1"/>
+    </row>
+    <row r="1037" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1"/>
+      <c r="C1037" s="2"/>
+      <c r="D1037" s="1"/>
+      <c r="E1037" s="1"/>
+      <c r="F1037" s="1"/>
+      <c r="G1037" s="1"/>
+      <c r="H1037" s="1"/>
+    </row>
+    <row r="1038" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1"/>
+      <c r="C1038" s="2"/>
+      <c r="D1038" s="1"/>
+      <c r="E1038" s="1"/>
+      <c r="F1038" s="1"/>
+      <c r="G1038" s="1"/>
+      <c r="H1038" s="1"/>
+    </row>
   </sheetData>
   <sortState ref="A2:K20">
     <sortCondition descending="1" ref="B2:B20"/>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard.Methot\Documents\GitHub\StockSynthesis_git\stock-synthesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn.Doering\Documents\github_repos\stock-synthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$225</definedName>
-    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$231</definedName>
+    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$202</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="462">
   <si>
     <t>Version</t>
   </si>
@@ -2581,35 +2581,71 @@
     <t>Internal calc: fix bug in indexing for some valid dirichlet multinomial specifications</t>
   </si>
   <si>
-    <t>3.30.18beta</t>
-  </si>
-  <si>
     <t>fleet-specific F method; allows mix of parameter and hybrid methods</t>
   </si>
   <si>
-    <t>git #33</t>
-  </si>
-  <si>
     <t>fix Lorenzen M was not updating by season</t>
   </si>
   <si>
-    <t>git #181</t>
-  </si>
-  <si>
     <t>add output of F at Blimit (usage is for approaching overfished condition</t>
   </si>
   <si>
-    <t>git #188</t>
-  </si>
-  <si>
-    <t>git #183; #184</t>
+    <t>3.30.18</t>
+  </si>
+  <si>
+    <t>No longer compile SS transition executable</t>
+  </si>
+  <si>
+    <t>#151</t>
+  </si>
+  <si>
+    <t>Fleet type 4 - define a predator fleet that adds pred. mortality to base M</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>Fix Extra std-err for combined age-length selectivity</t>
+  </si>
+  <si>
+    <t> #180</t>
+  </si>
+  <si>
+    <t>Lambda for equilibrium catch was mixed up with lambda for catch.</t>
+  </si>
+  <si>
+    <t>#91</t>
+  </si>
+  <si>
+    <t>#188</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>#181</t>
+  </si>
+  <si>
+    <t>#183</t>
+  </si>
+  <si>
+    <t>3.30.18 released</t>
+  </si>
+  <si>
+    <t>3.30.18 prerelease</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>#207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2646,6 +2682,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2664,10 +2713,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2686,8 +2736,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2901,11 +2954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1038"/>
+  <dimension ref="A1:Z1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2952,79 +3005,79 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B2" s="5">
-        <v>44432</v>
+        <v>44469</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>460</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B3" s="5">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>446</v>
+        <v>459</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B4" s="5">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -3033,52 +3086,52 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B5" s="5">
-        <v>44362</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>449</v>
+        <v>44432</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B6" s="5">
-        <v>44358</v>
+        <v>44432</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>444</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>387</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -3087,70 +3140,70 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B7" s="5">
-        <v>44322</v>
+        <v>44427</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>383</v>
+        <v>443</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B8" s="5">
-        <v>44316</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>394</v>
+        <v>44428</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B9" s="5">
-        <v>44299</v>
+        <v>44427</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>384</v>
+        <v>442</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -3159,91 +3212,91 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B10" s="5">
-        <v>44291</v>
+        <v>44371</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>402</v>
+        <v>446</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44362</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44285</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B12" s="5">
-        <v>44277</v>
+        <v>44358</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -3252,46 +3305,46 @@
         <v>391</v>
       </c>
       <c r="B13" s="5">
-        <v>44273</v>
+        <v>44322</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>376</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B14" s="5">
-        <v>44272</v>
+        <v>44316</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>49</v>
@@ -3301,30 +3354,30 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B15" s="5">
-        <v>44272</v>
+        <v>44299</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -3333,52 +3386,52 @@
         <v>391</v>
       </c>
       <c r="B16" s="5">
-        <v>44267</v>
+        <v>44291</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B17" s="5">
-        <v>44266</v>
+        <v>44285</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -3387,25 +3440,25 @@
         <v>391</v>
       </c>
       <c r="B18" s="5">
-        <v>44266</v>
+        <v>44277</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -3414,13 +3467,13 @@
         <v>391</v>
       </c>
       <c r="B19" s="5">
-        <v>44264</v>
+        <v>44273</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -3429,52 +3482,52 @@
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B20" s="5">
-        <v>44260</v>
+        <v>44272</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B21" s="5">
-        <v>44236</v>
+        <v>44272</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -3483,10 +3536,10 @@
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -3495,13 +3548,13 @@
         <v>391</v>
       </c>
       <c r="B22" s="5">
-        <v>44232</v>
+        <v>44267</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -3510,10 +3563,10 @@
         <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -3522,13 +3575,13 @@
         <v>391</v>
       </c>
       <c r="B23" s="5">
-        <v>44223</v>
+        <v>44266</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
@@ -3544,30 +3597,30 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B24" s="5">
-        <v>44222</v>
+        <v>44266</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I24" s="3"/>
     </row>
@@ -3576,13 +3629,13 @@
         <v>391</v>
       </c>
       <c r="B25" s="5">
-        <v>44186</v>
+        <v>44264</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>19</v>
@@ -3591,10 +3644,10 @@
         <v>26</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -3603,13 +3656,13 @@
         <v>391</v>
       </c>
       <c r="B26" s="5">
-        <v>44183</v>
+        <v>44260</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>19</v>
@@ -3618,7 +3671,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>30</v>
@@ -3630,25 +3683,25 @@
         <v>391</v>
       </c>
       <c r="B27" s="5">
-        <v>44180</v>
+        <v>44236</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -3657,22 +3710,22 @@
         <v>391</v>
       </c>
       <c r="B28" s="5">
-        <v>44168</v>
+        <v>44232</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>60</v>
@@ -3684,25 +3737,25 @@
         <v>391</v>
       </c>
       <c r="B29" s="5">
-        <v>44140</v>
+        <v>44223</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I29" s="3"/>
     </row>
@@ -3711,25 +3764,25 @@
         <v>391</v>
       </c>
       <c r="B30" s="5">
-        <v>44136</v>
+        <v>44222</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>387</v>
+        <v>22</v>
       </c>
       <c r="I30" s="3"/>
     </row>
@@ -3738,49 +3791,49 @@
         <v>391</v>
       </c>
       <c r="B31" s="5">
-        <v>44127</v>
+        <v>44186</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>29</v>
+        <v>386</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B32" s="5">
-        <v>44123</v>
+        <v>44183</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
@@ -3792,13 +3845,13 @@
         <v>391</v>
       </c>
       <c r="B33" s="5">
-        <v>44123</v>
+        <v>44180</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
@@ -3807,106 +3860,106 @@
         <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B34" s="5">
-        <v>44117</v>
+        <v>44168</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B35" s="5">
-        <v>44099</v>
+        <v>44140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B36" s="5">
-        <v>44095</v>
+        <v>44136</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>60</v>
+        <v>387</v>
       </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="B37" s="5">
-        <v>44090</v>
+        <v>44127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
@@ -3915,235 +3968,187 @@
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>389</v>
+        <v>29</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" s="5">
+        <v>44123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="5">
+        <v>44123</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B38" s="5">
-        <v>44077</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B40" s="5">
+        <v>44117</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B39" s="5">
-        <v>44075</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="5">
-        <v>44018</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="B41" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>326</v>
+        <v>44099</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>374</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="B42" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>17</v>
+        <v>44095</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>365</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>362</v>
       </c>
       <c r="B43" s="5">
-        <v>43998</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>24</v>
+        <v>44090</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>25</v>
+        <v>390</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>21</v>
+        <v>389</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>362</v>
       </c>
       <c r="B44" s="5">
-        <v>43998</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>27</v>
+        <v>44077</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>19</v>
@@ -4152,54 +4157,48 @@
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>325</v>
       </c>
       <c r="B45" s="5">
-        <v>43991</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B46" s="5">
-        <v>43972</v>
+        <v>44018</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
@@ -4208,119 +4207,167 @@
         <v>11</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B47" s="5">
-        <v>43970</v>
+        <v>44005</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B48" s="5">
-        <v>43957</v>
+        <v>44005</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B49" s="5">
-        <v>43957</v>
+        <v>43998</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B50" s="5">
-        <v>43957</v>
+        <v>43998</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>30</v>
@@ -4330,16 +4377,16 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B51" s="5">
-        <v>43952</v>
+        <v>43991</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>329</v>
+        <v>32</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>19</v>
@@ -4348,42 +4395,26 @@
         <v>20</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B52" s="5">
-        <v>43951</v>
+        <v>43972</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>10</v>
@@ -4392,82 +4423,54 @@
         <v>11</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B53" s="5">
-        <v>43951</v>
+        <v>43970</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>52</v>
+        <v>327</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="5">
-        <v>43948</v>
+        <v>43957</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>
@@ -4476,42 +4479,26 @@
         <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B55" s="5">
-        <v>43944</v>
+        <v>43957</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>330</v>
+        <v>44</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
@@ -4520,42 +4507,26 @@
         <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B56" s="5">
-        <v>43944</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>62</v>
+        <v>43957</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>19</v>
@@ -4564,51 +4535,35 @@
         <v>26</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B57" s="5">
-        <v>43935</v>
+        <v>43952</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>30</v>
@@ -4634,125 +4589,188 @@
     </row>
     <row r="58" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B58" s="5">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B59" s="5">
-        <v>43927</v>
+        <v>43951</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="5">
+        <v>43944</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="5">
-        <v>43923</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="5">
-        <v>43923</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B62" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>334</v>
+        <v>43944</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>19</v>
@@ -4761,141 +4779,184 @@
         <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B63" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>335</v>
+        <v>43935</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B64" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>336</v>
+        <v>43927</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>337</v>
+        <v>43927</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>338</v>
+        <v>43923</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B67" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>339</v>
+        <v>43923</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -4903,25 +4964,25 @@
         <v>43916</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -4929,10 +4990,10 @@
         <v>43916</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>19</v>
@@ -4941,13 +5002,13 @@
         <v>20</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -4955,23 +5016,25 @@
         <v>43916</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G70" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -4979,25 +5042,23 @@
         <v>43916</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -5005,25 +5066,25 @@
         <v>43916</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -5031,25 +5092,25 @@
         <v>43916</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -5057,25 +5118,25 @@
         <v>43916</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -5083,23 +5144,25 @@
         <v>43916</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G75" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -5107,23 +5170,23 @@
         <v>43916</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>342</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>73</v>
       </c>
@@ -5131,25 +5194,25 @@
         <v>43916</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -5157,10 +5220,10 @@
         <v>43916</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>19</v>
@@ -5175,7 +5238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
@@ -5183,25 +5246,25 @@
         <v>43916</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
@@ -5209,10 +5272,10 @@
         <v>43916</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>19</v>
@@ -5221,10 +5284,10 @@
         <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5235,22 +5298,20 @@
         <v>43916</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5261,22 +5322,20 @@
         <v>43916</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5287,10 +5346,10 @@
         <v>43916</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>107</v>
+        <v>349</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>19</v>
@@ -5299,7 +5358,7 @@
         <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>30</v>
@@ -5313,10 +5372,10 @@
         <v>43916</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>19</v>
@@ -5325,10 +5384,10 @@
         <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5339,22 +5398,22 @@
         <v>43916</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5365,22 +5424,22 @@
         <v>43916</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5391,22 +5450,22 @@
         <v>43916</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5417,22 +5476,22 @@
         <v>43916</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5443,16 +5502,16 @@
         <v>43916</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>360</v>
+        <v>107</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>29</v>
@@ -5469,83 +5528,89 @@
         <v>43916</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B91" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D91" s="1"/>
+        <v>356</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B92" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E92" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B93" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D93" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E93" s="1" t="s">
         <v>19</v>
       </c>
@@ -5553,7 +5618,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>60</v>
@@ -5561,16 +5626,16 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B94" s="5">
-        <v>43662</v>
+        <v>43916</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>19</v>
@@ -5579,7 +5644,7 @@
         <v>20</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>30</v>
@@ -5587,25 +5652,25 @@
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B95" s="5">
-        <v>43662</v>
+        <v>43916</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>126</v>
+        <v>360</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>30</v>
@@ -5613,28 +5678,28 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B96" s="5">
-        <v>43658</v>
+        <v>43916</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5642,64 +5707,60 @@
         <v>119</v>
       </c>
       <c r="B97" s="5">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B98" s="5">
-        <v>43656</v>
+        <v>43665</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B99" s="5">
-        <v>43656</v>
+        <v>43665</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
         <v>19</v>
       </c>
@@ -5707,24 +5768,24 @@
         <v>20</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B100" s="5">
-        <v>43647</v>
+        <v>43662</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>19</v>
@@ -5733,7 +5794,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>30</v>
@@ -5741,25 +5802,25 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B101" s="5">
-        <v>43647</v>
+        <v>43662</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>30</v>
@@ -5767,93 +5828,93 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B102" s="5">
-        <v>43644</v>
+        <v>43658</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B103" s="5">
-        <v>43632</v>
+        <v>43658</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B104" s="5">
-        <v>43631</v>
+        <v>43656</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B105" s="5">
-        <v>43629</v>
+        <v>43656</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>19</v>
       </c>
@@ -5861,24 +5922,24 @@
         <v>20</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B106" s="5">
-        <v>43626</v>
+        <v>43647</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>19</v>
@@ -5887,7 +5948,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>30</v>
@@ -5895,16 +5956,16 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B107" s="5">
-        <v>43626</v>
+        <v>43647</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>19</v>
@@ -5913,33 +5974,33 @@
         <v>20</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B108" s="5">
-        <v>43620</v>
+        <v>43644</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>30</v>
@@ -5947,25 +6008,25 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B109" s="5">
-        <v>43616</v>
+        <v>43632</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>60</v>
@@ -5973,43 +6034,41 @@
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B110" s="5">
-        <v>43616</v>
+        <v>43631</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B111" s="5">
-        <v>43616</v>
+        <v>43629</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
         <v>19</v>
       </c>
@@ -6017,7 +6076,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>22</v>
@@ -6025,63 +6084,69 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B112" s="5">
-        <v>43599</v>
+        <v>43626</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D112" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B113" s="5">
-        <v>43593</v>
+        <v>43626</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D113" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E113" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B114" s="5">
-        <v>43593</v>
+        <v>43620</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D114" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>19</v>
       </c>
@@ -6089,47 +6154,51 @@
         <v>20</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B115" s="5">
-        <v>43574</v>
+        <v>43616</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D115" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B116" s="5">
-        <v>43532</v>
+        <v>43616</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>19</v>
       </c>
@@ -6137,7 +6206,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>60</v>
@@ -6145,15 +6214,17 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B117" s="5">
-        <v>43532</v>
+        <v>43616</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D117" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E117" s="1" t="s">
         <v>19</v>
       </c>
@@ -6161,55 +6232,55 @@
         <v>20</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B118" s="5">
-        <v>43532</v>
+        <v>43599</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B119" s="5">
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>22</v>
@@ -6217,13 +6288,13 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B120" s="5">
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
@@ -6233,21 +6304,21 @@
         <v>20</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B121" s="5">
-        <v>43532</v>
+        <v>43574</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1" t="s">
@@ -6257,10 +6328,10 @@
         <v>20</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6271,7 +6342,7 @@
         <v>43532</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
@@ -6281,10 +6352,10 @@
         <v>20</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6295,7 +6366,7 @@
         <v>43532</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
@@ -6305,10 +6376,10 @@
         <v>20</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6319,7 +6390,7 @@
         <v>43532</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
@@ -6329,10 +6400,10 @@
         <v>20</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6343,7 +6414,7 @@
         <v>43532</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
@@ -6353,10 +6424,10 @@
         <v>20</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6367,20 +6438,20 @@
         <v>43532</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6391,20 +6462,20 @@
         <v>43532</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6415,20 +6486,20 @@
         <v>43532</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6439,20 +6510,20 @@
         <v>43532</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6463,20 +6534,20 @@
         <v>43532</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6487,20 +6558,20 @@
         <v>43532</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6511,20 +6582,20 @@
         <v>43532</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6535,20 +6606,20 @@
         <v>43532</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6559,20 +6630,20 @@
         <v>43532</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6583,164 +6654,164 @@
         <v>43532</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B136" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B137" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B138" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B139" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B140" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B141" s="5">
-        <v>43341</v>
+        <v>43532</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6748,23 +6819,23 @@
         <v>195</v>
       </c>
       <c r="B142" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6772,23 +6843,23 @@
         <v>195</v>
       </c>
       <c r="B143" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6799,20 +6870,20 @@
         <v>43341</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6823,17 +6894,17 @@
         <v>43341</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>22</v>
@@ -6847,20 +6918,20 @@
         <v>43341</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6871,20 +6942,20 @@
         <v>43341</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6895,20 +6966,20 @@
         <v>43341</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6919,20 +6990,20 @@
         <v>43341</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6943,20 +7014,20 @@
         <v>43341</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6967,7 +7038,7 @@
         <v>43341</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
@@ -6977,7 +7048,7 @@
         <v>26</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>22</v>
@@ -6991,20 +7062,20 @@
         <v>43341</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7015,20 +7086,20 @@
         <v>43341</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7039,20 +7110,20 @@
         <v>43341</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7063,20 +7134,20 @@
         <v>43341</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7087,7 +7158,7 @@
         <v>43341</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
@@ -7097,7 +7168,7 @@
         <v>26</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>60</v>
@@ -7111,7 +7182,7 @@
         <v>43341</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
@@ -7121,10 +7192,10 @@
         <v>26</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7135,20 +7206,20 @@
         <v>43341</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7159,20 +7230,20 @@
         <v>43341</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7183,20 +7254,20 @@
         <v>43341</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7207,20 +7278,20 @@
         <v>43341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7231,17 +7302,17 @@
         <v>43341</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>60</v>
@@ -7255,7 +7326,7 @@
         <v>43341</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
@@ -7265,10 +7336,10 @@
         <v>26</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7279,7 +7350,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
@@ -7289,10 +7360,10 @@
         <v>26</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7303,55 +7374,55 @@
         <v>43341</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B166" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B167" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
@@ -7361,7 +7432,7 @@
         <v>26</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>60</v>
@@ -7369,23 +7440,23 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B168" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>60</v>
@@ -7393,13 +7464,13 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B169" s="5">
-        <v>43185</v>
+        <v>43341</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
@@ -7409,55 +7480,55 @@
         <v>26</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B170" s="5">
-        <v>43185</v>
+        <v>43341</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B171" s="5">
-        <v>43169</v>
+        <v>43341</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>13</v>
@@ -7468,23 +7539,23 @@
         <v>228</v>
       </c>
       <c r="B172" s="5">
-        <v>43166</v>
+        <v>43187</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7492,20 +7563,20 @@
         <v>228</v>
       </c>
       <c r="B173" s="5">
-        <v>43165</v>
+        <v>43187</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>60</v>
@@ -7516,23 +7587,23 @@
         <v>228</v>
       </c>
       <c r="B174" s="5">
-        <v>43158</v>
+        <v>43187</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7540,10 +7611,10 @@
         <v>228</v>
       </c>
       <c r="B175" s="5">
-        <v>43158</v>
+        <v>43185</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
@@ -7553,10 +7624,10 @@
         <v>26</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7564,10 +7635,10 @@
         <v>228</v>
       </c>
       <c r="B176" s="5">
-        <v>43158</v>
+        <v>43185</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
@@ -7577,7 +7648,7 @@
         <v>81</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>60</v>
@@ -7588,10 +7659,10 @@
         <v>228</v>
       </c>
       <c r="B177" s="5">
-        <v>43158</v>
+        <v>43169</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
@@ -7601,127 +7672,127 @@
         <v>81</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B178" s="5">
-        <v>43133</v>
+        <v>43166</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B179" s="5">
-        <v>43133</v>
+        <v>43165</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B180" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B181" s="5">
-        <v>43125</v>
+        <v>43158</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B182" s="5">
-        <v>43109</v>
+        <v>43158</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>60</v>
@@ -7729,61 +7800,61 @@
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="B183" s="5">
-        <v>43066</v>
+        <v>43158</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B184" s="5">
-        <v>43066</v>
+        <v>43133</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B185" s="5">
-        <v>43066</v>
+        <v>43133</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
@@ -7793,69 +7864,69 @@
         <v>26</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B186" s="5">
-        <v>43059</v>
+        <v>43133</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B187" s="5">
-        <v>43056</v>
+        <v>43125</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B188" s="5">
-        <v>43046</v>
+        <v>43109</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
@@ -7865,189 +7936,189 @@
         <v>26</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B189" s="5">
-        <v>43046</v>
+        <v>43066</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B190" s="5">
-        <v>43045</v>
+        <v>43066</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B191" s="5">
-        <v>43007</v>
+        <v>43066</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B192" s="5">
-        <v>42989</v>
+        <v>43059</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B193" s="5">
-        <v>42989</v>
+        <v>43056</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B194" s="5">
-        <v>42989</v>
+        <v>43046</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B195" s="5">
-        <v>42976</v>
+        <v>43046</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B196" s="5">
-        <v>42962</v>
+        <v>43045</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
@@ -8057,7 +8128,7 @@
         <v>20</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>30</v>
@@ -8065,23 +8136,23 @@
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B197" s="5">
-        <v>42954</v>
+        <v>43007</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>60</v>
@@ -8089,37 +8160,37 @@
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B198" s="5">
-        <v>42954</v>
+        <v>42989</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B199" s="5">
-        <v>42943</v>
+        <v>42989</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
@@ -8129,103 +8200,103 @@
         <v>20</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B200" s="5">
-        <v>42942</v>
+        <v>42989</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B201" s="5">
-        <v>42942</v>
+        <v>42976</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B202" s="5">
-        <v>42942</v>
+        <v>42962</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B203" s="5">
-        <v>42942</v>
+        <v>42954</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>60</v>
@@ -8233,26 +8304,26 @@
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B204" s="5">
-        <v>42942</v>
+        <v>42954</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8260,68 +8331,68 @@
         <v>276</v>
       </c>
       <c r="B205" s="5">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B206" s="5">
-        <v>42928</v>
+        <v>42942</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B207" s="5">
-        <v>42914</v>
+        <v>42942</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>60</v>
@@ -8329,37 +8400,37 @@
     </row>
     <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B208" s="5">
-        <v>42907</v>
+        <v>42942</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B209" s="5">
-        <v>42885</v>
+        <v>42942</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
@@ -8369,45 +8440,45 @@
         <v>20</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B210" s="5">
-        <v>42878</v>
+        <v>42942</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B211" s="5">
-        <v>42865</v>
+        <v>42942</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
@@ -8420,52 +8491,52 @@
         <v>29</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B212" s="5">
-        <v>42865</v>
+        <v>42928</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B213" s="5">
-        <v>42863</v>
+        <v>42914</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>60</v>
@@ -8473,37 +8544,37 @@
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B214" s="5">
-        <v>42863</v>
+        <v>42907</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B215" s="5">
-        <v>42856</v>
+        <v>42885</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
@@ -8513,55 +8584,55 @@
         <v>20</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B216" s="5">
-        <v>42843</v>
+        <v>42878</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B217" s="5">
-        <v>42843</v>
+        <v>42865</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>22</v>
@@ -8569,111 +8640,109 @@
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B218" s="5">
-        <v>42839</v>
+        <v>42865</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B219" s="5">
-        <v>42838</v>
+        <v>42863</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B220" s="5">
-        <v>42838</v>
+        <v>42863</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B221" s="5">
-        <v>42696</v>
+        <v>42856</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B222" s="5">
-        <v>42691</v>
+        <v>42843</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
@@ -8683,137 +8752,229 @@
         <v>20</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B223" s="5">
-        <v>42689</v>
+        <v>42843</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B224" s="5">
-        <v>42683</v>
+        <v>42839</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B225" s="5">
+        <v>42838</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B226" s="5">
+        <v>42838</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B227" s="5">
+        <v>42696</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B228" s="5">
+        <v>42691</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B229" s="5">
+        <v>42689</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B230" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B231" s="5">
         <v>42683</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1" t="s">
+      <c r="D231" s="1"/>
+      <c r="E231" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F231" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G231" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="1"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="1"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="1"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
     </row>
     <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
@@ -16078,11 +16239,77 @@
       <c r="G1038" s="1"/>
       <c r="H1038" s="1"/>
     </row>
+    <row r="1039" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1"/>
+      <c r="C1039" s="2"/>
+      <c r="D1039" s="1"/>
+      <c r="E1039" s="1"/>
+      <c r="F1039" s="1"/>
+      <c r="G1039" s="1"/>
+      <c r="H1039" s="1"/>
+    </row>
+    <row r="1040" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1"/>
+      <c r="C1040" s="2"/>
+      <c r="D1040" s="1"/>
+      <c r="E1040" s="1"/>
+      <c r="F1040" s="1"/>
+      <c r="G1040" s="1"/>
+      <c r="H1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1"/>
+      <c r="C1041" s="2"/>
+      <c r="D1041" s="1"/>
+      <c r="E1041" s="1"/>
+      <c r="F1041" s="1"/>
+      <c r="G1041" s="1"/>
+      <c r="H1041" s="1"/>
+    </row>
+    <row r="1042" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1"/>
+      <c r="C1042" s="2"/>
+      <c r="D1042" s="1"/>
+      <c r="E1042" s="1"/>
+      <c r="F1042" s="1"/>
+      <c r="G1042" s="1"/>
+      <c r="H1042" s="1"/>
+    </row>
+    <row r="1043" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1"/>
+      <c r="C1043" s="2"/>
+      <c r="D1043" s="1"/>
+      <c r="E1043" s="1"/>
+      <c r="F1043" s="1"/>
+      <c r="G1043" s="1"/>
+      <c r="H1043" s="1"/>
+    </row>
+    <row r="1044" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1"/>
+      <c r="C1044" s="2"/>
+      <c r="D1044" s="1"/>
+      <c r="E1044" s="1"/>
+      <c r="F1044" s="1"/>
+      <c r="G1044" s="1"/>
+      <c r="H1044" s="1"/>
+    </row>
   </sheetData>
   <sortState ref="A2:K20">
     <sortCondition descending="1" ref="B2:B20"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/151"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/45"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/180"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/188"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/33"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/181"/>
+    <hyperlink ref="D11" r:id="rId7" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/183"/>
+    <hyperlink ref="D8" r:id="rId8" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/91"/>
+    <hyperlink ref="D2" r:id="rId9" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/207"/>
+    <hyperlink ref="D3" r:id="rId10" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/207"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn.Doering\Documents\github_repos\nmfs-stock-synthesis_repos\stock-synthesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard.Methot\Documents\GitHub\StockSynthesis_git\stock-synthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2722,15 +2722,9 @@
     <t>#251</t>
   </si>
   <si>
-    <t>Fix mirroring dispersion tag parameters</t>
-  </si>
-  <si>
     <t>#268</t>
   </si>
   <si>
-    <t>Fix lengthcomp superperiods so work with retrospectives</t>
-  </si>
-  <si>
     <t>#265</t>
   </si>
   <si>
@@ -2743,9 +2737,6 @@
     <t>input, calc</t>
   </si>
   <si>
-    <t>Fix summary biomass sd so will work</t>
-  </si>
-  <si>
     <t>#271</t>
   </si>
   <si>
@@ -2753,6 +2744,15 @@
   </si>
   <si>
     <t>#276</t>
+  </si>
+  <si>
+    <t>Fix mirroring of dispersion tag parameters</t>
+  </si>
+  <si>
+    <t>Fix lengthcomp superperiods so will work with retrospectives; but not a generalized fix for superperiods</t>
+  </si>
+  <si>
+    <t>Fix: finish implementation of sd for  summary biomass</t>
   </si>
 </sst>
 </file>
@@ -3075,10 +3075,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="5" customWidth="1"/>
@@ -3093,7 +3093,7 @@
     <col min="27" max="16384" width="12.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>462</v>
       </c>
@@ -3128,10 +3128,10 @@
         <v>44642</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>462</v>
       </c>
@@ -3155,10 +3155,10 @@
         <v>44642</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>462</v>
       </c>
@@ -3182,10 +3182,10 @@
         <v>44637</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -3197,11 +3197,11 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>462</v>
       </c>
@@ -3209,10 +3209,10 @@
         <v>44631</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>462</v>
       </c>
@@ -3236,10 +3236,10 @@
         <v>44631</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>490</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>462</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>462</v>
       </c>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>462</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>462</v>
       </c>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>462</v>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>462</v>
       </c>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>462</v>
       </c>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>462</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>462</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>462</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>445</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>445</v>
       </c>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>445</v>
       </c>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>445</v>
       </c>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>445</v>
       </c>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>445</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>445</v>
       </c>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>445</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>445</v>
       </c>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>439</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>391</v>
       </c>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>391</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>391</v>
       </c>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>391</v>
       </c>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>391</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>391</v>
       </c>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>391</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>391</v>
       </c>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>391</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>391</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>391</v>
       </c>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>391</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>391</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>391</v>
       </c>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>391</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>391</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>391</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>391</v>
       </c>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>391</v>
       </c>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>391</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>391</v>
       </c>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>391</v>
       </c>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>391</v>
       </c>
@@ -4470,7 +4470,7 @@
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>391</v>
       </c>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>391</v>
       </c>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>391</v>
       </c>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>391</v>
       </c>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>391</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>391</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>364</v>
       </c>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>364</v>
       </c>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>362</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>362</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>325</v>
       </c>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -4851,7 +4851,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>14</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>23</v>
       </c>
@@ -4923,7 +4923,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -4951,7 +4951,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>31</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>34</v>
       </c>
@@ -5007,7 +5007,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>34</v>
       </c>
@@ -5035,7 +5035,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>40</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
@@ -5091,7 +5091,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
@@ -5291,7 +5291,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>64</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>64</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>64</v>
       </c>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>64</v>
       </c>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>64</v>
       </c>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>73</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>73</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>73</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>73</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>73</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>73</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>73</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>73</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>73</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>73</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>73</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>73</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>73</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>73</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>73</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>73</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>73</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>73</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>73</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>73</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>73</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>73</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>73</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>73</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>73</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>131</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>136</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>136</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>143</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>143</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>147</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>149</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>149</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>154</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>157</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>157</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>157</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>164</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>166</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>166</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>170</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>172</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>172</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>172</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>172</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>172</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>172</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>172</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>172</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>172</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>172</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>172</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>172</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>172</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>172</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>172</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>172</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>172</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>172</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>172</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>172</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>195</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>195</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>195</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>195</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>195</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>195</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>195</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>195</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>195</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>195</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>195</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>195</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>195</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>195</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>195</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>195</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>195</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>195</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>195</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>195</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>195</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>195</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>195</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>195</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>195</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>195</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>195</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>195</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>195</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>195</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>228</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>228</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>228</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>228</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>228</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>228</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>228</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>228</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>228</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>228</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>228</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>228</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>242</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>242</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>242</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>247</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>249</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>249</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>249</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>249</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>255</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>255</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>258</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>258</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>258</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>262</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>264</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>264</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>264</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>269</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>271</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>273</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>273</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>276</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>276</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>276</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>276</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>276</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>276</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>276</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>285</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>287</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>289</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>291</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>291</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>294</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>294</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>297</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>297</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>300</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>302</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>304</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>304</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>307</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>310</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>312</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>315</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>318</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>320</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>322</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="C249" s="2"/>
       <c r="D249" s="1"/>
@@ -9561,7 +9561,7 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
     </row>
-    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="C250" s="2"/>
       <c r="D250" s="1"/>
@@ -9570,7 +9570,7 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
     </row>
-    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="C251" s="2"/>
       <c r="D251" s="1"/>
@@ -9579,7 +9579,7 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
     </row>
-    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="C252" s="2"/>
       <c r="D252" s="1"/>
@@ -9588,7 +9588,7 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
     </row>
-    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="C253" s="2"/>
       <c r="D253" s="1"/>
@@ -9597,7 +9597,7 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
     </row>
-    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="C254" s="2"/>
       <c r="D254" s="1"/>
@@ -9606,7 +9606,7 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
     </row>
-    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="C255" s="2"/>
       <c r="D255" s="1"/>
@@ -9615,7 +9615,7 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
     </row>
-    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="C256" s="2"/>
       <c r="D256" s="1"/>
@@ -9624,7 +9624,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
     </row>
-    <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="C257" s="2"/>
       <c r="D257" s="1"/>
@@ -9633,7 +9633,7 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
     </row>
-    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="C258" s="2"/>
       <c r="D258" s="1"/>
@@ -9642,7 +9642,7 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
     </row>
-    <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="C259" s="2"/>
       <c r="D259" s="1"/>
@@ -9651,7 +9651,7 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
     </row>
-    <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="C260" s="2"/>
       <c r="D260" s="1"/>
@@ -9660,7 +9660,7 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
     </row>
-    <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="C261" s="2"/>
       <c r="D261" s="1"/>
@@ -9669,7 +9669,7 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
     </row>
-    <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="C262" s="2"/>
       <c r="D262" s="1"/>
@@ -9678,7 +9678,7 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
     </row>
-    <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="C263" s="2"/>
       <c r="D263" s="1"/>
@@ -9687,7 +9687,7 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="C264" s="2"/>
       <c r="D264" s="1"/>
@@ -9696,7 +9696,7 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
     </row>
-    <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="C265" s="2"/>
       <c r="D265" s="1"/>
@@ -9705,7 +9705,7 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
     </row>
-    <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="C266" s="2"/>
       <c r="D266" s="1"/>
@@ -9714,7 +9714,7 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
     </row>
-    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="C267" s="2"/>
       <c r="D267" s="1"/>
@@ -9723,7 +9723,7 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
     </row>
-    <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="C268" s="2"/>
       <c r="D268" s="1"/>
@@ -9732,7 +9732,7 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
     </row>
-    <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="C269" s="2"/>
       <c r="D269" s="1"/>
@@ -9741,7 +9741,7 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
     </row>
-    <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="C270" s="2"/>
       <c r="D270" s="1"/>
@@ -9750,7 +9750,7 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
     </row>
-    <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="C271" s="2"/>
       <c r="D271" s="1"/>
@@ -9759,7 +9759,7 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
     </row>
-    <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="C272" s="2"/>
       <c r="D272" s="1"/>
@@ -9768,7 +9768,7 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
     </row>
-    <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="C273" s="2"/>
       <c r="D273" s="1"/>
@@ -9777,7 +9777,7 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
     </row>
-    <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="C274" s="2"/>
       <c r="D274" s="1"/>
@@ -9786,7 +9786,7 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
     </row>
-    <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="C275" s="2"/>
       <c r="D275" s="1"/>
@@ -9795,7 +9795,7 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
     </row>
-    <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="C276" s="2"/>
       <c r="D276" s="1"/>
@@ -9804,7 +9804,7 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
     </row>
-    <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="C277" s="2"/>
       <c r="D277" s="1"/>
@@ -9813,7 +9813,7 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
     </row>
-    <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="C278" s="2"/>
       <c r="D278" s="1"/>
@@ -9822,7 +9822,7 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
     </row>
-    <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="C279" s="2"/>
       <c r="D279" s="1"/>
@@ -9831,7 +9831,7 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
     </row>
-    <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="C280" s="2"/>
       <c r="D280" s="1"/>
@@ -9840,7 +9840,7 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
     </row>
-    <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="C281" s="2"/>
       <c r="D281" s="1"/>
@@ -9849,7 +9849,7 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
     </row>
-    <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="C282" s="2"/>
       <c r="D282" s="1"/>
@@ -9858,7 +9858,7 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
     </row>
-    <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="C283" s="2"/>
       <c r="D283" s="1"/>
@@ -9867,7 +9867,7 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
     </row>
-    <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="C284" s="2"/>
       <c r="D284" s="1"/>
@@ -9876,7 +9876,7 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
     </row>
-    <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="C285" s="2"/>
       <c r="D285" s="1"/>
@@ -9885,7 +9885,7 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
     </row>
-    <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="C286" s="2"/>
       <c r="D286" s="1"/>
@@ -9894,7 +9894,7 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
     </row>
-    <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="C287" s="2"/>
       <c r="D287" s="1"/>
@@ -9903,7 +9903,7 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
     </row>
-    <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="C288" s="2"/>
       <c r="D288" s="1"/>
@@ -9912,7 +9912,7 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
     </row>
-    <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="C289" s="2"/>
       <c r="D289" s="1"/>
@@ -9921,7 +9921,7 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
     </row>
-    <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="C290" s="2"/>
       <c r="D290" s="1"/>
@@ -9930,7 +9930,7 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
     </row>
-    <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="C291" s="2"/>
       <c r="D291" s="1"/>
@@ -9939,7 +9939,7 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
     </row>
-    <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="C292" s="2"/>
       <c r="D292" s="1"/>
@@ -9948,7 +9948,7 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
     </row>
-    <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="C293" s="2"/>
       <c r="D293" s="1"/>
@@ -9957,7 +9957,7 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
     </row>
-    <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="C294" s="2"/>
       <c r="D294" s="1"/>
@@ -9966,7 +9966,7 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
     </row>
-    <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="C295" s="2"/>
       <c r="D295" s="1"/>
@@ -9975,7 +9975,7 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
     </row>
-    <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="C296" s="2"/>
       <c r="D296" s="1"/>
@@ -9984,7 +9984,7 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
     </row>
-    <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="C297" s="2"/>
       <c r="D297" s="1"/>
@@ -9993,7 +9993,7 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
     </row>
-    <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="C298" s="2"/>
       <c r="D298" s="1"/>
@@ -10002,7 +10002,7 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
     </row>
-    <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="C299" s="2"/>
       <c r="D299" s="1"/>
@@ -10011,7 +10011,7 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
     </row>
-    <row r="300" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="C300" s="2"/>
       <c r="D300" s="1"/>
@@ -10020,7 +10020,7 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
     </row>
-    <row r="301" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="C301" s="2"/>
       <c r="D301" s="1"/>
@@ -10029,7 +10029,7 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
     </row>
-    <row r="302" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="C302" s="2"/>
       <c r="D302" s="1"/>
@@ -10038,7 +10038,7 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
     </row>
-    <row r="303" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="C303" s="2"/>
       <c r="D303" s="1"/>
@@ -10047,7 +10047,7 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
     </row>
-    <row r="304" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="C304" s="2"/>
       <c r="D304" s="1"/>
@@ -10056,7 +10056,7 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
     </row>
-    <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="C305" s="2"/>
       <c r="D305" s="1"/>
@@ -10065,7 +10065,7 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
     </row>
-    <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="C306" s="2"/>
       <c r="D306" s="1"/>
@@ -10074,7 +10074,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
     </row>
-    <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="C307" s="2"/>
       <c r="D307" s="1"/>
@@ -10083,7 +10083,7 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
     </row>
-    <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="C308" s="2"/>
       <c r="D308" s="1"/>
@@ -10092,7 +10092,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
     </row>
-    <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="C309" s="2"/>
       <c r="D309" s="1"/>
@@ -10101,7 +10101,7 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
     </row>
-    <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="C310" s="2"/>
       <c r="D310" s="1"/>
@@ -10110,7 +10110,7 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
     </row>
-    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="C311" s="2"/>
       <c r="D311" s="1"/>
@@ -10119,7 +10119,7 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
     </row>
-    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="C312" s="2"/>
       <c r="D312" s="1"/>
@@ -10128,7 +10128,7 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
     </row>
-    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="C313" s="2"/>
       <c r="D313" s="1"/>
@@ -10137,7 +10137,7 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
     </row>
-    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="C314" s="2"/>
       <c r="D314" s="1"/>
@@ -10146,7 +10146,7 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
     </row>
-    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="C315" s="2"/>
       <c r="D315" s="1"/>
@@ -10155,7 +10155,7 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
     </row>
-    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="C316" s="2"/>
       <c r="D316" s="1"/>
@@ -10164,7 +10164,7 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
     </row>
-    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="C317" s="2"/>
       <c r="D317" s="1"/>
@@ -10173,7 +10173,7 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
     </row>
-    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="C318" s="2"/>
       <c r="D318" s="1"/>
@@ -10182,7 +10182,7 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
     </row>
-    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="C319" s="2"/>
       <c r="D319" s="1"/>
@@ -10191,7 +10191,7 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
     </row>
-    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="C320" s="2"/>
       <c r="D320" s="1"/>
@@ -10200,7 +10200,7 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
     </row>
-    <row r="321" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="C321" s="2"/>
       <c r="D321" s="1"/>
@@ -10209,7 +10209,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
     </row>
-    <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="C322" s="2"/>
       <c r="D322" s="1"/>
@@ -10218,7 +10218,7 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
     </row>
-    <row r="323" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="C323" s="2"/>
       <c r="D323" s="1"/>
@@ -10227,7 +10227,7 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
     </row>
-    <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="C324" s="2"/>
       <c r="D324" s="1"/>
@@ -10236,7 +10236,7 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
     </row>
-    <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="C325" s="2"/>
       <c r="D325" s="1"/>
@@ -10245,7 +10245,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
     </row>
-    <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="C326" s="2"/>
       <c r="D326" s="1"/>
@@ -10254,7 +10254,7 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
     </row>
-    <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="C327" s="2"/>
       <c r="D327" s="1"/>
@@ -10263,7 +10263,7 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
     </row>
-    <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="C328" s="2"/>
       <c r="D328" s="1"/>
@@ -10272,7 +10272,7 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
     </row>
-    <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="C329" s="2"/>
       <c r="D329" s="1"/>
@@ -10281,7 +10281,7 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
     </row>
-    <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="C330" s="2"/>
       <c r="D330" s="1"/>
@@ -10290,7 +10290,7 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
     </row>
-    <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="C331" s="2"/>
       <c r="D331" s="1"/>
@@ -10299,7 +10299,7 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
     </row>
-    <row r="332" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="C332" s="2"/>
       <c r="D332" s="1"/>
@@ -10308,7 +10308,7 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
     </row>
-    <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="C333" s="2"/>
       <c r="D333" s="1"/>
@@ -10317,7 +10317,7 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
     </row>
-    <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="C334" s="2"/>
       <c r="D334" s="1"/>
@@ -10326,7 +10326,7 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
     </row>
-    <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="C335" s="2"/>
       <c r="D335" s="1"/>
@@ -10335,7 +10335,7 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
     </row>
-    <row r="336" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="C336" s="2"/>
       <c r="D336" s="1"/>
@@ -10344,7 +10344,7 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
     </row>
-    <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="C337" s="2"/>
       <c r="D337" s="1"/>
@@ -10353,7 +10353,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
     </row>
-    <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="C338" s="2"/>
       <c r="D338" s="1"/>
@@ -10362,7 +10362,7 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="C339" s="2"/>
       <c r="D339" s="1"/>
@@ -10371,7 +10371,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="C340" s="2"/>
       <c r="D340" s="1"/>
@@ -10380,7 +10380,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
     </row>
-    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="C341" s="2"/>
       <c r="D341" s="1"/>
@@ -10389,7 +10389,7 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
     </row>
-    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="C342" s="2"/>
       <c r="D342" s="1"/>
@@ -10398,7 +10398,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
     </row>
-    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="C343" s="2"/>
       <c r="D343" s="1"/>
@@ -10407,7 +10407,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="C344" s="2"/>
       <c r="D344" s="1"/>
@@ -10416,7 +10416,7 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="C345" s="2"/>
       <c r="D345" s="1"/>
@@ -10425,7 +10425,7 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="C346" s="2"/>
       <c r="D346" s="1"/>
@@ -10434,7 +10434,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="C347" s="2"/>
       <c r="D347" s="1"/>
@@ -10443,7 +10443,7 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="C348" s="2"/>
       <c r="D348" s="1"/>
@@ -10452,7 +10452,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="C349" s="2"/>
       <c r="D349" s="1"/>
@@ -10461,7 +10461,7 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
     </row>
-    <row r="350" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="C350" s="2"/>
       <c r="D350" s="1"/>
@@ -10470,7 +10470,7 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="C351" s="2"/>
       <c r="D351" s="1"/>
@@ -10479,7 +10479,7 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
     </row>
-    <row r="352" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="C352" s="2"/>
       <c r="D352" s="1"/>
@@ -10488,7 +10488,7 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
     </row>
-    <row r="353" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="C353" s="2"/>
       <c r="D353" s="1"/>
@@ -10497,7 +10497,7 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="C354" s="2"/>
       <c r="D354" s="1"/>
@@ -10506,7 +10506,7 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
     </row>
-    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="C355" s="2"/>
       <c r="D355" s="1"/>
@@ -10515,7 +10515,7 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
     </row>
-    <row r="356" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="C356" s="2"/>
       <c r="D356" s="1"/>
@@ -10524,7 +10524,7 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="C357" s="2"/>
       <c r="D357" s="1"/>
@@ -10533,7 +10533,7 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="C358" s="2"/>
       <c r="D358" s="1"/>
@@ -10542,7 +10542,7 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="C359" s="2"/>
       <c r="D359" s="1"/>
@@ -10551,7 +10551,7 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="C360" s="2"/>
       <c r="D360" s="1"/>
@@ -10560,7 +10560,7 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="C361" s="2"/>
       <c r="D361" s="1"/>
@@ -10569,7 +10569,7 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="C362" s="2"/>
       <c r="D362" s="1"/>
@@ -10578,7 +10578,7 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="C363" s="2"/>
       <c r="D363" s="1"/>
@@ -10587,7 +10587,7 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="C364" s="2"/>
       <c r="D364" s="1"/>
@@ -10596,7 +10596,7 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="C365" s="2"/>
       <c r="D365" s="1"/>
@@ -10605,7 +10605,7 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="C366" s="2"/>
       <c r="D366" s="1"/>
@@ -10614,7 +10614,7 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="C367" s="2"/>
       <c r="D367" s="1"/>
@@ -10623,7 +10623,7 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="C368" s="2"/>
       <c r="D368" s="1"/>
@@ -10632,7 +10632,7 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="C369" s="2"/>
       <c r="D369" s="1"/>
@@ -10641,7 +10641,7 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="C370" s="2"/>
       <c r="D370" s="1"/>
@@ -10650,7 +10650,7 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="C371" s="2"/>
       <c r="D371" s="1"/>
@@ -10659,7 +10659,7 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="C372" s="2"/>
       <c r="D372" s="1"/>
@@ -10668,7 +10668,7 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="C373" s="2"/>
       <c r="D373" s="1"/>
@@ -10677,7 +10677,7 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="C374" s="2"/>
       <c r="D374" s="1"/>
@@ -10686,7 +10686,7 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="C375" s="2"/>
       <c r="D375" s="1"/>
@@ -10695,7 +10695,7 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="C376" s="2"/>
       <c r="D376" s="1"/>
@@ -10704,7 +10704,7 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="C377" s="2"/>
       <c r="D377" s="1"/>
@@ -10713,7 +10713,7 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="C378" s="2"/>
       <c r="D378" s="1"/>
@@ -10722,7 +10722,7 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
     </row>
-    <row r="379" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="C379" s="2"/>
       <c r="D379" s="1"/>
@@ -10731,7 +10731,7 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
     </row>
-    <row r="380" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="C380" s="2"/>
       <c r="D380" s="1"/>
@@ -10740,7 +10740,7 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
     </row>
-    <row r="381" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="C381" s="2"/>
       <c r="D381" s="1"/>
@@ -10749,7 +10749,7 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
     </row>
-    <row r="382" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="C382" s="2"/>
       <c r="D382" s="1"/>
@@ -10758,7 +10758,7 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
     </row>
-    <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="C383" s="2"/>
       <c r="D383" s="1"/>
@@ -10767,7 +10767,7 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
     </row>
-    <row r="384" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="C384" s="2"/>
       <c r="D384" s="1"/>
@@ -10776,7 +10776,7 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
     </row>
-    <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="C385" s="2"/>
       <c r="D385" s="1"/>
@@ -10785,7 +10785,7 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
     </row>
-    <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="C386" s="2"/>
       <c r="D386" s="1"/>
@@ -10794,7 +10794,7 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
     </row>
-    <row r="387" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="C387" s="2"/>
       <c r="D387" s="1"/>
@@ -10803,7 +10803,7 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
     </row>
-    <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="C388" s="2"/>
       <c r="D388" s="1"/>
@@ -10812,7 +10812,7 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
     </row>
-    <row r="389" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="C389" s="2"/>
       <c r="D389" s="1"/>
@@ -10821,7 +10821,7 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
     </row>
-    <row r="390" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="C390" s="2"/>
       <c r="D390" s="1"/>
@@ -10830,7 +10830,7 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
     </row>
-    <row r="391" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="C391" s="2"/>
       <c r="D391" s="1"/>
@@ -10839,7 +10839,7 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
     </row>
-    <row r="392" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="C392" s="2"/>
       <c r="D392" s="1"/>
@@ -10848,7 +10848,7 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
     </row>
-    <row r="393" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="C393" s="2"/>
       <c r="D393" s="1"/>
@@ -10857,7 +10857,7 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
     </row>
-    <row r="394" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="C394" s="2"/>
       <c r="D394" s="1"/>
@@ -10866,7 +10866,7 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
     </row>
-    <row r="395" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="C395" s="2"/>
       <c r="D395" s="1"/>
@@ -10875,7 +10875,7 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
     </row>
-    <row r="396" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="C396" s="2"/>
       <c r="D396" s="1"/>
@@ -10884,7 +10884,7 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
     </row>
-    <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="C397" s="2"/>
       <c r="D397" s="1"/>
@@ -10893,7 +10893,7 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
     </row>
-    <row r="398" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="C398" s="2"/>
       <c r="D398" s="1"/>
@@ -10902,7 +10902,7 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
     </row>
-    <row r="399" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="C399" s="2"/>
       <c r="D399" s="1"/>
@@ -10911,7 +10911,7 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
     </row>
-    <row r="400" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="C400" s="2"/>
       <c r="D400" s="1"/>
@@ -10920,7 +10920,7 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
     </row>
-    <row r="401" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="C401" s="2"/>
       <c r="D401" s="1"/>
@@ -10929,7 +10929,7 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
     </row>
-    <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="C402" s="2"/>
       <c r="D402" s="1"/>
@@ -10938,7 +10938,7 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
     </row>
-    <row r="403" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="C403" s="2"/>
       <c r="D403" s="1"/>
@@ -10947,7 +10947,7 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
     </row>
-    <row r="404" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="C404" s="2"/>
       <c r="D404" s="1"/>
@@ -10956,7 +10956,7 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
     </row>
-    <row r="405" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="C405" s="2"/>
       <c r="D405" s="1"/>
@@ -10965,7 +10965,7 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
     </row>
-    <row r="406" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="C406" s="2"/>
       <c r="D406" s="1"/>
@@ -10974,7 +10974,7 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
     </row>
-    <row r="407" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="C407" s="2"/>
       <c r="D407" s="1"/>
@@ -10983,7 +10983,7 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
     </row>
-    <row r="408" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="C408" s="2"/>
       <c r="D408" s="1"/>
@@ -10992,7 +10992,7 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
     </row>
-    <row r="409" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="C409" s="2"/>
       <c r="D409" s="1"/>
@@ -11001,7 +11001,7 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
     </row>
-    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="C410" s="2"/>
       <c r="D410" s="1"/>
@@ -11010,7 +11010,7 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
     </row>
-    <row r="411" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="C411" s="2"/>
       <c r="D411" s="1"/>
@@ -11019,7 +11019,7 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
     </row>
-    <row r="412" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="C412" s="2"/>
       <c r="D412" s="1"/>
@@ -11028,7 +11028,7 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
     </row>
-    <row r="413" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="C413" s="2"/>
       <c r="D413" s="1"/>
@@ -11037,7 +11037,7 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
     </row>
-    <row r="414" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="C414" s="2"/>
       <c r="D414" s="1"/>
@@ -11046,7 +11046,7 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
     </row>
-    <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="C415" s="2"/>
       <c r="D415" s="1"/>
@@ -11055,7 +11055,7 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
     </row>
-    <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="C416" s="2"/>
       <c r="D416" s="1"/>
@@ -11064,7 +11064,7 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
     </row>
-    <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="C417" s="2"/>
       <c r="D417" s="1"/>
@@ -11073,7 +11073,7 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
     </row>
-    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="C418" s="2"/>
       <c r="D418" s="1"/>
@@ -11082,7 +11082,7 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
     </row>
-    <row r="419" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="C419" s="2"/>
       <c r="D419" s="1"/>
@@ -11091,7 +11091,7 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
     </row>
-    <row r="420" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="C420" s="2"/>
       <c r="D420" s="1"/>
@@ -11100,7 +11100,7 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
     </row>
-    <row r="421" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="C421" s="2"/>
       <c r="D421" s="1"/>
@@ -11109,7 +11109,7 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
     </row>
-    <row r="422" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="C422" s="2"/>
       <c r="D422" s="1"/>
@@ -11118,7 +11118,7 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
     </row>
-    <row r="423" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="C423" s="2"/>
       <c r="D423" s="1"/>
@@ -11127,7 +11127,7 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
     </row>
-    <row r="424" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="C424" s="2"/>
       <c r="D424" s="1"/>
@@ -11136,7 +11136,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
     </row>
-    <row r="425" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="C425" s="2"/>
       <c r="D425" s="1"/>
@@ -11145,7 +11145,7 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
     </row>
-    <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="C426" s="2"/>
       <c r="D426" s="1"/>
@@ -11154,7 +11154,7 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
     </row>
-    <row r="427" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="C427" s="2"/>
       <c r="D427" s="1"/>
@@ -11163,7 +11163,7 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
     </row>
-    <row r="428" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="C428" s="2"/>
       <c r="D428" s="1"/>
@@ -11172,7 +11172,7 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
     </row>
-    <row r="429" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="C429" s="2"/>
       <c r="D429" s="1"/>
@@ -11181,7 +11181,7 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
     </row>
-    <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="C430" s="2"/>
       <c r="D430" s="1"/>
@@ -11190,7 +11190,7 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
     </row>
-    <row r="431" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="C431" s="2"/>
       <c r="D431" s="1"/>
@@ -11199,7 +11199,7 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
     </row>
-    <row r="432" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="C432" s="2"/>
       <c r="D432" s="1"/>
@@ -11208,7 +11208,7 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
     </row>
-    <row r="433" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="C433" s="2"/>
       <c r="D433" s="1"/>
@@ -11217,7 +11217,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
     </row>
-    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="C434" s="2"/>
       <c r="D434" s="1"/>
@@ -11226,7 +11226,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
     </row>
-    <row r="435" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="C435" s="2"/>
       <c r="D435" s="1"/>
@@ -11235,7 +11235,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
     </row>
-    <row r="436" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="C436" s="2"/>
       <c r="D436" s="1"/>
@@ -11244,7 +11244,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
     </row>
-    <row r="437" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="C437" s="2"/>
       <c r="D437" s="1"/>
@@ -11253,7 +11253,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
     </row>
-    <row r="438" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="C438" s="2"/>
       <c r="D438" s="1"/>
@@ -11262,7 +11262,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
     </row>
-    <row r="439" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="C439" s="2"/>
       <c r="D439" s="1"/>
@@ -11271,7 +11271,7 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
     </row>
-    <row r="440" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="C440" s="2"/>
       <c r="D440" s="1"/>
@@ -11280,7 +11280,7 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
     </row>
-    <row r="441" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="C441" s="2"/>
       <c r="D441" s="1"/>
@@ -11289,7 +11289,7 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
     </row>
-    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="C442" s="2"/>
       <c r="D442" s="1"/>
@@ -11298,7 +11298,7 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
     </row>
-    <row r="443" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="C443" s="2"/>
       <c r="D443" s="1"/>
@@ -11307,7 +11307,7 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
     </row>
-    <row r="444" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="C444" s="2"/>
       <c r="D444" s="1"/>
@@ -11316,7 +11316,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
     </row>
-    <row r="445" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="C445" s="2"/>
       <c r="D445" s="1"/>
@@ -11325,7 +11325,7 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
     </row>
-    <row r="446" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="C446" s="2"/>
       <c r="D446" s="1"/>
@@ -11334,7 +11334,7 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
     </row>
-    <row r="447" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="C447" s="2"/>
       <c r="D447" s="1"/>
@@ -11343,7 +11343,7 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
     </row>
-    <row r="448" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="C448" s="2"/>
       <c r="D448" s="1"/>
@@ -11352,7 +11352,7 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
     </row>
-    <row r="449" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="C449" s="2"/>
       <c r="D449" s="1"/>
@@ -11361,7 +11361,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
     </row>
-    <row r="450" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="C450" s="2"/>
       <c r="D450" s="1"/>
@@ -11370,7 +11370,7 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
     </row>
-    <row r="451" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="C451" s="2"/>
       <c r="D451" s="1"/>
@@ -11379,7 +11379,7 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
     </row>
-    <row r="452" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="C452" s="2"/>
       <c r="D452" s="1"/>
@@ -11388,7 +11388,7 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
     </row>
-    <row r="453" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="C453" s="2"/>
       <c r="D453" s="1"/>
@@ -11397,7 +11397,7 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
     </row>
-    <row r="454" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="C454" s="2"/>
       <c r="D454" s="1"/>
@@ -11406,7 +11406,7 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
     </row>
-    <row r="455" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="C455" s="2"/>
       <c r="D455" s="1"/>
@@ -11415,7 +11415,7 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
     </row>
-    <row r="456" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="C456" s="2"/>
       <c r="D456" s="1"/>
@@ -11424,7 +11424,7 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
     </row>
-    <row r="457" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="C457" s="2"/>
       <c r="D457" s="1"/>
@@ -11433,7 +11433,7 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
     </row>
-    <row r="458" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="C458" s="2"/>
       <c r="D458" s="1"/>
@@ -11442,7 +11442,7 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
     </row>
-    <row r="459" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="C459" s="2"/>
       <c r="D459" s="1"/>
@@ -11451,7 +11451,7 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
     </row>
-    <row r="460" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="C460" s="2"/>
       <c r="D460" s="1"/>
@@ -11460,7 +11460,7 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
     </row>
-    <row r="461" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="C461" s="2"/>
       <c r="D461" s="1"/>
@@ -11469,7 +11469,7 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
     </row>
-    <row r="462" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="C462" s="2"/>
       <c r="D462" s="1"/>
@@ -11478,7 +11478,7 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
     </row>
-    <row r="463" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="C463" s="2"/>
       <c r="D463" s="1"/>
@@ -11487,7 +11487,7 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
     </row>
-    <row r="464" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="C464" s="2"/>
       <c r="D464" s="1"/>
@@ -11496,7 +11496,7 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
     </row>
-    <row r="465" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="C465" s="2"/>
       <c r="D465" s="1"/>
@@ -11505,7 +11505,7 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
     </row>
-    <row r="466" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="C466" s="2"/>
       <c r="D466" s="1"/>
@@ -11514,7 +11514,7 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
     </row>
-    <row r="467" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="C467" s="2"/>
       <c r="D467" s="1"/>
@@ -11523,7 +11523,7 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
     </row>
-    <row r="468" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="C468" s="2"/>
       <c r="D468" s="1"/>
@@ -11532,7 +11532,7 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
     </row>
-    <row r="469" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="C469" s="2"/>
       <c r="D469" s="1"/>
@@ -11541,7 +11541,7 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
     </row>
-    <row r="470" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="C470" s="2"/>
       <c r="D470" s="1"/>
@@ -11550,7 +11550,7 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
     </row>
-    <row r="471" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="C471" s="2"/>
       <c r="D471" s="1"/>
@@ -11559,7 +11559,7 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
     </row>
-    <row r="472" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="C472" s="2"/>
       <c r="D472" s="1"/>
@@ -11568,7 +11568,7 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
     </row>
-    <row r="473" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="C473" s="2"/>
       <c r="D473" s="1"/>
@@ -11577,7 +11577,7 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
     </row>
-    <row r="474" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="C474" s="2"/>
       <c r="D474" s="1"/>
@@ -11586,7 +11586,7 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
     </row>
-    <row r="475" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="C475" s="2"/>
       <c r="D475" s="1"/>
@@ -11595,7 +11595,7 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
     </row>
-    <row r="476" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="C476" s="2"/>
       <c r="D476" s="1"/>
@@ -11604,7 +11604,7 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
     </row>
-    <row r="477" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="C477" s="2"/>
       <c r="D477" s="1"/>
@@ -11613,7 +11613,7 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
     </row>
-    <row r="478" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="C478" s="2"/>
       <c r="D478" s="1"/>
@@ -11622,7 +11622,7 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
     </row>
-    <row r="479" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="C479" s="2"/>
       <c r="D479" s="1"/>
@@ -11631,7 +11631,7 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
     </row>
-    <row r="480" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="C480" s="2"/>
       <c r="D480" s="1"/>
@@ -11640,7 +11640,7 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="C481" s="2"/>
       <c r="D481" s="1"/>
@@ -11649,7 +11649,7 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="C482" s="2"/>
       <c r="D482" s="1"/>
@@ -11658,7 +11658,7 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="C483" s="2"/>
       <c r="D483" s="1"/>
@@ -11667,7 +11667,7 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="C484" s="2"/>
       <c r="D484" s="1"/>
@@ -11676,7 +11676,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="C485" s="2"/>
       <c r="D485" s="1"/>
@@ -11685,7 +11685,7 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="C486" s="2"/>
       <c r="D486" s="1"/>
@@ -11694,7 +11694,7 @@
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="C487" s="2"/>
       <c r="D487" s="1"/>
@@ -11703,7 +11703,7 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="C488" s="2"/>
       <c r="D488" s="1"/>
@@ -11712,7 +11712,7 @@
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="C489" s="2"/>
       <c r="D489" s="1"/>
@@ -11721,7 +11721,7 @@
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="C490" s="2"/>
       <c r="D490" s="1"/>
@@ -11730,7 +11730,7 @@
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="C491" s="2"/>
       <c r="D491" s="1"/>
@@ -11739,7 +11739,7 @@
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="C492" s="2"/>
       <c r="D492" s="1"/>
@@ -11748,7 +11748,7 @@
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="C493" s="2"/>
       <c r="D493" s="1"/>
@@ -11757,7 +11757,7 @@
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
     </row>
-    <row r="494" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="C494" s="2"/>
       <c r="D494" s="1"/>
@@ -11766,7 +11766,7 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
     </row>
-    <row r="495" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="C495" s="2"/>
       <c r="D495" s="1"/>
@@ -11775,7 +11775,7 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="C496" s="2"/>
       <c r="D496" s="1"/>
@@ -11784,7 +11784,7 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
     </row>
-    <row r="497" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="C497" s="2"/>
       <c r="D497" s="1"/>
@@ -11793,7 +11793,7 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
     </row>
-    <row r="498" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="C498" s="2"/>
       <c r="D498" s="1"/>
@@ -11802,7 +11802,7 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
     </row>
-    <row r="499" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="C499" s="2"/>
       <c r="D499" s="1"/>
@@ -11811,7 +11811,7 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
     </row>
-    <row r="500" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="C500" s="2"/>
       <c r="D500" s="1"/>
@@ -11820,7 +11820,7 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
     </row>
-    <row r="501" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="C501" s="2"/>
       <c r="D501" s="1"/>
@@ -11829,7 +11829,7 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
     </row>
-    <row r="502" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="C502" s="2"/>
       <c r="D502" s="1"/>
@@ -11838,7 +11838,7 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
     </row>
-    <row r="503" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="C503" s="2"/>
       <c r="D503" s="1"/>
@@ -11847,7 +11847,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
     </row>
-    <row r="504" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="C504" s="2"/>
       <c r="D504" s="1"/>
@@ -11856,7 +11856,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
     </row>
-    <row r="505" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="C505" s="2"/>
       <c r="D505" s="1"/>
@@ -11865,7 +11865,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
     </row>
-    <row r="506" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="C506" s="2"/>
       <c r="D506" s="1"/>
@@ -11874,7 +11874,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
     </row>
-    <row r="507" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="C507" s="2"/>
       <c r="D507" s="1"/>
@@ -11883,7 +11883,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
     </row>
-    <row r="508" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="C508" s="2"/>
       <c r="D508" s="1"/>
@@ -11892,7 +11892,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
     </row>
-    <row r="509" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="C509" s="2"/>
       <c r="D509" s="1"/>
@@ -11901,7 +11901,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
     </row>
-    <row r="510" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="C510" s="2"/>
       <c r="D510" s="1"/>
@@ -11910,7 +11910,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
     </row>
-    <row r="511" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="C511" s="2"/>
       <c r="D511" s="1"/>
@@ -11919,7 +11919,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
     </row>
-    <row r="512" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="C512" s="2"/>
       <c r="D512" s="1"/>
@@ -11928,7 +11928,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
     </row>
-    <row r="513" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="C513" s="2"/>
       <c r="D513" s="1"/>
@@ -11937,7 +11937,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
     </row>
-    <row r="514" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="C514" s="2"/>
       <c r="D514" s="1"/>
@@ -11946,7 +11946,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
     </row>
-    <row r="515" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="C515" s="2"/>
       <c r="D515" s="1"/>
@@ -11955,7 +11955,7 @@
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
     </row>
-    <row r="516" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="C516" s="2"/>
       <c r="D516" s="1"/>
@@ -11964,7 +11964,7 @@
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
     </row>
-    <row r="517" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="C517" s="2"/>
       <c r="D517" s="1"/>
@@ -11973,7 +11973,7 @@
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
     </row>
-    <row r="518" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="C518" s="2"/>
       <c r="D518" s="1"/>
@@ -11982,7 +11982,7 @@
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
     </row>
-    <row r="519" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="C519" s="2"/>
       <c r="D519" s="1"/>
@@ -11991,7 +11991,7 @@
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
     </row>
-    <row r="520" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="C520" s="2"/>
       <c r="D520" s="1"/>
@@ -12000,7 +12000,7 @@
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
     </row>
-    <row r="521" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="C521" s="2"/>
       <c r="D521" s="1"/>
@@ -12009,7 +12009,7 @@
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
     </row>
-    <row r="522" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="C522" s="2"/>
       <c r="D522" s="1"/>
@@ -12018,7 +12018,7 @@
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
     </row>
-    <row r="523" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="C523" s="2"/>
       <c r="D523" s="1"/>
@@ -12027,7 +12027,7 @@
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
     </row>
-    <row r="524" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="C524" s="2"/>
       <c r="D524" s="1"/>
@@ -12036,7 +12036,7 @@
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
     </row>
-    <row r="525" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="C525" s="2"/>
       <c r="D525" s="1"/>
@@ -12045,7 +12045,7 @@
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
     </row>
-    <row r="526" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="C526" s="2"/>
       <c r="D526" s="1"/>
@@ -12054,7 +12054,7 @@
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
     </row>
-    <row r="527" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="C527" s="2"/>
       <c r="D527" s="1"/>
@@ -12063,7 +12063,7 @@
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
     </row>
-    <row r="528" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="C528" s="2"/>
       <c r="D528" s="1"/>
@@ -12072,7 +12072,7 @@
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
     </row>
-    <row r="529" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="C529" s="2"/>
       <c r="D529" s="1"/>
@@ -12081,7 +12081,7 @@
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
     </row>
-    <row r="530" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="C530" s="2"/>
       <c r="D530" s="1"/>
@@ -12090,7 +12090,7 @@
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
     </row>
-    <row r="531" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="C531" s="2"/>
       <c r="D531" s="1"/>
@@ -12099,7 +12099,7 @@
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
     </row>
-    <row r="532" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="C532" s="2"/>
       <c r="D532" s="1"/>
@@ -12108,7 +12108,7 @@
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
     </row>
-    <row r="533" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="C533" s="2"/>
       <c r="D533" s="1"/>
@@ -12117,7 +12117,7 @@
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
     </row>
-    <row r="534" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="C534" s="2"/>
       <c r="D534" s="1"/>
@@ -12126,7 +12126,7 @@
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
     </row>
-    <row r="535" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="C535" s="2"/>
       <c r="D535" s="1"/>
@@ -12135,7 +12135,7 @@
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
     </row>
-    <row r="536" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="C536" s="2"/>
       <c r="D536" s="1"/>
@@ -12144,7 +12144,7 @@
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
     </row>
-    <row r="537" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="C537" s="2"/>
       <c r="D537" s="1"/>
@@ -12153,7 +12153,7 @@
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
     </row>
-    <row r="538" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="C538" s="2"/>
       <c r="D538" s="1"/>
@@ -12162,7 +12162,7 @@
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
     </row>
-    <row r="539" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="C539" s="2"/>
       <c r="D539" s="1"/>
@@ -12171,7 +12171,7 @@
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
     </row>
-    <row r="540" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="C540" s="2"/>
       <c r="D540" s="1"/>
@@ -12180,7 +12180,7 @@
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
     </row>
-    <row r="541" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="C541" s="2"/>
       <c r="D541" s="1"/>
@@ -12189,7 +12189,7 @@
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
     </row>
-    <row r="542" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="C542" s="2"/>
       <c r="D542" s="1"/>
@@ -12198,7 +12198,7 @@
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
     </row>
-    <row r="543" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="C543" s="2"/>
       <c r="D543" s="1"/>
@@ -12207,7 +12207,7 @@
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
     </row>
-    <row r="544" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="C544" s="2"/>
       <c r="D544" s="1"/>
@@ -12216,7 +12216,7 @@
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
     </row>
-    <row r="545" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="C545" s="2"/>
       <c r="D545" s="1"/>
@@ -12225,7 +12225,7 @@
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
     </row>
-    <row r="546" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="C546" s="2"/>
       <c r="D546" s="1"/>
@@ -12234,7 +12234,7 @@
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
     </row>
-    <row r="547" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="C547" s="2"/>
       <c r="D547" s="1"/>
@@ -12243,7 +12243,7 @@
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
     </row>
-    <row r="548" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="C548" s="2"/>
       <c r="D548" s="1"/>
@@ -12252,7 +12252,7 @@
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
     </row>
-    <row r="549" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="C549" s="2"/>
       <c r="D549" s="1"/>
@@ -12261,7 +12261,7 @@
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
     </row>
-    <row r="550" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="C550" s="2"/>
       <c r="D550" s="1"/>
@@ -12270,7 +12270,7 @@
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
     </row>
-    <row r="551" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="C551" s="2"/>
       <c r="D551" s="1"/>
@@ -12279,7 +12279,7 @@
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
     </row>
-    <row r="552" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="C552" s="2"/>
       <c r="D552" s="1"/>
@@ -12288,7 +12288,7 @@
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
     </row>
-    <row r="553" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="C553" s="2"/>
       <c r="D553" s="1"/>
@@ -12297,7 +12297,7 @@
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
-    <row r="554" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="C554" s="2"/>
       <c r="D554" s="1"/>
@@ -12306,7 +12306,7 @@
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
-    <row r="555" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="C555" s="2"/>
       <c r="D555" s="1"/>
@@ -12315,7 +12315,7 @@
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
     </row>
-    <row r="556" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="C556" s="2"/>
       <c r="D556" s="1"/>
@@ -12324,7 +12324,7 @@
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
     </row>
-    <row r="557" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="C557" s="2"/>
       <c r="D557" s="1"/>
@@ -12333,7 +12333,7 @@
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
     </row>
-    <row r="558" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="C558" s="2"/>
       <c r="D558" s="1"/>
@@ -12342,7 +12342,7 @@
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
     </row>
-    <row r="559" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="C559" s="2"/>
       <c r="D559" s="1"/>
@@ -12351,7 +12351,7 @@
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
     </row>
-    <row r="560" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="C560" s="2"/>
       <c r="D560" s="1"/>
@@ -12360,7 +12360,7 @@
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
     </row>
-    <row r="561" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="C561" s="2"/>
       <c r="D561" s="1"/>
@@ -12369,7 +12369,7 @@
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
     </row>
-    <row r="562" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="C562" s="2"/>
       <c r="D562" s="1"/>
@@ -12378,7 +12378,7 @@
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
     </row>
-    <row r="563" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="C563" s="2"/>
       <c r="D563" s="1"/>
@@ -12387,7 +12387,7 @@
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
     </row>
-    <row r="564" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="C564" s="2"/>
       <c r="D564" s="1"/>
@@ -12396,7 +12396,7 @@
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
     </row>
-    <row r="565" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="C565" s="2"/>
       <c r="D565" s="1"/>
@@ -12405,7 +12405,7 @@
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
     </row>
-    <row r="566" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="C566" s="2"/>
       <c r="D566" s="1"/>
@@ -12414,7 +12414,7 @@
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
     </row>
-    <row r="567" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="C567" s="2"/>
       <c r="D567" s="1"/>
@@ -12423,7 +12423,7 @@
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
     </row>
-    <row r="568" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="C568" s="2"/>
       <c r="D568" s="1"/>
@@ -12432,7 +12432,7 @@
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
     </row>
-    <row r="569" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="C569" s="2"/>
       <c r="D569" s="1"/>
@@ -12441,7 +12441,7 @@
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
     </row>
-    <row r="570" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="C570" s="2"/>
       <c r="D570" s="1"/>
@@ -12450,7 +12450,7 @@
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
-    <row r="571" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="C571" s="2"/>
       <c r="D571" s="1"/>
@@ -12459,7 +12459,7 @@
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
     </row>
-    <row r="572" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="C572" s="2"/>
       <c r="D572" s="1"/>
@@ -12468,7 +12468,7 @@
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
     </row>
-    <row r="573" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="C573" s="2"/>
       <c r="D573" s="1"/>
@@ -12477,7 +12477,7 @@
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
     </row>
-    <row r="574" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="C574" s="2"/>
       <c r="D574" s="1"/>
@@ -12486,7 +12486,7 @@
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
     </row>
-    <row r="575" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="C575" s="2"/>
       <c r="D575" s="1"/>
@@ -12495,7 +12495,7 @@
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
     </row>
-    <row r="576" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="C576" s="2"/>
       <c r="D576" s="1"/>
@@ -12504,7 +12504,7 @@
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
     </row>
-    <row r="577" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="C577" s="2"/>
       <c r="D577" s="1"/>
@@ -12513,7 +12513,7 @@
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
     </row>
-    <row r="578" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="C578" s="2"/>
       <c r="D578" s="1"/>
@@ -12522,7 +12522,7 @@
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
     </row>
-    <row r="579" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="C579" s="2"/>
       <c r="D579" s="1"/>
@@ -12531,7 +12531,7 @@
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
     </row>
-    <row r="580" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="C580" s="2"/>
       <c r="D580" s="1"/>
@@ -12540,7 +12540,7 @@
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
     </row>
-    <row r="581" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="C581" s="2"/>
       <c r="D581" s="1"/>
@@ -12549,7 +12549,7 @@
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
     </row>
-    <row r="582" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="C582" s="2"/>
       <c r="D582" s="1"/>
@@ -12558,7 +12558,7 @@
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
     </row>
-    <row r="583" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="C583" s="2"/>
       <c r="D583" s="1"/>
@@ -12567,7 +12567,7 @@
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
     </row>
-    <row r="584" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="C584" s="2"/>
       <c r="D584" s="1"/>
@@ -12576,7 +12576,7 @@
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
     </row>
-    <row r="585" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="C585" s="2"/>
       <c r="D585" s="1"/>
@@ -12585,7 +12585,7 @@
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
     </row>
-    <row r="586" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="C586" s="2"/>
       <c r="D586" s="1"/>
@@ -12594,7 +12594,7 @@
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
     </row>
-    <row r="587" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="C587" s="2"/>
       <c r="D587" s="1"/>
@@ -12603,7 +12603,7 @@
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
     </row>
-    <row r="588" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="C588" s="2"/>
       <c r="D588" s="1"/>
@@ -12612,7 +12612,7 @@
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
     </row>
-    <row r="589" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="C589" s="2"/>
       <c r="D589" s="1"/>
@@ -12621,7 +12621,7 @@
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
     </row>
-    <row r="590" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="C590" s="2"/>
       <c r="D590" s="1"/>
@@ -12630,7 +12630,7 @@
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
     </row>
-    <row r="591" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="C591" s="2"/>
       <c r="D591" s="1"/>
@@ -12639,7 +12639,7 @@
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
     </row>
-    <row r="592" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="C592" s="2"/>
       <c r="D592" s="1"/>
@@ -12648,7 +12648,7 @@
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
     </row>
-    <row r="593" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="C593" s="2"/>
       <c r="D593" s="1"/>
@@ -12657,7 +12657,7 @@
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
     </row>
-    <row r="594" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="C594" s="2"/>
       <c r="D594" s="1"/>
@@ -12666,7 +12666,7 @@
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
     </row>
-    <row r="595" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="C595" s="2"/>
       <c r="D595" s="1"/>
@@ -12675,7 +12675,7 @@
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
     </row>
-    <row r="596" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="C596" s="2"/>
       <c r="D596" s="1"/>
@@ -12684,7 +12684,7 @@
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
     </row>
-    <row r="597" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="C597" s="2"/>
       <c r="D597" s="1"/>
@@ -12693,7 +12693,7 @@
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
     </row>
-    <row r="598" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="C598" s="2"/>
       <c r="D598" s="1"/>
@@ -12702,7 +12702,7 @@
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
     </row>
-    <row r="599" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="C599" s="2"/>
       <c r="D599" s="1"/>
@@ -12711,7 +12711,7 @@
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
     </row>
-    <row r="600" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="C600" s="2"/>
       <c r="D600" s="1"/>
@@ -12720,7 +12720,7 @@
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
     </row>
-    <row r="601" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="C601" s="2"/>
       <c r="D601" s="1"/>
@@ -12729,7 +12729,7 @@
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
     </row>
-    <row r="602" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="C602" s="2"/>
       <c r="D602" s="1"/>
@@ -12738,7 +12738,7 @@
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
     </row>
-    <row r="603" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="C603" s="2"/>
       <c r="D603" s="1"/>
@@ -12747,7 +12747,7 @@
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
     </row>
-    <row r="604" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="C604" s="2"/>
       <c r="D604" s="1"/>
@@ -12756,7 +12756,7 @@
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
     </row>
-    <row r="605" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="C605" s="2"/>
       <c r="D605" s="1"/>
@@ -12765,7 +12765,7 @@
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
     </row>
-    <row r="606" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="C606" s="2"/>
       <c r="D606" s="1"/>
@@ -12774,7 +12774,7 @@
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
     </row>
-    <row r="607" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="C607" s="2"/>
       <c r="D607" s="1"/>
@@ -12783,7 +12783,7 @@
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
     </row>
-    <row r="608" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="C608" s="2"/>
       <c r="D608" s="1"/>
@@ -12792,7 +12792,7 @@
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
     </row>
-    <row r="609" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="C609" s="2"/>
       <c r="D609" s="1"/>
@@ -12801,7 +12801,7 @@
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
     </row>
-    <row r="610" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="C610" s="2"/>
       <c r="D610" s="1"/>
@@ -12810,7 +12810,7 @@
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
     </row>
-    <row r="611" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="C611" s="2"/>
       <c r="D611" s="1"/>
@@ -12819,7 +12819,7 @@
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
     </row>
-    <row r="612" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="C612" s="2"/>
       <c r="D612" s="1"/>
@@ -12828,7 +12828,7 @@
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
     </row>
-    <row r="613" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="C613" s="2"/>
       <c r="D613" s="1"/>
@@ -12837,7 +12837,7 @@
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
     </row>
-    <row r="614" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="C614" s="2"/>
       <c r="D614" s="1"/>
@@ -12846,7 +12846,7 @@
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
     </row>
-    <row r="615" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="C615" s="2"/>
       <c r="D615" s="1"/>
@@ -12855,7 +12855,7 @@
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
     </row>
-    <row r="616" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="C616" s="2"/>
       <c r="D616" s="1"/>
@@ -12864,7 +12864,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="C617" s="2"/>
       <c r="D617" s="1"/>
@@ -12873,7 +12873,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="C618" s="2"/>
       <c r="D618" s="1"/>
@@ -12882,7 +12882,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="C619" s="2"/>
       <c r="D619" s="1"/>
@@ -12891,7 +12891,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="C620" s="2"/>
       <c r="D620" s="1"/>
@@ -12900,7 +12900,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="C621" s="2"/>
       <c r="D621" s="1"/>
@@ -12909,7 +12909,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="C622" s="2"/>
       <c r="D622" s="1"/>
@@ -12918,7 +12918,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="C623" s="2"/>
       <c r="D623" s="1"/>
@@ -12927,7 +12927,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="C624" s="2"/>
       <c r="D624" s="1"/>
@@ -12936,7 +12936,7 @@
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
     </row>
-    <row r="625" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="C625" s="2"/>
       <c r="D625" s="1"/>
@@ -12945,7 +12945,7 @@
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
     </row>
-    <row r="626" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="C626" s="2"/>
       <c r="D626" s="1"/>
@@ -12954,7 +12954,7 @@
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
     </row>
-    <row r="627" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="C627" s="2"/>
       <c r="D627" s="1"/>
@@ -12963,7 +12963,7 @@
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
     </row>
-    <row r="628" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="C628" s="2"/>
       <c r="D628" s="1"/>
@@ -12972,7 +12972,7 @@
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
     </row>
-    <row r="629" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="C629" s="2"/>
       <c r="D629" s="1"/>
@@ -12981,7 +12981,7 @@
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
     </row>
-    <row r="630" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="C630" s="2"/>
       <c r="D630" s="1"/>
@@ -12990,7 +12990,7 @@
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
     </row>
-    <row r="631" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="C631" s="2"/>
       <c r="D631" s="1"/>
@@ -12999,7 +12999,7 @@
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
     </row>
-    <row r="632" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="C632" s="2"/>
       <c r="D632" s="1"/>
@@ -13008,7 +13008,7 @@
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
     </row>
-    <row r="633" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="C633" s="2"/>
       <c r="D633" s="1"/>
@@ -13017,7 +13017,7 @@
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
     </row>
-    <row r="634" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="C634" s="2"/>
       <c r="D634" s="1"/>
@@ -13026,7 +13026,7 @@
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
     </row>
-    <row r="635" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="C635" s="2"/>
       <c r="D635" s="1"/>
@@ -13035,7 +13035,7 @@
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
     </row>
-    <row r="636" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="C636" s="2"/>
       <c r="D636" s="1"/>
@@ -13044,7 +13044,7 @@
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
     </row>
-    <row r="637" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="C637" s="2"/>
       <c r="D637" s="1"/>
@@ -13053,7 +13053,7 @@
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
     </row>
-    <row r="638" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="C638" s="2"/>
       <c r="D638" s="1"/>
@@ -13062,7 +13062,7 @@
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
     </row>
-    <row r="639" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="C639" s="2"/>
       <c r="D639" s="1"/>
@@ -13071,7 +13071,7 @@
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
     </row>
-    <row r="640" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="C640" s="2"/>
       <c r="D640" s="1"/>
@@ -13080,7 +13080,7 @@
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
     </row>
-    <row r="641" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="C641" s="2"/>
       <c r="D641" s="1"/>
@@ -13089,7 +13089,7 @@
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
     </row>
-    <row r="642" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="C642" s="2"/>
       <c r="D642" s="1"/>
@@ -13098,7 +13098,7 @@
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
     </row>
-    <row r="643" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="C643" s="2"/>
       <c r="D643" s="1"/>
@@ -13107,7 +13107,7 @@
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
     </row>
-    <row r="644" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="C644" s="2"/>
       <c r="D644" s="1"/>
@@ -13116,7 +13116,7 @@
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
     </row>
-    <row r="645" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="C645" s="2"/>
       <c r="D645" s="1"/>
@@ -13125,7 +13125,7 @@
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
     </row>
-    <row r="646" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="C646" s="2"/>
       <c r="D646" s="1"/>
@@ -13134,7 +13134,7 @@
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
     </row>
-    <row r="647" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="C647" s="2"/>
       <c r="D647" s="1"/>
@@ -13143,7 +13143,7 @@
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
     </row>
-    <row r="648" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="C648" s="2"/>
       <c r="D648" s="1"/>
@@ -13152,7 +13152,7 @@
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
     </row>
-    <row r="649" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="C649" s="2"/>
       <c r="D649" s="1"/>
@@ -13161,7 +13161,7 @@
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
     </row>
-    <row r="650" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="C650" s="2"/>
       <c r="D650" s="1"/>
@@ -13170,7 +13170,7 @@
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
     </row>
-    <row r="651" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="C651" s="2"/>
       <c r="D651" s="1"/>
@@ -13179,7 +13179,7 @@
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
     </row>
-    <row r="652" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="C652" s="2"/>
       <c r="D652" s="1"/>
@@ -13188,7 +13188,7 @@
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
     </row>
-    <row r="653" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="C653" s="2"/>
       <c r="D653" s="1"/>
@@ -13197,7 +13197,7 @@
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
     </row>
-    <row r="654" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="C654" s="2"/>
       <c r="D654" s="1"/>
@@ -13206,7 +13206,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="C655" s="2"/>
       <c r="D655" s="1"/>
@@ -13215,7 +13215,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="C656" s="2"/>
       <c r="D656" s="1"/>
@@ -13224,7 +13224,7 @@
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
     </row>
-    <row r="657" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="C657" s="2"/>
       <c r="D657" s="1"/>
@@ -13233,7 +13233,7 @@
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
     </row>
-    <row r="658" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="C658" s="2"/>
       <c r="D658" s="1"/>
@@ -13242,7 +13242,7 @@
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
     </row>
-    <row r="659" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="C659" s="2"/>
       <c r="D659" s="1"/>
@@ -13251,7 +13251,7 @@
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
     </row>
-    <row r="660" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="C660" s="2"/>
       <c r="D660" s="1"/>
@@ -13260,7 +13260,7 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="C661" s="2"/>
       <c r="D661" s="1"/>
@@ -13269,7 +13269,7 @@
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
     </row>
-    <row r="662" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="C662" s="2"/>
       <c r="D662" s="1"/>
@@ -13278,7 +13278,7 @@
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
     </row>
-    <row r="663" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="C663" s="2"/>
       <c r="D663" s="1"/>
@@ -13287,7 +13287,7 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="C664" s="2"/>
       <c r="D664" s="1"/>
@@ -13296,7 +13296,7 @@
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
     </row>
-    <row r="665" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="C665" s="2"/>
       <c r="D665" s="1"/>
@@ -13305,7 +13305,7 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="C666" s="2"/>
       <c r="D666" s="1"/>
@@ -13314,7 +13314,7 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="C667" s="2"/>
       <c r="D667" s="1"/>
@@ -13323,7 +13323,7 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="C668" s="2"/>
       <c r="D668" s="1"/>
@@ -13332,7 +13332,7 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="C669" s="2"/>
       <c r="D669" s="1"/>
@@ -13341,7 +13341,7 @@
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="C670" s="2"/>
       <c r="D670" s="1"/>
@@ -13350,7 +13350,7 @@
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="C671" s="2"/>
       <c r="D671" s="1"/>
@@ -13359,7 +13359,7 @@
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
     </row>
-    <row r="672" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="C672" s="2"/>
       <c r="D672" s="1"/>
@@ -13368,7 +13368,7 @@
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="C673" s="2"/>
       <c r="D673" s="1"/>
@@ -13377,7 +13377,7 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="C674" s="2"/>
       <c r="D674" s="1"/>
@@ -13386,7 +13386,7 @@
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
     </row>
-    <row r="675" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="C675" s="2"/>
       <c r="D675" s="1"/>
@@ -13395,7 +13395,7 @@
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
-    <row r="676" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="C676" s="2"/>
       <c r="D676" s="1"/>
@@ -13404,7 +13404,7 @@
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
-    <row r="677" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="C677" s="2"/>
       <c r="D677" s="1"/>
@@ -13413,7 +13413,7 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="C678" s="2"/>
       <c r="D678" s="1"/>
@@ -13422,7 +13422,7 @@
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
     </row>
-    <row r="679" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="C679" s="2"/>
       <c r="D679" s="1"/>
@@ -13431,7 +13431,7 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="C680" s="2"/>
       <c r="D680" s="1"/>
@@ -13440,7 +13440,7 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="C681" s="2"/>
       <c r="D681" s="1"/>
@@ -13449,7 +13449,7 @@
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
     </row>
-    <row r="682" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="C682" s="2"/>
       <c r="D682" s="1"/>
@@ -13458,7 +13458,7 @@
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="C683" s="2"/>
       <c r="D683" s="1"/>
@@ -13467,7 +13467,7 @@
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
-    <row r="684" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="C684" s="2"/>
       <c r="D684" s="1"/>
@@ -13476,7 +13476,7 @@
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
     </row>
-    <row r="685" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="C685" s="2"/>
       <c r="D685" s="1"/>
@@ -13485,7 +13485,7 @@
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
     </row>
-    <row r="686" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="C686" s="2"/>
       <c r="D686" s="1"/>
@@ -13494,7 +13494,7 @@
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
     </row>
-    <row r="687" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="C687" s="2"/>
       <c r="D687" s="1"/>
@@ -13503,7 +13503,7 @@
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
     </row>
-    <row r="688" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="C688" s="2"/>
       <c r="D688" s="1"/>
@@ -13512,7 +13512,7 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="C689" s="2"/>
       <c r="D689" s="1"/>
@@ -13521,7 +13521,7 @@
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
     </row>
-    <row r="690" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="C690" s="2"/>
       <c r="D690" s="1"/>
@@ -13530,7 +13530,7 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="C691" s="2"/>
       <c r="D691" s="1"/>
@@ -13539,7 +13539,7 @@
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
     </row>
-    <row r="692" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="C692" s="2"/>
       <c r="D692" s="1"/>
@@ -13548,7 +13548,7 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="C693" s="2"/>
       <c r="D693" s="1"/>
@@ -13557,7 +13557,7 @@
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
-    <row r="694" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="C694" s="2"/>
       <c r="D694" s="1"/>
@@ -13566,7 +13566,7 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="C695" s="2"/>
       <c r="D695" s="1"/>
@@ -13575,7 +13575,7 @@
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="C696" s="2"/>
       <c r="D696" s="1"/>
@@ -13584,7 +13584,7 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="C697" s="2"/>
       <c r="D697" s="1"/>
@@ -13593,7 +13593,7 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="C698" s="2"/>
       <c r="D698" s="1"/>
@@ -13602,7 +13602,7 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="C699" s="2"/>
       <c r="D699" s="1"/>
@@ -13611,7 +13611,7 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="C700" s="2"/>
       <c r="D700" s="1"/>
@@ -13620,7 +13620,7 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="C701" s="2"/>
       <c r="D701" s="1"/>
@@ -13629,7 +13629,7 @@
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
     </row>
-    <row r="702" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="C702" s="2"/>
       <c r="D702" s="1"/>
@@ -13638,7 +13638,7 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="C703" s="2"/>
       <c r="D703" s="1"/>
@@ -13647,7 +13647,7 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="C704" s="2"/>
       <c r="D704" s="1"/>
@@ -13656,7 +13656,7 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="C705" s="2"/>
       <c r="D705" s="1"/>
@@ -13665,7 +13665,7 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="C706" s="2"/>
       <c r="D706" s="1"/>
@@ -13674,7 +13674,7 @@
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="C707" s="2"/>
       <c r="D707" s="1"/>
@@ -13683,7 +13683,7 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="C708" s="2"/>
       <c r="D708" s="1"/>
@@ -13692,7 +13692,7 @@
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
-    <row r="709" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="C709" s="2"/>
       <c r="D709" s="1"/>
@@ -13701,7 +13701,7 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="C710" s="2"/>
       <c r="D710" s="1"/>
@@ -13710,7 +13710,7 @@
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
-    <row r="711" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="C711" s="2"/>
       <c r="D711" s="1"/>
@@ -13719,7 +13719,7 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="C712" s="2"/>
       <c r="D712" s="1"/>
@@ -13728,7 +13728,7 @@
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
     </row>
-    <row r="713" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="C713" s="2"/>
       <c r="D713" s="1"/>
@@ -13737,7 +13737,7 @@
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
     </row>
-    <row r="714" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="C714" s="2"/>
       <c r="D714" s="1"/>
@@ -13746,7 +13746,7 @@
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
     </row>
-    <row r="715" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="C715" s="2"/>
       <c r="D715" s="1"/>
@@ -13755,7 +13755,7 @@
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
     </row>
-    <row r="716" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="C716" s="2"/>
       <c r="D716" s="1"/>
@@ -13764,7 +13764,7 @@
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
     </row>
-    <row r="717" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="C717" s="2"/>
       <c r="D717" s="1"/>
@@ -13773,7 +13773,7 @@
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
     </row>
-    <row r="718" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="C718" s="2"/>
       <c r="D718" s="1"/>
@@ -13782,7 +13782,7 @@
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="C719" s="2"/>
       <c r="D719" s="1"/>
@@ -13791,7 +13791,7 @@
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
     </row>
-    <row r="720" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="C720" s="2"/>
       <c r="D720" s="1"/>
@@ -13800,7 +13800,7 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="C721" s="2"/>
       <c r="D721" s="1"/>
@@ -13809,7 +13809,7 @@
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
     </row>
-    <row r="722" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="C722" s="2"/>
       <c r="D722" s="1"/>
@@ -13818,7 +13818,7 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="C723" s="2"/>
       <c r="D723" s="1"/>
@@ -13827,7 +13827,7 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="C724" s="2"/>
       <c r="D724" s="1"/>
@@ -13836,7 +13836,7 @@
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="C725" s="2"/>
       <c r="D725" s="1"/>
@@ -13845,7 +13845,7 @@
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="C726" s="2"/>
       <c r="D726" s="1"/>
@@ -13854,7 +13854,7 @@
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
     </row>
-    <row r="727" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="C727" s="2"/>
       <c r="D727" s="1"/>
@@ -13863,7 +13863,7 @@
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
     </row>
-    <row r="728" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="C728" s="2"/>
       <c r="D728" s="1"/>
@@ -13872,7 +13872,7 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="C729" s="2"/>
       <c r="D729" s="1"/>
@@ -13881,7 +13881,7 @@
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
     </row>
-    <row r="730" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="C730" s="2"/>
       <c r="D730" s="1"/>
@@ -13890,7 +13890,7 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="C731" s="2"/>
       <c r="D731" s="1"/>
@@ -13899,7 +13899,7 @@
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
-    <row r="732" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="C732" s="2"/>
       <c r="D732" s="1"/>
@@ -13908,7 +13908,7 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="C733" s="2"/>
       <c r="D733" s="1"/>
@@ -13917,7 +13917,7 @@
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="C734" s="2"/>
       <c r="D734" s="1"/>
@@ -13926,7 +13926,7 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="C735" s="2"/>
       <c r="D735" s="1"/>
@@ -13935,7 +13935,7 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="C736" s="2"/>
       <c r="D736" s="1"/>
@@ -13944,7 +13944,7 @@
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
     </row>
-    <row r="737" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="C737" s="2"/>
       <c r="D737" s="1"/>
@@ -13953,7 +13953,7 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="C738" s="2"/>
       <c r="D738" s="1"/>
@@ -13962,7 +13962,7 @@
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
     </row>
-    <row r="739" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="C739" s="2"/>
       <c r="D739" s="1"/>
@@ -13971,7 +13971,7 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="C740" s="2"/>
       <c r="D740" s="1"/>
@@ -13980,7 +13980,7 @@
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
     </row>
-    <row r="741" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="C741" s="2"/>
       <c r="D741" s="1"/>
@@ -13989,7 +13989,7 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="C742" s="2"/>
       <c r="D742" s="1"/>
@@ -13998,7 +13998,7 @@
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
     </row>
-    <row r="743" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="C743" s="2"/>
       <c r="D743" s="1"/>
@@ -14007,7 +14007,7 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="C744" s="2"/>
       <c r="D744" s="1"/>
@@ -14016,7 +14016,7 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="C745" s="2"/>
       <c r="D745" s="1"/>
@@ -14025,7 +14025,7 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="C746" s="2"/>
       <c r="D746" s="1"/>
@@ -14034,7 +14034,7 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="C747" s="2"/>
       <c r="D747" s="1"/>
@@ -14043,7 +14043,7 @@
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="C748" s="2"/>
       <c r="D748" s="1"/>
@@ -14052,7 +14052,7 @@
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="C749" s="2"/>
       <c r="D749" s="1"/>
@@ -14061,7 +14061,7 @@
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="C750" s="2"/>
       <c r="D750" s="1"/>
@@ -14070,7 +14070,7 @@
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="C751" s="2"/>
       <c r="D751" s="1"/>
@@ -14079,7 +14079,7 @@
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
     </row>
-    <row r="752" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="C752" s="2"/>
       <c r="D752" s="1"/>
@@ -14088,7 +14088,7 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="C753" s="2"/>
       <c r="D753" s="1"/>
@@ -14097,7 +14097,7 @@
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
-    <row r="754" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="C754" s="2"/>
       <c r="D754" s="1"/>
@@ -14106,7 +14106,7 @@
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="C755" s="2"/>
       <c r="D755" s="1"/>
@@ -14115,7 +14115,7 @@
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
-    <row r="756" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="C756" s="2"/>
       <c r="D756" s="1"/>
@@ -14124,7 +14124,7 @@
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
     </row>
-    <row r="757" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="C757" s="2"/>
       <c r="D757" s="1"/>
@@ -14133,7 +14133,7 @@
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
     </row>
-    <row r="758" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="C758" s="2"/>
       <c r="D758" s="1"/>
@@ -14142,7 +14142,7 @@
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
     </row>
-    <row r="759" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="C759" s="2"/>
       <c r="D759" s="1"/>
@@ -14151,7 +14151,7 @@
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
     </row>
-    <row r="760" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="C760" s="2"/>
       <c r="D760" s="1"/>
@@ -14160,7 +14160,7 @@
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
     </row>
-    <row r="761" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="C761" s="2"/>
       <c r="D761" s="1"/>
@@ -14169,7 +14169,7 @@
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
     </row>
-    <row r="762" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="C762" s="2"/>
       <c r="D762" s="1"/>
@@ -14178,7 +14178,7 @@
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
     </row>
-    <row r="763" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="C763" s="2"/>
       <c r="D763" s="1"/>
@@ -14187,7 +14187,7 @@
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
     </row>
-    <row r="764" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="C764" s="2"/>
       <c r="D764" s="1"/>
@@ -14196,7 +14196,7 @@
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
     </row>
-    <row r="765" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="C765" s="2"/>
       <c r="D765" s="1"/>
@@ -14205,7 +14205,7 @@
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
     </row>
-    <row r="766" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="C766" s="2"/>
       <c r="D766" s="1"/>
@@ -14214,7 +14214,7 @@
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
     </row>
-    <row r="767" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="C767" s="2"/>
       <c r="D767" s="1"/>
@@ -14223,7 +14223,7 @@
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
     </row>
-    <row r="768" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="C768" s="2"/>
       <c r="D768" s="1"/>
@@ -14232,7 +14232,7 @@
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
     </row>
-    <row r="769" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="C769" s="2"/>
       <c r="D769" s="1"/>
@@ -14241,7 +14241,7 @@
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
     </row>
-    <row r="770" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="C770" s="2"/>
       <c r="D770" s="1"/>
@@ -14250,7 +14250,7 @@
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
     </row>
-    <row r="771" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="C771" s="2"/>
       <c r="D771" s="1"/>
@@ -14259,7 +14259,7 @@
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
     </row>
-    <row r="772" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="C772" s="2"/>
       <c r="D772" s="1"/>
@@ -14268,7 +14268,7 @@
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
     </row>
-    <row r="773" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="C773" s="2"/>
       <c r="D773" s="1"/>
@@ -14277,7 +14277,7 @@
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
     </row>
-    <row r="774" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="C774" s="2"/>
       <c r="D774" s="1"/>
@@ -14286,7 +14286,7 @@
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
     </row>
-    <row r="775" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="C775" s="2"/>
       <c r="D775" s="1"/>
@@ -14295,7 +14295,7 @@
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
     </row>
-    <row r="776" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="C776" s="2"/>
       <c r="D776" s="1"/>
@@ -14304,7 +14304,7 @@
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
     </row>
-    <row r="777" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="C777" s="2"/>
       <c r="D777" s="1"/>
@@ -14313,7 +14313,7 @@
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
     </row>
-    <row r="778" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="C778" s="2"/>
       <c r="D778" s="1"/>
@@ -14322,7 +14322,7 @@
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
     </row>
-    <row r="779" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="C779" s="2"/>
       <c r="D779" s="1"/>
@@ -14331,7 +14331,7 @@
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
     </row>
-    <row r="780" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="C780" s="2"/>
       <c r="D780" s="1"/>
@@ -14340,7 +14340,7 @@
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
     </row>
-    <row r="781" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="C781" s="2"/>
       <c r="D781" s="1"/>
@@ -14349,7 +14349,7 @@
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
     </row>
-    <row r="782" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="C782" s="2"/>
       <c r="D782" s="1"/>
@@ -14358,7 +14358,7 @@
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
     </row>
-    <row r="783" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="C783" s="2"/>
       <c r="D783" s="1"/>
@@ -14367,7 +14367,7 @@
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
     </row>
-    <row r="784" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="C784" s="2"/>
       <c r="D784" s="1"/>
@@ -14376,7 +14376,7 @@
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
     </row>
-    <row r="785" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="C785" s="2"/>
       <c r="D785" s="1"/>
@@ -14385,7 +14385,7 @@
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
     </row>
-    <row r="786" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="C786" s="2"/>
       <c r="D786" s="1"/>
@@ -14394,7 +14394,7 @@
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
     </row>
-    <row r="787" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="C787" s="2"/>
       <c r="D787" s="1"/>
@@ -14403,7 +14403,7 @@
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
     </row>
-    <row r="788" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="C788" s="2"/>
       <c r="D788" s="1"/>
@@ -14412,7 +14412,7 @@
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
     </row>
-    <row r="789" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="C789" s="2"/>
       <c r="D789" s="1"/>
@@ -14421,7 +14421,7 @@
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
     </row>
-    <row r="790" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="C790" s="2"/>
       <c r="D790" s="1"/>
@@ -14430,7 +14430,7 @@
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
     </row>
-    <row r="791" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="C791" s="2"/>
       <c r="D791" s="1"/>
@@ -14439,7 +14439,7 @@
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
     </row>
-    <row r="792" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="C792" s="2"/>
       <c r="D792" s="1"/>
@@ -14448,7 +14448,7 @@
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
     </row>
-    <row r="793" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="C793" s="2"/>
       <c r="D793" s="1"/>
@@ -14457,7 +14457,7 @@
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
     </row>
-    <row r="794" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="C794" s="2"/>
       <c r="D794" s="1"/>
@@ -14466,7 +14466,7 @@
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
     </row>
-    <row r="795" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="C795" s="2"/>
       <c r="D795" s="1"/>
@@ -14475,7 +14475,7 @@
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
     </row>
-    <row r="796" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="C796" s="2"/>
       <c r="D796" s="1"/>
@@ -14484,7 +14484,7 @@
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
     </row>
-    <row r="797" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="C797" s="2"/>
       <c r="D797" s="1"/>
@@ -14493,7 +14493,7 @@
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
     </row>
-    <row r="798" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="C798" s="2"/>
       <c r="D798" s="1"/>
@@ -14502,7 +14502,7 @@
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
     </row>
-    <row r="799" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="C799" s="2"/>
       <c r="D799" s="1"/>
@@ -14511,7 +14511,7 @@
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
     </row>
-    <row r="800" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="C800" s="2"/>
       <c r="D800" s="1"/>
@@ -14520,7 +14520,7 @@
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
     </row>
-    <row r="801" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="C801" s="2"/>
       <c r="D801" s="1"/>
@@ -14529,7 +14529,7 @@
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
     </row>
-    <row r="802" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="C802" s="2"/>
       <c r="D802" s="1"/>
@@ -14538,7 +14538,7 @@
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
     </row>
-    <row r="803" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="C803" s="2"/>
       <c r="D803" s="1"/>
@@ -14547,7 +14547,7 @@
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
     </row>
-    <row r="804" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="C804" s="2"/>
       <c r="D804" s="1"/>
@@ -14556,7 +14556,7 @@
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
     </row>
-    <row r="805" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="C805" s="2"/>
       <c r="D805" s="1"/>
@@ -14565,7 +14565,7 @@
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
     </row>
-    <row r="806" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="C806" s="2"/>
       <c r="D806" s="1"/>
@@ -14574,7 +14574,7 @@
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
     </row>
-    <row r="807" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="C807" s="2"/>
       <c r="D807" s="1"/>
@@ -14583,7 +14583,7 @@
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
     </row>
-    <row r="808" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="C808" s="2"/>
       <c r="D808" s="1"/>
@@ -14592,7 +14592,7 @@
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
     </row>
-    <row r="809" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="C809" s="2"/>
       <c r="D809" s="1"/>
@@ -14601,7 +14601,7 @@
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
     </row>
-    <row r="810" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="C810" s="2"/>
       <c r="D810" s="1"/>
@@ -14610,7 +14610,7 @@
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
     </row>
-    <row r="811" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="C811" s="2"/>
       <c r="D811" s="1"/>
@@ -14619,7 +14619,7 @@
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
     </row>
-    <row r="812" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="C812" s="2"/>
       <c r="D812" s="1"/>
@@ -14628,7 +14628,7 @@
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
     </row>
-    <row r="813" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="C813" s="2"/>
       <c r="D813" s="1"/>
@@ -14637,7 +14637,7 @@
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
     </row>
-    <row r="814" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="C814" s="2"/>
       <c r="D814" s="1"/>
@@ -14646,7 +14646,7 @@
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
     </row>
-    <row r="815" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="C815" s="2"/>
       <c r="D815" s="1"/>
@@ -14655,7 +14655,7 @@
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
     </row>
-    <row r="816" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="C816" s="2"/>
       <c r="D816" s="1"/>
@@ -14664,7 +14664,7 @@
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
     </row>
-    <row r="817" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="C817" s="2"/>
       <c r="D817" s="1"/>
@@ -14673,7 +14673,7 @@
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
     </row>
-    <row r="818" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="C818" s="2"/>
       <c r="D818" s="1"/>
@@ -14682,7 +14682,7 @@
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
     </row>
-    <row r="819" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="C819" s="2"/>
       <c r="D819" s="1"/>
@@ -14691,7 +14691,7 @@
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
     </row>
-    <row r="820" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="C820" s="2"/>
       <c r="D820" s="1"/>
@@ -14700,7 +14700,7 @@
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
     </row>
-    <row r="821" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="C821" s="2"/>
       <c r="D821" s="1"/>
@@ -14709,7 +14709,7 @@
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
     </row>
-    <row r="822" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="C822" s="2"/>
       <c r="D822" s="1"/>
@@ -14718,7 +14718,7 @@
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
     </row>
-    <row r="823" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="C823" s="2"/>
       <c r="D823" s="1"/>
@@ -14727,7 +14727,7 @@
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
     </row>
-    <row r="824" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="C824" s="2"/>
       <c r="D824" s="1"/>
@@ -14736,7 +14736,7 @@
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
     </row>
-    <row r="825" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="C825" s="2"/>
       <c r="D825" s="1"/>
@@ -14745,7 +14745,7 @@
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
     </row>
-    <row r="826" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="C826" s="2"/>
       <c r="D826" s="1"/>
@@ -14754,7 +14754,7 @@
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
     </row>
-    <row r="827" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="C827" s="2"/>
       <c r="D827" s="1"/>
@@ -14763,7 +14763,7 @@
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
     </row>
-    <row r="828" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="C828" s="2"/>
       <c r="D828" s="1"/>
@@ -14772,7 +14772,7 @@
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
     </row>
-    <row r="829" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="C829" s="2"/>
       <c r="D829" s="1"/>
@@ -14781,7 +14781,7 @@
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
     </row>
-    <row r="830" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="C830" s="2"/>
       <c r="D830" s="1"/>
@@ -14790,7 +14790,7 @@
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
     </row>
-    <row r="831" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="C831" s="2"/>
       <c r="D831" s="1"/>
@@ -14799,7 +14799,7 @@
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
     </row>
-    <row r="832" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="C832" s="2"/>
       <c r="D832" s="1"/>
@@ -14808,7 +14808,7 @@
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
     </row>
-    <row r="833" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="C833" s="2"/>
       <c r="D833" s="1"/>
@@ -14817,7 +14817,7 @@
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
     </row>
-    <row r="834" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="C834" s="2"/>
       <c r="D834" s="1"/>
@@ -14826,7 +14826,7 @@
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
     </row>
-    <row r="835" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="C835" s="2"/>
       <c r="D835" s="1"/>
@@ -14835,7 +14835,7 @@
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
     </row>
-    <row r="836" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="C836" s="2"/>
       <c r="D836" s="1"/>
@@ -14844,7 +14844,7 @@
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
     </row>
-    <row r="837" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="C837" s="2"/>
       <c r="D837" s="1"/>
@@ -14853,7 +14853,7 @@
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
     </row>
-    <row r="838" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="C838" s="2"/>
       <c r="D838" s="1"/>
@@ -14862,7 +14862,7 @@
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
     </row>
-    <row r="839" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="C839" s="2"/>
       <c r="D839" s="1"/>
@@ -14871,7 +14871,7 @@
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
     </row>
-    <row r="840" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="C840" s="2"/>
       <c r="D840" s="1"/>
@@ -14880,7 +14880,7 @@
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
     </row>
-    <row r="841" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="C841" s="2"/>
       <c r="D841" s="1"/>
@@ -14889,7 +14889,7 @@
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
     </row>
-    <row r="842" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="C842" s="2"/>
       <c r="D842" s="1"/>
@@ -14898,7 +14898,7 @@
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
     </row>
-    <row r="843" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="C843" s="2"/>
       <c r="D843" s="1"/>
@@ -14907,7 +14907,7 @@
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
     </row>
-    <row r="844" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="C844" s="2"/>
       <c r="D844" s="1"/>
@@ -14916,7 +14916,7 @@
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
     </row>
-    <row r="845" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="C845" s="2"/>
       <c r="D845" s="1"/>
@@ -14925,7 +14925,7 @@
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
     </row>
-    <row r="846" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="C846" s="2"/>
       <c r="D846" s="1"/>
@@ -14934,7 +14934,7 @@
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
     </row>
-    <row r="847" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="C847" s="2"/>
       <c r="D847" s="1"/>
@@ -14943,7 +14943,7 @@
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
     </row>
-    <row r="848" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="C848" s="2"/>
       <c r="D848" s="1"/>
@@ -14952,7 +14952,7 @@
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
     </row>
-    <row r="849" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="C849" s="2"/>
       <c r="D849" s="1"/>
@@ -14961,7 +14961,7 @@
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
     </row>
-    <row r="850" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="C850" s="2"/>
       <c r="D850" s="1"/>
@@ -14970,7 +14970,7 @@
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
     </row>
-    <row r="851" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="C851" s="2"/>
       <c r="D851" s="1"/>
@@ -14979,7 +14979,7 @@
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
     </row>
-    <row r="852" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="C852" s="2"/>
       <c r="D852" s="1"/>
@@ -14988,7 +14988,7 @@
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
     </row>
-    <row r="853" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="C853" s="2"/>
       <c r="D853" s="1"/>
@@ -14997,7 +14997,7 @@
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
     </row>
-    <row r="854" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="C854" s="2"/>
       <c r="D854" s="1"/>
@@ -15006,7 +15006,7 @@
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
     </row>
-    <row r="855" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="C855" s="2"/>
       <c r="D855" s="1"/>
@@ -15015,7 +15015,7 @@
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
     </row>
-    <row r="856" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="C856" s="2"/>
       <c r="D856" s="1"/>
@@ -15024,7 +15024,7 @@
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
     </row>
-    <row r="857" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="C857" s="2"/>
       <c r="D857" s="1"/>
@@ -15033,7 +15033,7 @@
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
     </row>
-    <row r="858" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="C858" s="2"/>
       <c r="D858" s="1"/>
@@ -15042,7 +15042,7 @@
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
     </row>
-    <row r="859" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="C859" s="2"/>
       <c r="D859" s="1"/>
@@ -15051,7 +15051,7 @@
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
     </row>
-    <row r="860" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="C860" s="2"/>
       <c r="D860" s="1"/>
@@ -15060,7 +15060,7 @@
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
     </row>
-    <row r="861" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="C861" s="2"/>
       <c r="D861" s="1"/>
@@ -15069,7 +15069,7 @@
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
     </row>
-    <row r="862" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="C862" s="2"/>
       <c r="D862" s="1"/>
@@ -15078,7 +15078,7 @@
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
     </row>
-    <row r="863" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="C863" s="2"/>
       <c r="D863" s="1"/>
@@ -15087,7 +15087,7 @@
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
     </row>
-    <row r="864" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="C864" s="2"/>
       <c r="D864" s="1"/>
@@ -15096,7 +15096,7 @@
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
     </row>
-    <row r="865" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="C865" s="2"/>
       <c r="D865" s="1"/>
@@ -15105,7 +15105,7 @@
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
     </row>
-    <row r="866" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="C866" s="2"/>
       <c r="D866" s="1"/>
@@ -15114,7 +15114,7 @@
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
     </row>
-    <row r="867" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="C867" s="2"/>
       <c r="D867" s="1"/>
@@ -15123,7 +15123,7 @@
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
     </row>
-    <row r="868" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="C868" s="2"/>
       <c r="D868" s="1"/>
@@ -15132,7 +15132,7 @@
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
     </row>
-    <row r="869" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="C869" s="2"/>
       <c r="D869" s="1"/>
@@ -15141,7 +15141,7 @@
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
     </row>
-    <row r="870" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="C870" s="2"/>
       <c r="D870" s="1"/>
@@ -15150,7 +15150,7 @@
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
     </row>
-    <row r="871" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="C871" s="2"/>
       <c r="D871" s="1"/>
@@ -15159,7 +15159,7 @@
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
     </row>
-    <row r="872" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="C872" s="2"/>
       <c r="D872" s="1"/>
@@ -15168,7 +15168,7 @@
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
     </row>
-    <row r="873" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="C873" s="2"/>
       <c r="D873" s="1"/>
@@ -15177,7 +15177,7 @@
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
     </row>
-    <row r="874" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="C874" s="2"/>
       <c r="D874" s="1"/>
@@ -15186,7 +15186,7 @@
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
     </row>
-    <row r="875" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="C875" s="2"/>
       <c r="D875" s="1"/>
@@ -15195,7 +15195,7 @@
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
     </row>
-    <row r="876" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="C876" s="2"/>
       <c r="D876" s="1"/>
@@ -15204,7 +15204,7 @@
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
     </row>
-    <row r="877" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="C877" s="2"/>
       <c r="D877" s="1"/>
@@ -15213,7 +15213,7 @@
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
     </row>
-    <row r="878" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="C878" s="2"/>
       <c r="D878" s="1"/>
@@ -15222,7 +15222,7 @@
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
     </row>
-    <row r="879" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="C879" s="2"/>
       <c r="D879" s="1"/>
@@ -15231,7 +15231,7 @@
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
     </row>
-    <row r="880" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="C880" s="2"/>
       <c r="D880" s="1"/>
@@ -15240,7 +15240,7 @@
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
     </row>
-    <row r="881" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="C881" s="2"/>
       <c r="D881" s="1"/>
@@ -15249,7 +15249,7 @@
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
     </row>
-    <row r="882" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="C882" s="2"/>
       <c r="D882" s="1"/>
@@ -15258,7 +15258,7 @@
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
     </row>
-    <row r="883" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="C883" s="2"/>
       <c r="D883" s="1"/>
@@ -15267,7 +15267,7 @@
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
     </row>
-    <row r="884" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="C884" s="2"/>
       <c r="D884" s="1"/>
@@ -15276,7 +15276,7 @@
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
     </row>
-    <row r="885" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="C885" s="2"/>
       <c r="D885" s="1"/>
@@ -15285,7 +15285,7 @@
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
     </row>
-    <row r="886" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="C886" s="2"/>
       <c r="D886" s="1"/>
@@ -15294,7 +15294,7 @@
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
     </row>
-    <row r="887" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="C887" s="2"/>
       <c r="D887" s="1"/>
@@ -15303,7 +15303,7 @@
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
     </row>
-    <row r="888" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="C888" s="2"/>
       <c r="D888" s="1"/>
@@ -15312,7 +15312,7 @@
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
     </row>
-    <row r="889" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="C889" s="2"/>
       <c r="D889" s="1"/>
@@ -15321,7 +15321,7 @@
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
     </row>
-    <row r="890" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="C890" s="2"/>
       <c r="D890" s="1"/>
@@ -15330,7 +15330,7 @@
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
     </row>
-    <row r="891" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="C891" s="2"/>
       <c r="D891" s="1"/>
@@ -15339,7 +15339,7 @@
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
     </row>
-    <row r="892" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="C892" s="2"/>
       <c r="D892" s="1"/>
@@ -15348,7 +15348,7 @@
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
     </row>
-    <row r="893" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="C893" s="2"/>
       <c r="D893" s="1"/>
@@ -15357,7 +15357,7 @@
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
     </row>
-    <row r="894" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="C894" s="2"/>
       <c r="D894" s="1"/>
@@ -15366,7 +15366,7 @@
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
     </row>
-    <row r="895" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="C895" s="2"/>
       <c r="D895" s="1"/>
@@ -15375,7 +15375,7 @@
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
     </row>
-    <row r="896" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="C896" s="2"/>
       <c r="D896" s="1"/>
@@ -15384,7 +15384,7 @@
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
     </row>
-    <row r="897" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="C897" s="2"/>
       <c r="D897" s="1"/>
@@ -15393,7 +15393,7 @@
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
     </row>
-    <row r="898" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="C898" s="2"/>
       <c r="D898" s="1"/>
@@ -15402,7 +15402,7 @@
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
     </row>
-    <row r="899" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="C899" s="2"/>
       <c r="D899" s="1"/>
@@ -15411,7 +15411,7 @@
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
     </row>
-    <row r="900" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="C900" s="2"/>
       <c r="D900" s="1"/>
@@ -15420,7 +15420,7 @@
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
     </row>
-    <row r="901" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="C901" s="2"/>
       <c r="D901" s="1"/>
@@ -15429,7 +15429,7 @@
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
     </row>
-    <row r="902" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="C902" s="2"/>
       <c r="D902" s="1"/>
@@ -15438,7 +15438,7 @@
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
     </row>
-    <row r="903" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="C903" s="2"/>
       <c r="D903" s="1"/>
@@ -15447,7 +15447,7 @@
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
     </row>
-    <row r="904" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="C904" s="2"/>
       <c r="D904" s="1"/>
@@ -15456,7 +15456,7 @@
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
     </row>
-    <row r="905" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="C905" s="2"/>
       <c r="D905" s="1"/>
@@ -15465,7 +15465,7 @@
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
     </row>
-    <row r="906" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="C906" s="2"/>
       <c r="D906" s="1"/>
@@ -15474,7 +15474,7 @@
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
     </row>
-    <row r="907" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="C907" s="2"/>
       <c r="D907" s="1"/>
@@ -15483,7 +15483,7 @@
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
     </row>
-    <row r="908" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="C908" s="2"/>
       <c r="D908" s="1"/>
@@ -15492,7 +15492,7 @@
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
     </row>
-    <row r="909" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="C909" s="2"/>
       <c r="D909" s="1"/>
@@ -15501,7 +15501,7 @@
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
     </row>
-    <row r="910" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="C910" s="2"/>
       <c r="D910" s="1"/>
@@ -15510,7 +15510,7 @@
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
     </row>
-    <row r="911" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="C911" s="2"/>
       <c r="D911" s="1"/>
@@ -15519,7 +15519,7 @@
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
     </row>
-    <row r="912" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="C912" s="2"/>
       <c r="D912" s="1"/>
@@ -15528,7 +15528,7 @@
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
     </row>
-    <row r="913" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="C913" s="2"/>
       <c r="D913" s="1"/>
@@ -15537,7 +15537,7 @@
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
     </row>
-    <row r="914" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="C914" s="2"/>
       <c r="D914" s="1"/>
@@ -15546,7 +15546,7 @@
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
     </row>
-    <row r="915" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="C915" s="2"/>
       <c r="D915" s="1"/>
@@ -15555,7 +15555,7 @@
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
     </row>
-    <row r="916" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="C916" s="2"/>
       <c r="D916" s="1"/>
@@ -15564,7 +15564,7 @@
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
     </row>
-    <row r="917" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="C917" s="2"/>
       <c r="D917" s="1"/>
@@ -15573,7 +15573,7 @@
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
     </row>
-    <row r="918" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="C918" s="2"/>
       <c r="D918" s="1"/>
@@ -15582,7 +15582,7 @@
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
     </row>
-    <row r="919" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="C919" s="2"/>
       <c r="D919" s="1"/>
@@ -15591,7 +15591,7 @@
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
     </row>
-    <row r="920" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="C920" s="2"/>
       <c r="D920" s="1"/>
@@ -15600,7 +15600,7 @@
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
     </row>
-    <row r="921" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="C921" s="2"/>
       <c r="D921" s="1"/>
@@ -15609,7 +15609,7 @@
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
     </row>
-    <row r="922" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="C922" s="2"/>
       <c r="D922" s="1"/>
@@ -15618,7 +15618,7 @@
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
     </row>
-    <row r="923" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="C923" s="2"/>
       <c r="D923" s="1"/>
@@ -15627,7 +15627,7 @@
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
     </row>
-    <row r="924" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="C924" s="2"/>
       <c r="D924" s="1"/>
@@ -15636,7 +15636,7 @@
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
     </row>
-    <row r="925" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="C925" s="2"/>
       <c r="D925" s="1"/>
@@ -15645,7 +15645,7 @@
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
     </row>
-    <row r="926" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="C926" s="2"/>
       <c r="D926" s="1"/>
@@ -15654,7 +15654,7 @@
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
     </row>
-    <row r="927" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="C927" s="2"/>
       <c r="D927" s="1"/>
@@ -15663,7 +15663,7 @@
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
     </row>
-    <row r="928" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="C928" s="2"/>
       <c r="D928" s="1"/>
@@ -15672,7 +15672,7 @@
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
     </row>
-    <row r="929" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="C929" s="2"/>
       <c r="D929" s="1"/>
@@ -15681,7 +15681,7 @@
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
     </row>
-    <row r="930" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="C930" s="2"/>
       <c r="D930" s="1"/>
@@ -15690,7 +15690,7 @@
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
     </row>
-    <row r="931" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="C931" s="2"/>
       <c r="D931" s="1"/>
@@ -15699,7 +15699,7 @@
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
     </row>
-    <row r="932" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="C932" s="2"/>
       <c r="D932" s="1"/>
@@ -15708,7 +15708,7 @@
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
     </row>
-    <row r="933" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="C933" s="2"/>
       <c r="D933" s="1"/>
@@ -15717,7 +15717,7 @@
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
     </row>
-    <row r="934" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="C934" s="2"/>
       <c r="D934" s="1"/>
@@ -15726,7 +15726,7 @@
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
     </row>
-    <row r="935" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="C935" s="2"/>
       <c r="D935" s="1"/>
@@ -15735,7 +15735,7 @@
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
     </row>
-    <row r="936" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="C936" s="2"/>
       <c r="D936" s="1"/>
@@ -15744,7 +15744,7 @@
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
     </row>
-    <row r="937" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="C937" s="2"/>
       <c r="D937" s="1"/>
@@ -15753,7 +15753,7 @@
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
     </row>
-    <row r="938" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="C938" s="2"/>
       <c r="D938" s="1"/>
@@ -15762,7 +15762,7 @@
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
     </row>
-    <row r="939" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="C939" s="2"/>
       <c r="D939" s="1"/>
@@ -15771,7 +15771,7 @@
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
     </row>
-    <row r="940" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="C940" s="2"/>
       <c r="D940" s="1"/>
@@ -15780,7 +15780,7 @@
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
     </row>
-    <row r="941" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="C941" s="2"/>
       <c r="D941" s="1"/>
@@ -15789,7 +15789,7 @@
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
     </row>
-    <row r="942" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="C942" s="2"/>
       <c r="D942" s="1"/>
@@ -15798,7 +15798,7 @@
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
     </row>
-    <row r="943" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="C943" s="2"/>
       <c r="D943" s="1"/>
@@ -15807,7 +15807,7 @@
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
     </row>
-    <row r="944" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="C944" s="2"/>
       <c r="D944" s="1"/>
@@ -15816,7 +15816,7 @@
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
     </row>
-    <row r="945" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="C945" s="2"/>
       <c r="D945" s="1"/>
@@ -15825,7 +15825,7 @@
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
     </row>
-    <row r="946" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="C946" s="2"/>
       <c r="D946" s="1"/>
@@ -15834,7 +15834,7 @@
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
     </row>
-    <row r="947" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="C947" s="2"/>
       <c r="D947" s="1"/>
@@ -15843,7 +15843,7 @@
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
     </row>
-    <row r="948" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="C948" s="2"/>
       <c r="D948" s="1"/>
@@ -15852,7 +15852,7 @@
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
     </row>
-    <row r="949" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="C949" s="2"/>
       <c r="D949" s="1"/>
@@ -15861,7 +15861,7 @@
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
     </row>
-    <row r="950" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="C950" s="2"/>
       <c r="D950" s="1"/>
@@ -15870,7 +15870,7 @@
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
     </row>
-    <row r="951" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="C951" s="2"/>
       <c r="D951" s="1"/>
@@ -15879,7 +15879,7 @@
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
     </row>
-    <row r="952" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="C952" s="2"/>
       <c r="D952" s="1"/>
@@ -15888,7 +15888,7 @@
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
     </row>
-    <row r="953" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="C953" s="2"/>
       <c r="D953" s="1"/>
@@ -15897,7 +15897,7 @@
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
     </row>
-    <row r="954" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="C954" s="2"/>
       <c r="D954" s="1"/>
@@ -15906,7 +15906,7 @@
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
     </row>
-    <row r="955" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="C955" s="2"/>
       <c r="D955" s="1"/>
@@ -15915,7 +15915,7 @@
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
     </row>
-    <row r="956" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="C956" s="2"/>
       <c r="D956" s="1"/>
@@ -15924,7 +15924,7 @@
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
     </row>
-    <row r="957" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="C957" s="2"/>
       <c r="D957" s="1"/>
@@ -15933,7 +15933,7 @@
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
     </row>
-    <row r="958" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="C958" s="2"/>
       <c r="D958" s="1"/>
@@ -15942,7 +15942,7 @@
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
     </row>
-    <row r="959" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="C959" s="2"/>
       <c r="D959" s="1"/>
@@ -15951,7 +15951,7 @@
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
     </row>
-    <row r="960" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="C960" s="2"/>
       <c r="D960" s="1"/>
@@ -15960,7 +15960,7 @@
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
     </row>
-    <row r="961" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="C961" s="2"/>
       <c r="D961" s="1"/>
@@ -15969,7 +15969,7 @@
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
     </row>
-    <row r="962" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="C962" s="2"/>
       <c r="D962" s="1"/>
@@ -15978,7 +15978,7 @@
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
     </row>
-    <row r="963" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="C963" s="2"/>
       <c r="D963" s="1"/>
@@ -15987,7 +15987,7 @@
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
     </row>
-    <row r="964" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="C964" s="2"/>
       <c r="D964" s="1"/>
@@ -15996,7 +15996,7 @@
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
     </row>
-    <row r="965" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="C965" s="2"/>
       <c r="D965" s="1"/>
@@ -16005,7 +16005,7 @@
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
     </row>
-    <row r="966" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="C966" s="2"/>
       <c r="D966" s="1"/>
@@ -16014,7 +16014,7 @@
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
     </row>
-    <row r="967" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="C967" s="2"/>
       <c r="D967" s="1"/>
@@ -16023,7 +16023,7 @@
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
     </row>
-    <row r="968" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="C968" s="2"/>
       <c r="D968" s="1"/>
@@ -16032,7 +16032,7 @@
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
     </row>
-    <row r="969" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="C969" s="2"/>
       <c r="D969" s="1"/>
@@ -16041,7 +16041,7 @@
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
     </row>
-    <row r="970" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="C970" s="2"/>
       <c r="D970" s="1"/>
@@ -16050,7 +16050,7 @@
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
     </row>
-    <row r="971" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="C971" s="2"/>
       <c r="D971" s="1"/>
@@ -16059,7 +16059,7 @@
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
     </row>
-    <row r="972" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="C972" s="2"/>
       <c r="D972" s="1"/>
@@ -16068,7 +16068,7 @@
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
     </row>
-    <row r="973" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="C973" s="2"/>
       <c r="D973" s="1"/>
@@ -16077,7 +16077,7 @@
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
     </row>
-    <row r="974" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="C974" s="2"/>
       <c r="D974" s="1"/>
@@ -16086,7 +16086,7 @@
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
     </row>
-    <row r="975" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="C975" s="2"/>
       <c r="D975" s="1"/>
@@ -16095,7 +16095,7 @@
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
     </row>
-    <row r="976" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="C976" s="2"/>
       <c r="D976" s="1"/>
@@ -16104,7 +16104,7 @@
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
     </row>
-    <row r="977" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="C977" s="2"/>
       <c r="D977" s="1"/>
@@ -16113,7 +16113,7 @@
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
     </row>
-    <row r="978" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="C978" s="2"/>
       <c r="D978" s="1"/>
@@ -16122,7 +16122,7 @@
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
     </row>
-    <row r="979" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="C979" s="2"/>
       <c r="D979" s="1"/>
@@ -16131,7 +16131,7 @@
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
     </row>
-    <row r="980" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="C980" s="2"/>
       <c r="D980" s="1"/>
@@ -16140,7 +16140,7 @@
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
     </row>
-    <row r="981" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="C981" s="2"/>
       <c r="D981" s="1"/>
@@ -16149,7 +16149,7 @@
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
     </row>
-    <row r="982" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="C982" s="2"/>
       <c r="D982" s="1"/>
@@ -16158,7 +16158,7 @@
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
     </row>
-    <row r="983" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="C983" s="2"/>
       <c r="D983" s="1"/>
@@ -16167,7 +16167,7 @@
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
     </row>
-    <row r="984" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="C984" s="2"/>
       <c r="D984" s="1"/>
@@ -16176,7 +16176,7 @@
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
     </row>
-    <row r="985" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="C985" s="2"/>
       <c r="D985" s="1"/>
@@ -16185,7 +16185,7 @@
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
     </row>
-    <row r="986" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="C986" s="2"/>
       <c r="D986" s="1"/>
@@ -16194,7 +16194,7 @@
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
     </row>
-    <row r="987" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="C987" s="2"/>
       <c r="D987" s="1"/>
@@ -16203,7 +16203,7 @@
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
     </row>
-    <row r="988" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="1"/>
       <c r="C988" s="2"/>
       <c r="D988" s="1"/>
@@ -16212,7 +16212,7 @@
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
     </row>
-    <row r="989" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="1"/>
       <c r="C989" s="2"/>
       <c r="D989" s="1"/>
@@ -16221,7 +16221,7 @@
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
     </row>
-    <row r="990" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="1"/>
       <c r="C990" s="2"/>
       <c r="D990" s="1"/>
@@ -16230,7 +16230,7 @@
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
     </row>
-    <row r="991" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="1"/>
       <c r="C991" s="2"/>
       <c r="D991" s="1"/>
@@ -16239,7 +16239,7 @@
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
     </row>
-    <row r="992" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="1"/>
       <c r="C992" s="2"/>
       <c r="D992" s="1"/>
@@ -16248,7 +16248,7 @@
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
     </row>
-    <row r="993" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="1"/>
       <c r="C993" s="2"/>
       <c r="D993" s="1"/>
@@ -16257,7 +16257,7 @@
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
     </row>
-    <row r="994" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="1"/>
       <c r="C994" s="2"/>
       <c r="D994" s="1"/>
@@ -16266,7 +16266,7 @@
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
     </row>
-    <row r="995" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="1"/>
       <c r="C995" s="2"/>
       <c r="D995" s="1"/>
@@ -16275,7 +16275,7 @@
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
     </row>
-    <row r="996" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="1"/>
       <c r="C996" s="2"/>
       <c r="D996" s="1"/>
@@ -16284,7 +16284,7 @@
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
     </row>
-    <row r="997" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="1"/>
       <c r="C997" s="2"/>
       <c r="D997" s="1"/>
@@ -16293,7 +16293,7 @@
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
     </row>
-    <row r="998" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="1"/>
       <c r="C998" s="2"/>
       <c r="D998" s="1"/>
@@ -16302,7 +16302,7 @@
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
     </row>
-    <row r="999" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="1"/>
       <c r="C999" s="2"/>
       <c r="D999" s="1"/>
@@ -16311,7 +16311,7 @@
       <c r="G999" s="1"/>
       <c r="H999" s="1"/>
     </row>
-    <row r="1000" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="1"/>
       <c r="C1000" s="2"/>
       <c r="D1000" s="1"/>
@@ -16320,7 +16320,7 @@
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
     </row>
-    <row r="1001" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="1"/>
       <c r="C1001" s="2"/>
       <c r="D1001" s="1"/>
@@ -16329,7 +16329,7 @@
       <c r="G1001" s="1"/>
       <c r="H1001" s="1"/>
     </row>
-    <row r="1002" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="1"/>
       <c r="C1002" s="2"/>
       <c r="D1002" s="1"/>
@@ -16338,7 +16338,7 @@
       <c r="G1002" s="1"/>
       <c r="H1002" s="1"/>
     </row>
-    <row r="1003" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="1"/>
       <c r="C1003" s="2"/>
       <c r="D1003" s="1"/>
@@ -16347,7 +16347,7 @@
       <c r="G1003" s="1"/>
       <c r="H1003" s="1"/>
     </row>
-    <row r="1004" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="1"/>
       <c r="C1004" s="2"/>
       <c r="D1004" s="1"/>
@@ -16356,7 +16356,7 @@
       <c r="G1004" s="1"/>
       <c r="H1004" s="1"/>
     </row>
-    <row r="1005" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="1"/>
       <c r="C1005" s="2"/>
       <c r="D1005" s="1"/>
@@ -16365,7 +16365,7 @@
       <c r="G1005" s="1"/>
       <c r="H1005" s="1"/>
     </row>
-    <row r="1006" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="1"/>
       <c r="C1006" s="2"/>
       <c r="D1006" s="1"/>
@@ -16374,7 +16374,7 @@
       <c r="G1006" s="1"/>
       <c r="H1006" s="1"/>
     </row>
-    <row r="1007" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="1"/>
       <c r="C1007" s="2"/>
       <c r="D1007" s="1"/>
@@ -16383,7 +16383,7 @@
       <c r="G1007" s="1"/>
       <c r="H1007" s="1"/>
     </row>
-    <row r="1008" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1008" s="1"/>
       <c r="C1008" s="2"/>
       <c r="D1008" s="1"/>
@@ -16392,7 +16392,7 @@
       <c r="G1008" s="1"/>
       <c r="H1008" s="1"/>
     </row>
-    <row r="1009" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="1"/>
       <c r="C1009" s="2"/>
       <c r="D1009" s="1"/>
@@ -16401,7 +16401,7 @@
       <c r="G1009" s="1"/>
       <c r="H1009" s="1"/>
     </row>
-    <row r="1010" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1010" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1010" s="1"/>
       <c r="C1010" s="2"/>
       <c r="D1010" s="1"/>
@@ -16410,7 +16410,7 @@
       <c r="G1010" s="1"/>
       <c r="H1010" s="1"/>
     </row>
-    <row r="1011" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1011" s="1"/>
       <c r="C1011" s="2"/>
       <c r="D1011" s="1"/>
@@ -16419,7 +16419,7 @@
       <c r="G1011" s="1"/>
       <c r="H1011" s="1"/>
     </row>
-    <row r="1012" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1012" s="1"/>
       <c r="C1012" s="2"/>
       <c r="D1012" s="1"/>
@@ -16428,7 +16428,7 @@
       <c r="G1012" s="1"/>
       <c r="H1012" s="1"/>
     </row>
-    <row r="1013" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1013" s="1"/>
       <c r="C1013" s="2"/>
       <c r="D1013" s="1"/>
@@ -16437,7 +16437,7 @@
       <c r="G1013" s="1"/>
       <c r="H1013" s="1"/>
     </row>
-    <row r="1014" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1014" s="1"/>
       <c r="C1014" s="2"/>
       <c r="D1014" s="1"/>
@@ -16446,7 +16446,7 @@
       <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
     </row>
-    <row r="1015" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1015" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="1"/>
       <c r="C1015" s="2"/>
       <c r="D1015" s="1"/>
@@ -16455,7 +16455,7 @@
       <c r="G1015" s="1"/>
       <c r="H1015" s="1"/>
     </row>
-    <row r="1016" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="1"/>
       <c r="C1016" s="2"/>
       <c r="D1016" s="1"/>
@@ -16464,7 +16464,7 @@
       <c r="G1016" s="1"/>
       <c r="H1016" s="1"/>
     </row>
-    <row r="1017" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1017" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1017" s="1"/>
       <c r="C1017" s="2"/>
       <c r="D1017" s="1"/>
@@ -16473,7 +16473,7 @@
       <c r="G1017" s="1"/>
       <c r="H1017" s="1"/>
     </row>
-    <row r="1018" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1018" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1018" s="1"/>
       <c r="C1018" s="2"/>
       <c r="D1018" s="1"/>
@@ -16482,7 +16482,7 @@
       <c r="G1018" s="1"/>
       <c r="H1018" s="1"/>
     </row>
-    <row r="1019" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="1"/>
       <c r="C1019" s="2"/>
       <c r="D1019" s="1"/>
@@ -16491,7 +16491,7 @@
       <c r="G1019" s="1"/>
       <c r="H1019" s="1"/>
     </row>
-    <row r="1020" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="1"/>
       <c r="C1020" s="2"/>
       <c r="D1020" s="1"/>
@@ -16500,7 +16500,7 @@
       <c r="G1020" s="1"/>
       <c r="H1020" s="1"/>
     </row>
-    <row r="1021" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1021" s="1"/>
       <c r="C1021" s="2"/>
       <c r="D1021" s="1"/>
@@ -16509,7 +16509,7 @@
       <c r="G1021" s="1"/>
       <c r="H1021" s="1"/>
     </row>
-    <row r="1022" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1022" s="1"/>
       <c r="C1022" s="2"/>
       <c r="D1022" s="1"/>
@@ -16518,7 +16518,7 @@
       <c r="G1022" s="1"/>
       <c r="H1022" s="1"/>
     </row>
-    <row r="1023" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="1"/>
       <c r="C1023" s="2"/>
       <c r="D1023" s="1"/>
@@ -16527,7 +16527,7 @@
       <c r="G1023" s="1"/>
       <c r="H1023" s="1"/>
     </row>
-    <row r="1024" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="1"/>
       <c r="C1024" s="2"/>
       <c r="D1024" s="1"/>
@@ -16536,7 +16536,7 @@
       <c r="G1024" s="1"/>
       <c r="H1024" s="1"/>
     </row>
-    <row r="1025" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="1"/>
       <c r="C1025" s="2"/>
       <c r="D1025" s="1"/>
@@ -16545,7 +16545,7 @@
       <c r="G1025" s="1"/>
       <c r="H1025" s="1"/>
     </row>
-    <row r="1026" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="1"/>
       <c r="C1026" s="2"/>
       <c r="D1026" s="1"/>
@@ -16554,7 +16554,7 @@
       <c r="G1026" s="1"/>
       <c r="H1026" s="1"/>
     </row>
-    <row r="1027" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="1"/>
       <c r="C1027" s="2"/>
       <c r="D1027" s="1"/>
@@ -16563,7 +16563,7 @@
       <c r="G1027" s="1"/>
       <c r="H1027" s="1"/>
     </row>
-    <row r="1028" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="1"/>
       <c r="C1028" s="2"/>
       <c r="D1028" s="1"/>
@@ -16572,7 +16572,7 @@
       <c r="G1028" s="1"/>
       <c r="H1028" s="1"/>
     </row>
-    <row r="1029" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="1"/>
       <c r="C1029" s="2"/>
       <c r="D1029" s="1"/>
@@ -16581,7 +16581,7 @@
       <c r="G1029" s="1"/>
       <c r="H1029" s="1"/>
     </row>
-    <row r="1030" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="1"/>
       <c r="C1030" s="2"/>
       <c r="D1030" s="1"/>
@@ -16590,7 +16590,7 @@
       <c r="G1030" s="1"/>
       <c r="H1030" s="1"/>
     </row>
-    <row r="1031" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="1"/>
       <c r="C1031" s="2"/>
       <c r="D1031" s="1"/>
@@ -16599,7 +16599,7 @@
       <c r="G1031" s="1"/>
       <c r="H1031" s="1"/>
     </row>
-    <row r="1032" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1032" s="1"/>
       <c r="C1032" s="2"/>
       <c r="D1032" s="1"/>
@@ -16608,7 +16608,7 @@
       <c r="G1032" s="1"/>
       <c r="H1032" s="1"/>
     </row>
-    <row r="1033" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="1"/>
       <c r="C1033" s="2"/>
       <c r="D1033" s="1"/>
@@ -16617,7 +16617,7 @@
       <c r="G1033" s="1"/>
       <c r="H1033" s="1"/>
     </row>
-    <row r="1034" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="1"/>
       <c r="C1034" s="2"/>
       <c r="D1034" s="1"/>
@@ -16626,7 +16626,7 @@
       <c r="G1034" s="1"/>
       <c r="H1034" s="1"/>
     </row>
-    <row r="1035" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="1"/>
       <c r="C1035" s="2"/>
       <c r="D1035" s="1"/>
@@ -16635,7 +16635,7 @@
       <c r="G1035" s="1"/>
       <c r="H1035" s="1"/>
     </row>
-    <row r="1036" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="1"/>
       <c r="C1036" s="2"/>
       <c r="D1036" s="1"/>
@@ -16644,7 +16644,7 @@
       <c r="G1036" s="1"/>
       <c r="H1036" s="1"/>
     </row>
-    <row r="1037" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="1"/>
       <c r="C1037" s="2"/>
       <c r="D1037" s="1"/>
@@ -16653,7 +16653,7 @@
       <c r="G1037" s="1"/>
       <c r="H1037" s="1"/>
     </row>
-    <row r="1038" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="1"/>
       <c r="C1038" s="2"/>
       <c r="D1038" s="1"/>
@@ -16662,7 +16662,7 @@
       <c r="G1038" s="1"/>
       <c r="H1038" s="1"/>
     </row>
-    <row r="1039" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1039" s="1"/>
       <c r="C1039" s="2"/>
       <c r="D1039" s="1"/>
@@ -16671,7 +16671,7 @@
       <c r="G1039" s="1"/>
       <c r="H1039" s="1"/>
     </row>
-    <row r="1040" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="1"/>
       <c r="C1040" s="2"/>
       <c r="D1040" s="1"/>
@@ -16680,7 +16680,7 @@
       <c r="G1040" s="1"/>
       <c r="H1040" s="1"/>
     </row>
-    <row r="1041" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1041" s="1"/>
       <c r="C1041" s="2"/>
       <c r="D1041" s="1"/>
@@ -16689,7 +16689,7 @@
       <c r="G1041" s="1"/>
       <c r="H1041" s="1"/>
     </row>
-    <row r="1042" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1042" s="1"/>
       <c r="C1042" s="2"/>
       <c r="D1042" s="1"/>
@@ -16698,7 +16698,7 @@
       <c r="G1042" s="1"/>
       <c r="H1042" s="1"/>
     </row>
-    <row r="1043" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="1"/>
       <c r="C1043" s="2"/>
       <c r="D1043" s="1"/>
@@ -16707,7 +16707,7 @@
       <c r="G1043" s="1"/>
       <c r="H1043" s="1"/>
     </row>
-    <row r="1044" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1044" s="1"/>
       <c r="C1044" s="2"/>
       <c r="D1044" s="1"/>
@@ -16716,7 +16716,7 @@
       <c r="G1044" s="1"/>
       <c r="H1044" s="1"/>
     </row>
-    <row r="1045" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="1"/>
       <c r="C1045" s="2"/>
       <c r="D1045" s="1"/>
@@ -16725,7 +16725,7 @@
       <c r="G1045" s="1"/>
       <c r="H1045" s="1"/>
     </row>
-    <row r="1046" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="1"/>
       <c r="C1046" s="2"/>
       <c r="D1046" s="1"/>
@@ -16734,7 +16734,7 @@
       <c r="G1046" s="1"/>
       <c r="H1046" s="1"/>
     </row>
-    <row r="1047" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1047" s="1"/>
       <c r="C1047" s="2"/>
       <c r="D1047" s="1"/>
@@ -16743,7 +16743,7 @@
       <c r="G1047" s="1"/>
       <c r="H1047" s="1"/>
     </row>
-    <row r="1048" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="1"/>
       <c r="C1048" s="2"/>
       <c r="D1048" s="1"/>
@@ -16752,7 +16752,7 @@
       <c r="G1048" s="1"/>
       <c r="H1048" s="1"/>
     </row>
-    <row r="1049" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1049" s="1"/>
       <c r="C1049" s="2"/>
       <c r="D1049" s="1"/>
@@ -16761,7 +16761,7 @@
       <c r="G1049" s="1"/>
       <c r="H1049" s="1"/>
     </row>
-    <row r="1050" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1050" s="1"/>
       <c r="C1050" s="2"/>
       <c r="D1050" s="1"/>
@@ -16770,7 +16770,7 @@
       <c r="G1050" s="1"/>
       <c r="H1050" s="1"/>
     </row>
-    <row r="1051" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1051" s="1"/>
       <c r="C1051" s="2"/>
       <c r="D1051" s="1"/>
@@ -16779,7 +16779,7 @@
       <c r="G1051" s="1"/>
       <c r="H1051" s="1"/>
     </row>
-    <row r="1052" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1052" s="1"/>
       <c r="C1052" s="2"/>
       <c r="D1052" s="1"/>
@@ -16788,7 +16788,7 @@
       <c r="G1052" s="1"/>
       <c r="H1052" s="1"/>
     </row>
-    <row r="1053" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1053" s="1"/>
       <c r="C1053" s="2"/>
       <c r="D1053" s="1"/>
@@ -16797,7 +16797,7 @@
       <c r="G1053" s="1"/>
       <c r="H1053" s="1"/>
     </row>
-    <row r="1054" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1054" s="1"/>
       <c r="C1054" s="2"/>
       <c r="D1054" s="1"/>
@@ -16806,7 +16806,7 @@
       <c r="G1054" s="1"/>
       <c r="H1054" s="1"/>
     </row>
-    <row r="1055" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1055" s="1"/>
       <c r="C1055" s="2"/>
       <c r="D1055" s="1"/>
@@ -16815,7 +16815,7 @@
       <c r="G1055" s="1"/>
       <c r="H1055" s="1"/>
     </row>
-    <row r="1056" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1056" s="1"/>
       <c r="C1056" s="2"/>
       <c r="D1056" s="1"/>
@@ -16824,7 +16824,7 @@
       <c r="G1056" s="1"/>
       <c r="H1056" s="1"/>
     </row>
-    <row r="1057" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1057" s="1"/>
       <c r="C1057" s="2"/>
       <c r="D1057" s="1"/>
@@ -16833,7 +16833,7 @@
       <c r="G1057" s="1"/>
       <c r="H1057" s="1"/>
     </row>
-    <row r="1058" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1058" s="1"/>
       <c r="C1058" s="2"/>
       <c r="D1058" s="1"/>
@@ -16842,7 +16842,7 @@
       <c r="G1058" s="1"/>
       <c r="H1058" s="1"/>
     </row>
-    <row r="1059" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1059" s="1"/>
       <c r="C1059" s="2"/>
       <c r="D1059" s="1"/>
@@ -16851,7 +16851,7 @@
       <c r="G1059" s="1"/>
       <c r="H1059" s="1"/>
     </row>
-    <row r="1060" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1060" s="1"/>
       <c r="C1060" s="2"/>
       <c r="D1060" s="1"/>
@@ -16860,7 +16860,7 @@
       <c r="G1060" s="1"/>
       <c r="H1060" s="1"/>
     </row>
-    <row r="1061" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1061" s="1"/>
       <c r="C1061" s="2"/>
       <c r="D1061" s="1"/>

--- a/Change_log_for_SS_3.30.xlsx
+++ b/Change_log_for_SS_3.30.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$249</definedName>
-    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$251</definedName>
+    <definedName name="SS330_change_log" localSheetId="0">Sheet1!$A$1:$H$222</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="508">
   <si>
     <t>Version</t>
   </si>
@@ -2763,12 +2763,27 @@
   <si>
     <t>tagging</t>
   </si>
+  <si>
+    <t>3.30.19.01</t>
+  </si>
+  <si>
+    <t>Fix seasonal recruitment and fecundity calcs when using weight at age</t>
+  </si>
+  <si>
+    <t>#283</t>
+  </si>
+  <si>
+    <t>Fix reporting of catage in equilibrium and initial year report</t>
+  </si>
+  <si>
+    <t>#288</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2818,6 +2833,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2840,7 +2862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2863,6 +2885,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3080,11 +3105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1062"/>
+  <dimension ref="A1:Z1064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3131,55 +3156,55 @@
     </row>
     <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="B2" s="5">
-        <v>44651</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>500</v>
+        <v>44663</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>506</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>502</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>493</v>
+        <v>60</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="B3" s="5">
-        <v>44642</v>
+        <v>44656</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>476</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -3188,25 +3213,25 @@
         <v>462</v>
       </c>
       <c r="B4" s="5">
-        <v>44642</v>
+        <v>44651</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>493</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -3215,40 +3240,40 @@
         <v>462</v>
       </c>
       <c r="B5" s="5">
-        <v>44637</v>
+        <v>44642</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B6" s="5">
-        <v>44631</v>
+        <v>44642</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -3269,52 +3294,52 @@
         <v>462</v>
       </c>
       <c r="B7" s="5">
-        <v>44631</v>
+        <v>44637</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>440</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>493</v>
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B8" s="5">
-        <v>44609</v>
+        <v>44631</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -3323,13 +3348,13 @@
         <v>462</v>
       </c>
       <c r="B9" s="5">
-        <v>44582</v>
+        <v>44631</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -3338,10 +3363,10 @@
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>440</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>473</v>
+        <v>30</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -3350,13 +3375,13 @@
         <v>462</v>
       </c>
       <c r="B10" s="5">
-        <v>44574</v>
+        <v>44609</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -3365,7 +3390,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>13</v>
@@ -3377,25 +3402,25 @@
         <v>462</v>
       </c>
       <c r="B11" s="5">
-        <v>44567</v>
+        <v>44582</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>473</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -3404,25 +3429,25 @@
         <v>462</v>
       </c>
       <c r="B12" s="5">
-        <v>44566</v>
+        <v>44574</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -3431,25 +3456,25 @@
         <v>462</v>
       </c>
       <c r="B13" s="5">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>476</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -3458,25 +3483,25 @@
         <v>462</v>
       </c>
       <c r="B14" s="5">
-        <v>44552</v>
+        <v>44566</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -3485,25 +3510,25 @@
         <v>462</v>
       </c>
       <c r="B15" s="5">
-        <v>44546</v>
+        <v>44566</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>60</v>
+        <v>476</v>
       </c>
       <c r="I15" s="3"/>
     </row>
@@ -3512,25 +3537,25 @@
         <v>462</v>
       </c>
       <c r="B16" s="5">
-        <v>44538</v>
+        <v>44552</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I16" s="3"/>
     </row>
@@ -3539,25 +3564,25 @@
         <v>462</v>
       </c>
       <c r="B17" s="5">
-        <v>44532</v>
+        <v>44546</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3"/>
     </row>
@@ -3566,25 +3591,25 @@
         <v>462</v>
       </c>
       <c r="B18" s="5">
-        <v>44522</v>
+        <v>44538</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -3593,79 +3618,79 @@
         <v>462</v>
       </c>
       <c r="B19" s="5">
-        <v>44483</v>
+        <v>44532</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>440</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B20" s="5">
-        <v>44469</v>
+        <v>44522</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>461</v>
+        <v>466</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>467</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>387</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>460</v>
+        <v>13</v>
       </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B21" s="5">
-        <v>44460</v>
+        <v>44483</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>461</v>
+        <v>482</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>483</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -3674,25 +3699,25 @@
         <v>445</v>
       </c>
       <c r="B22" s="5">
-        <v>44460</v>
+        <v>44469</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>387</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>460</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -3701,25 +3726,25 @@
         <v>445</v>
       </c>
       <c r="B23" s="5">
-        <v>44432</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>450</v>
+        <v>44460</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>104</v>
+        <v>387</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>60</v>
+        <v>460</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -3728,22 +3753,22 @@
         <v>445</v>
       </c>
       <c r="B24" s="5">
-        <v>44432</v>
+        <v>44460</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>13</v>
@@ -3755,25 +3780,25 @@
         <v>445</v>
       </c>
       <c r="B25" s="5">
-        <v>44427</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>443</v>
+        <v>44432</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I25" s="3"/>
     </row>
@@ -3782,25 +3807,25 @@
         <v>445</v>
       </c>
       <c r="B26" s="5">
-        <v>44428</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>452</v>
+        <v>44432</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I26" s="3"/>
     </row>
@@ -3812,22 +3837,22 @@
         <v>44427</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3"/>
     </row>
@@ -3836,106 +3861,106 @@
         <v>445</v>
       </c>
       <c r="B28" s="5">
-        <v>44371</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>446</v>
+        <v>44428</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>452</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>387</v>
+        <v>30</v>
       </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B29" s="5">
-        <v>44362</v>
+        <v>44427</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>440</v>
+        <v>59</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="B30" s="5">
-        <v>44358</v>
+        <v>44371</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>393</v>
+        <v>446</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="B31" s="5">
-        <v>44322</v>
+        <v>44362</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>383</v>
+        <v>441</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>440</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I31" s="3"/>
     </row>
@@ -3944,40 +3969,40 @@
         <v>391</v>
       </c>
       <c r="B32" s="5">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B33" s="5">
-        <v>44299</v>
+        <v>44322</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -3998,40 +4023,40 @@
         <v>391</v>
       </c>
       <c r="B34" s="5">
-        <v>44291</v>
+        <v>44316</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B35" s="5">
-        <v>44285</v>
+        <v>44299</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -4040,25 +4065,25 @@
         <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B36" s="5">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>19</v>
@@ -4067,37 +4092,37 @@
         <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B37" s="5">
-        <v>44273</v>
+        <v>44285</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>376</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -4106,25 +4131,25 @@
         <v>391</v>
       </c>
       <c r="B38" s="5">
-        <v>44272</v>
+        <v>44277</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I38" s="3"/>
     </row>
@@ -4133,52 +4158,52 @@
         <v>391</v>
       </c>
       <c r="B39" s="5">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>376</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B40" s="5">
-        <v>44267</v>
+        <v>44272</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I40" s="3"/>
     </row>
@@ -4187,52 +4212,52 @@
         <v>391</v>
       </c>
       <c r="B41" s="5">
-        <v>44266</v>
+        <v>44272</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B42" s="5">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I42" s="3"/>
     </row>
@@ -4241,13 +4266,13 @@
         <v>391</v>
       </c>
       <c r="B43" s="5">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>19</v>
@@ -4256,64 +4281,64 @@
         <v>26</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B44" s="5">
-        <v>44260</v>
+        <v>44266</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B45" s="5">
-        <v>44236</v>
+        <v>44264</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I45" s="3"/>
     </row>
@@ -4322,13 +4347,13 @@
         <v>391</v>
       </c>
       <c r="B46" s="5">
-        <v>44232</v>
+        <v>44260</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>19</v>
@@ -4337,37 +4362,37 @@
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B47" s="5">
-        <v>44223</v>
+        <v>44236</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I47" s="3"/>
     </row>
@@ -4376,13 +4401,13 @@
         <v>391</v>
       </c>
       <c r="B48" s="5">
-        <v>44222</v>
+        <v>44232</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>19</v>
@@ -4391,25 +4416,25 @@
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B49" s="5">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>19</v>
@@ -4418,25 +4443,25 @@
         <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B50" s="5">
-        <v>44183</v>
+        <v>44222</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>19</v>
@@ -4445,25 +4470,25 @@
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>46</v>
+        <v>376</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B51" s="5">
-        <v>44180</v>
+        <v>44186</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>19</v>
@@ -4472,106 +4497,106 @@
         <v>26</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>29</v>
+        <v>386</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B52" s="5">
-        <v>44168</v>
+        <v>44183</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>385</v>
+        <v>46</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B53" s="5">
-        <v>44140</v>
+        <v>44180</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B54" s="5">
-        <v>44136</v>
+        <v>44168</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B55" s="5">
-        <v>44127</v>
+        <v>44140</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>19</v>
@@ -4580,337 +4605,303 @@
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B56" s="5">
-        <v>44123</v>
+        <v>44136</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>26</v>
+        <v>387</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>30</v>
+        <v>387</v>
       </c>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B57" s="5">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B58" s="5">
-        <v>44117</v>
+        <v>44123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="B59" s="5">
-        <v>44099</v>
+        <v>44123</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" s="5">
+        <v>44117</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B60" s="5">
-        <v>44095</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="B61" s="5">
+        <v>44099</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B61" s="5">
-        <v>44090</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>389</v>
       </c>
       <c r="H61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B62" s="5">
+        <v>44095</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B63" s="5">
+        <v>44090</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" s="5">
         <v>44077</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B63" s="5">
-        <v>44075</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="5">
-        <v>44018</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
       <c r="B65" s="5">
-        <v>44005</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>44075</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B66" s="5">
-        <v>44005</v>
+        <v>44018</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -4933,44 +4924,60 @@
     </row>
     <row r="67" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B67" s="5">
-        <v>43998</v>
+        <v>44005</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B68" s="5">
-        <v>43998</v>
+        <v>44005</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>19</v>
@@ -4979,110 +4986,126 @@
         <v>20</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B69" s="5">
-        <v>43991</v>
+        <v>43998</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B70" s="5">
-        <v>43972</v>
+        <v>43998</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B71" s="5">
-        <v>43970</v>
+        <v>43991</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B72" s="5">
-        <v>43957</v>
+        <v>43972</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>10</v>
@@ -5091,7 +5114,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>22</v>
@@ -5099,35 +5122,35 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B73" s="5">
-        <v>43957</v>
+        <v>43970</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -5135,126 +5158,94 @@
         <v>43957</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B75" s="5">
-        <v>43952</v>
+        <v>43957</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-    </row>
-    <row r="76" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B76" s="5">
-        <v>43951</v>
+        <v>43957</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B77" s="5">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>19</v>
@@ -5262,8 +5253,12 @@
       <c r="F77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -5283,18 +5278,18 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B78" s="5">
-        <v>43948</v>
+        <v>43951</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>10</v>
@@ -5303,7 +5298,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>13</v>
@@ -5329,29 +5324,25 @@
     </row>
     <row r="79" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B79" s="5">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -5373,28 +5364,28 @@
     </row>
     <row r="80" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B80" s="5">
-        <v>43944</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>62</v>
+        <v>43948</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -5417,28 +5408,28 @@
     </row>
     <row r="81" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B81" s="5">
-        <v>43935</v>
+        <v>43944</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -5459,18 +5450,18 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B82" s="5">
-        <v>43927</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>332</v>
+        <v>43944</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>19</v>
@@ -5479,26 +5470,42 @@
         <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B83" s="5">
-        <v>43927</v>
+        <v>43935</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>19</v>
@@ -5507,25 +5514,42 @@
         <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="5">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>19</v>
@@ -5534,25 +5558,26 @@
         <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="5">
-        <v>43923</v>
+        <v>43927</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>19</v>
@@ -5561,25 +5586,25 @@
         <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B86" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>334</v>
+        <v>43923</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>19</v>
@@ -5588,37 +5613,39 @@
         <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B87" s="5">
-        <v>43916</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>335</v>
+        <v>43923</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -5628,19 +5655,19 @@
         <v>43916</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>60</v>
@@ -5654,20 +5681,22 @@
         <v>43916</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5678,19 +5707,19 @@
         <v>43916</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>60</v>
@@ -5704,22 +5733,20 @@
         <v>43916</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,22 +5757,22 @@
         <v>43916</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5756,10 +5783,10 @@
         <v>43916</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>19</v>
@@ -5768,7 +5795,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>30</v>
@@ -5782,20 +5809,22 @@
         <v>43916</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G94" s="1" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5806,10 +5835,10 @@
         <v>43916</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>19</v>
@@ -5818,10 +5847,10 @@
         <v>20</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5832,19 +5861,17 @@
         <v>43916</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>30</v>
@@ -5858,22 +5885,22 @@
         <v>43916</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5884,10 +5911,10 @@
         <v>43916</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>19</v>
@@ -5896,10 +5923,10 @@
         <v>26</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,17 +5937,19 @@
         <v>43916</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="G99" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>60</v>
@@ -5934,9 +5963,11 @@
         <v>43916</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D100" s="1"/>
+        <v>346</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E100" s="1" t="s">
         <v>19</v>
       </c>
@@ -5944,7 +5975,7 @@
         <v>26</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>22</v>
@@ -5958,22 +5989,20 @@
         <v>43916</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,11 +6013,9 @@
         <v>43916</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
         <v>19</v>
       </c>
@@ -5996,10 +6023,10 @@
         <v>26</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,10 +6037,10 @@
         <v>43916</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>19</v>
@@ -6022,7 +6049,7 @@
         <v>26</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>30</v>
@@ -6036,10 +6063,10 @@
         <v>43916</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>19</v>
@@ -6048,7 +6075,7 @@
         <v>26</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>30</v>
@@ -6062,19 +6089,19 @@
         <v>43916</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>30</v>
@@ -6088,22 +6115,22 @@
         <v>43916</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6114,19 +6141,19 @@
         <v>43916</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>30</v>
@@ -6140,22 +6167,22 @@
         <v>43916</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6166,22 +6193,22 @@
         <v>43916</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>356</v>
+        <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6192,22 +6219,22 @@
         <v>43916</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6218,10 +6245,10 @@
         <v>43916</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>19</v>
@@ -6230,7 +6257,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>60</v>
@@ -6244,10 +6271,10 @@
         <v>43916</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>19</v>
@@ -6256,10 +6283,10 @@
         <v>20</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6270,10 +6297,10 @@
         <v>43916</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>19</v>
@@ -6282,10 +6309,10 @@
         <v>20</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6296,10 +6323,10 @@
         <v>43916</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>19</v>
@@ -6308,58 +6335,62 @@
         <v>20</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B115" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D115" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B116" s="5">
-        <v>43665</v>
+        <v>43916</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D116" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6370,20 +6401,20 @@
         <v>43665</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,19 +6422,17 @@
         <v>119</v>
       </c>
       <c r="B118" s="5">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>112</v>
@@ -6417,25 +6446,23 @@
         <v>119</v>
       </c>
       <c r="B119" s="5">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,25 +6470,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="5">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6469,46 +6496,48 @@
         <v>119</v>
       </c>
       <c r="B121" s="5">
-        <v>43658</v>
+        <v>43662</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D121" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E121" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B122" s="5">
-        <v>43656</v>
+        <v>43658</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>22</v>
@@ -6516,42 +6545,40 @@
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B123" s="5">
-        <v>43656</v>
+        <v>43658</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B124" s="5">
-        <v>43647</v>
+        <v>43656</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>19</v>
@@ -6560,24 +6587,24 @@
         <v>20</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B125" s="5">
-        <v>43647</v>
+        <v>43656</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>19</v>
@@ -6586,7 +6613,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>30</v>
@@ -6597,22 +6624,22 @@
         <v>136</v>
       </c>
       <c r="B126" s="5">
-        <v>43644</v>
+        <v>43647</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>30</v>
@@ -6620,16 +6647,16 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B127" s="5">
-        <v>43632</v>
+        <v>43647</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>19</v>
@@ -6638,24 +6665,24 @@
         <v>20</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B128" s="5">
-        <v>43631</v>
+        <v>43644</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>19</v>
@@ -6664,7 +6691,7 @@
         <v>26</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>30</v>
@@ -6672,15 +6699,17 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B129" s="5">
-        <v>43629</v>
+        <v>43632</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E129" s="1" t="s">
         <v>19</v>
       </c>
@@ -6688,30 +6717,30 @@
         <v>20</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B130" s="5">
-        <v>43626</v>
+        <v>43631</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>29</v>
@@ -6722,17 +6751,15 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B131" s="5">
-        <v>43626</v>
+        <v>43629</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
         <v>19</v>
       </c>
@@ -6740,24 +6767,24 @@
         <v>20</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B132" s="5">
-        <v>43620</v>
+        <v>43626</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>19</v>
@@ -6766,7 +6793,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>30</v>
@@ -6774,25 +6801,25 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B133" s="5">
-        <v>43616</v>
+        <v>43626</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>60</v>
@@ -6800,16 +6827,16 @@
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B134" s="5">
-        <v>43616</v>
+        <v>43620</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>19</v>
@@ -6818,10 +6845,10 @@
         <v>20</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,43 +6859,45 @@
         <v>43616</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B136" s="5">
-        <v>43599</v>
+        <v>43616</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D136" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>60</v>
@@ -6876,23 +6905,25 @@
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B137" s="5">
-        <v>43593</v>
+        <v>43616</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D137" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E137" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>22</v>
@@ -6900,61 +6931,61 @@
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B138" s="5">
-        <v>43593</v>
+        <v>43599</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B139" s="5">
-        <v>43574</v>
+        <v>43593</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B140" s="5">
-        <v>43532</v>
+        <v>43593</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
@@ -6964,21 +6995,21 @@
         <v>20</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B141" s="5">
-        <v>43532</v>
+        <v>43574</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1" t="s">
@@ -6988,7 +7019,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>30</v>
@@ -7002,7 +7033,7 @@
         <v>43532</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
@@ -7012,10 +7043,10 @@
         <v>20</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7026,7 +7057,7 @@
         <v>43532</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
@@ -7039,7 +7070,7 @@
         <v>175</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7050,7 +7081,7 @@
         <v>43532</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
@@ -7060,10 +7091,10 @@
         <v>20</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7074,7 +7105,7 @@
         <v>43532</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
@@ -7084,10 +7115,10 @@
         <v>20</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7098,7 +7129,7 @@
         <v>43532</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
@@ -7108,10 +7139,10 @@
         <v>20</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7122,7 +7153,7 @@
         <v>43532</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
@@ -7132,7 +7163,7 @@
         <v>20</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>60</v>
@@ -7146,7 +7177,7 @@
         <v>43532</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
@@ -7156,10 +7187,10 @@
         <v>20</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7170,7 +7201,7 @@
         <v>43532</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1" t="s">
@@ -7180,10 +7211,10 @@
         <v>20</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7194,20 +7225,20 @@
         <v>43532</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7218,20 +7249,20 @@
         <v>43532</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7242,7 +7273,7 @@
         <v>43532</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
@@ -7252,10 +7283,10 @@
         <v>81</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7266,7 +7297,7 @@
         <v>43532</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
@@ -7276,7 +7307,7 @@
         <v>81</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>13</v>
@@ -7290,7 +7321,7 @@
         <v>43532</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
@@ -7300,10 +7331,10 @@
         <v>81</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7314,20 +7345,20 @@
         <v>43532</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7338,20 +7369,20 @@
         <v>43532</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7362,20 +7393,20 @@
         <v>43532</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7386,7 +7417,7 @@
         <v>43532</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1" t="s">
@@ -7396,10 +7427,10 @@
         <v>26</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7410,7 +7441,7 @@
         <v>43532</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
@@ -7420,21 +7451,21 @@
         <v>26</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B160" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
@@ -7444,21 +7475,21 @@
         <v>26</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B161" s="5">
-        <v>43356</v>
+        <v>43532</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
@@ -7468,10 +7499,10 @@
         <v>26</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7479,23 +7510,23 @@
         <v>195</v>
       </c>
       <c r="B162" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7503,23 +7534,23 @@
         <v>195</v>
       </c>
       <c r="B163" s="5">
-        <v>43341</v>
+        <v>43356</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7530,7 +7561,7 @@
         <v>43341</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
@@ -7540,7 +7571,7 @@
         <v>20</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>30</v>
@@ -7554,7 +7585,7 @@
         <v>43341</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
@@ -7564,10 +7595,10 @@
         <v>20</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7578,7 +7609,7 @@
         <v>43341</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
@@ -7602,20 +7633,20 @@
         <v>43341</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7626,20 +7657,20 @@
         <v>43341</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7650,20 +7681,20 @@
         <v>43341</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7674,20 +7705,20 @@
         <v>43341</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7698,7 +7729,7 @@
         <v>43341</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
@@ -7708,7 +7739,7 @@
         <v>26</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>22</v>
@@ -7722,7 +7753,7 @@
         <v>43341</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
@@ -7732,7 +7763,7 @@
         <v>26</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>22</v>
@@ -7746,7 +7777,7 @@
         <v>43341</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
@@ -7756,10 +7787,10 @@
         <v>26</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7770,7 +7801,7 @@
         <v>43341</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
@@ -7780,10 +7811,10 @@
         <v>26</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7794,7 +7825,7 @@
         <v>43341</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
@@ -7804,10 +7835,10 @@
         <v>26</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7818,20 +7849,20 @@
         <v>43341</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7842,20 +7873,20 @@
         <v>43341</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7866,17 +7897,17 @@
         <v>43341</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>13</v>
@@ -7890,17 +7921,17 @@
         <v>43341</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>13</v>
@@ -7914,20 +7945,20 @@
         <v>43341</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7938,20 +7969,20 @@
         <v>43341</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7962,7 +7993,7 @@
         <v>43341</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
@@ -7972,7 +8003,7 @@
         <v>26</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>60</v>
@@ -7986,7 +8017,7 @@
         <v>43341</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
@@ -7996,7 +8027,7 @@
         <v>26</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>60</v>
@@ -8010,7 +8041,7 @@
         <v>43341</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
@@ -8020,7 +8051,7 @@
         <v>26</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>60</v>
@@ -8034,7 +8065,7 @@
         <v>43341</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1" t="s">
@@ -8044,7 +8075,7 @@
         <v>26</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>60</v>
@@ -8058,17 +8089,17 @@
         <v>43341</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>60</v>
@@ -8082,7 +8113,7 @@
         <v>43341</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1" t="s">
@@ -8092,10 +8123,10 @@
         <v>26</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8106,20 +8137,20 @@
         <v>43341</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,41 +8161,41 @@
         <v>43341</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B190" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>30</v>
@@ -8172,26 +8203,26 @@
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="B191" s="5">
-        <v>43187</v>
+        <v>43341</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8202,11 +8233,11 @@
         <v>43187</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>26</v>
@@ -8215,7 +8246,7 @@
         <v>230</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8223,10 +8254,10 @@
         <v>228</v>
       </c>
       <c r="B193" s="5">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
@@ -8236,10 +8267,10 @@
         <v>26</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8247,20 +8278,20 @@
         <v>228</v>
       </c>
       <c r="B194" s="5">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>60</v>
@@ -8271,23 +8302,23 @@
         <v>228</v>
       </c>
       <c r="B195" s="5">
-        <v>43169</v>
+        <v>43185</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8295,20 +8326,20 @@
         <v>228</v>
       </c>
       <c r="B196" s="5">
-        <v>43166</v>
+        <v>43185</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>60</v>
@@ -8319,10 +8350,10 @@
         <v>228</v>
       </c>
       <c r="B197" s="5">
-        <v>43165</v>
+        <v>43169</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
@@ -8332,10 +8363,10 @@
         <v>81</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8343,23 +8374,23 @@
         <v>228</v>
       </c>
       <c r="B198" s="5">
-        <v>43158</v>
+        <v>43166</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8367,17 +8398,17 @@
         <v>228</v>
       </c>
       <c r="B199" s="5">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>96</v>
@@ -8394,20 +8425,20 @@
         <v>43158</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8418,14 +8449,14 @@
         <v>43158</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>96</v>
@@ -8436,50 +8467,50 @@
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B202" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B203" s="5">
-        <v>43133</v>
+        <v>43158</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8490,55 +8521,55 @@
         <v>43133</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B205" s="5">
-        <v>43125</v>
+        <v>43133</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B206" s="5">
-        <v>43109</v>
+        <v>43133</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
@@ -8548,7 +8579,7 @@
         <v>26</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>60</v>
@@ -8556,23 +8587,23 @@
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B207" s="5">
-        <v>43066</v>
+        <v>43125</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>22</v>
@@ -8583,23 +8614,23 @@
         <v>249</v>
       </c>
       <c r="B208" s="5">
-        <v>43066</v>
+        <v>43109</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8610,35 +8641,35 @@
         <v>43066</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B210" s="5">
-        <v>43059</v>
+        <v>43066</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>81</v>
@@ -8652,74 +8683,74 @@
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B211" s="5">
-        <v>43056</v>
+        <v>43066</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B212" s="5">
-        <v>43046</v>
+        <v>43059</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B213" s="5">
-        <v>43046</v>
+        <v>43056</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8727,20 +8758,20 @@
         <v>258</v>
       </c>
       <c r="B214" s="5">
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>30</v>
@@ -8748,23 +8779,23 @@
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B215" s="5">
-        <v>43007</v>
+        <v>43046</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>60</v>
@@ -8772,13 +8803,13 @@
     </row>
     <row r="216" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B216" s="5">
-        <v>42989</v>
+        <v>43045</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
@@ -8788,21 +8819,21 @@
         <v>20</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B217" s="5">
-        <v>42989</v>
+        <v>43007</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
@@ -8812,7 +8843,7 @@
         <v>20</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>60</v>
@@ -8826,17 +8857,17 @@
         <v>42989</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>60</v>
@@ -8844,13 +8875,13 @@
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B219" s="5">
-        <v>42976</v>
+        <v>42989</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
@@ -8860,130 +8891,130 @@
         <v>20</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B220" s="5">
-        <v>42962</v>
+        <v>42989</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B221" s="5">
-        <v>42954</v>
+        <v>42976</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B222" s="5">
-        <v>42954</v>
+        <v>42962</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B223" s="5">
-        <v>42943</v>
+        <v>42954</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B224" s="5">
-        <v>42942</v>
+        <v>42954</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
-        <v>252</v>
+        <v>10</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8991,23 +9022,23 @@
         <v>276</v>
       </c>
       <c r="B225" s="5">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9018,20 +9049,20 @@
         <v>42942</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9042,17 +9073,17 @@
         <v>42942</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>60</v>
@@ -9066,7 +9097,7 @@
         <v>42942</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1" t="s">
@@ -9076,10 +9107,10 @@
         <v>26</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9090,17 +9121,17 @@
         <v>42942</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>60</v>
@@ -9108,47 +9139,47 @@
     </row>
     <row r="230" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B230" s="5">
-        <v>42928</v>
+        <v>42942</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B231" s="5">
-        <v>42914</v>
+        <v>42942</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>60</v>
@@ -9156,37 +9187,37 @@
     </row>
     <row r="232" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B232" s="5">
-        <v>42907</v>
+        <v>42928</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1" t="s">
-        <v>252</v>
+        <v>10</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B233" s="5">
-        <v>42885</v>
+        <v>42914</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1" t="s">
@@ -9199,52 +9230,52 @@
         <v>244</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B234" s="5">
-        <v>42878</v>
+        <v>42907</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B235" s="5">
-        <v>42865</v>
+        <v>42885</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>22</v>
@@ -9252,37 +9283,37 @@
     </row>
     <row r="236" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B236" s="5">
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>169</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B237" s="5">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1" t="s">
@@ -9292,21 +9323,21 @@
         <v>26</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B238" s="5">
-        <v>42863</v>
+        <v>42865</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1" t="s">
@@ -9316,7 +9347,7 @@
         <v>20</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>60</v>
@@ -9324,37 +9355,37 @@
     </row>
     <row r="239" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B239" s="5">
-        <v>42856</v>
+        <v>42863</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B240" s="5">
-        <v>42843</v>
+        <v>42863</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1" t="s">
@@ -9364,7 +9395,7 @@
         <v>20</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>60</v>
@@ -9372,183 +9403,183 @@
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B241" s="5">
-        <v>42843</v>
+        <v>42856</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B242" s="5">
-        <v>42839</v>
+        <v>42843</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B243" s="5">
-        <v>42838</v>
+        <v>42843</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="D243" s="1"/>
       <c r="E243" s="1" t="s">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B244" s="5">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B245" s="5">
-        <v>42696</v>
+        <v>42838</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D245" s="1"/>
+        <v>308</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="E245" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B246" s="5">
-        <v>42691</v>
+        <v>42838</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>317</v>
+        <v>56</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B247" s="5">
-        <v>42689</v>
+        <v>42696</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>49</v>
+        <v>314</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B248" s="5">
-        <v>42683</v>
+        <v>42691</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1" t="s">
@@ -9558,53 +9589,83 @@
         <v>20</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>29</v>
+        <v>317</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B249" s="5">
-        <v>42683</v>
+        <v>42689</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B250" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B251" s="5">
+        <v>42683</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F251" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="G251" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="H251" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-    </row>
-    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
@@ -16905,42 +16966,62 @@
       <c r="G1062" s="1"/>
       <c r="H1062" s="1"/>
     </row>
+    <row r="1063" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1063" s="1"/>
+      <c r="C1063" s="2"/>
+      <c r="D1063" s="1"/>
+      <c r="E1063" s="1"/>
+      <c r="F1063" s="1"/>
+      <c r="G1063" s="1"/>
+      <c r="H1063" s="1"/>
+    </row>
+    <row r="1064" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1064" s="1"/>
+      <c r="C1064" s="2"/>
+      <c r="D1064" s="1"/>
+      <c r="E1064" s="1"/>
+      <c r="F1064" s="1"/>
+      <c r="G1064" s="1"/>
+      <c r="H1064" s="1"/>
+    </row>
   </sheetData>
   <sortState ref="A2:K20">
     <sortCondition descending="1" ref="B2:B20"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/151"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/45"/>
-    <hyperlink ref="D23" r:id="rId3" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/180"/>
-    <hyperlink ref="D24" r:id="rId4" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/188"/>
-    <hyperlink ref="D27" r:id="rId5" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/33"/>
-    <hyperlink ref="D25" r:id="rId6" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/181"/>
-    <hyperlink ref="D29" r:id="rId7" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/183"/>
-    <hyperlink ref="D26" r:id="rId8" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/91"/>
-    <hyperlink ref="D20" r:id="rId9" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/207"/>
-    <hyperlink ref="D21" r:id="rId10" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/207"/>
-    <hyperlink ref="D17" r:id="rId11" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/192"/>
-    <hyperlink ref="D18" r:id="rId12"/>
-    <hyperlink ref="D9:D17" r:id="rId13" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/192"/>
-    <hyperlink ref="D11" r:id="rId14"/>
-    <hyperlink ref="D14" r:id="rId15"/>
-    <hyperlink ref="D10" r:id="rId16"/>
-    <hyperlink ref="D9" r:id="rId17"/>
-    <hyperlink ref="D13" r:id="rId18"/>
-    <hyperlink ref="D16" r:id="rId19" location="issuecomment-988329558"/>
-    <hyperlink ref="D12" r:id="rId20"/>
-    <hyperlink ref="D15" r:id="rId21"/>
-    <hyperlink ref="D19" r:id="rId22"/>
-    <hyperlink ref="D8" r:id="rId23"/>
-    <hyperlink ref="D7" r:id="rId24"/>
-    <hyperlink ref="D6" r:id="rId25"/>
-    <hyperlink ref="D5" r:id="rId26"/>
-    <hyperlink ref="D4" r:id="rId27"/>
-    <hyperlink ref="D3" r:id="rId28"/>
-    <hyperlink ref="D2" r:id="rId29"/>
+    <hyperlink ref="D30" r:id="rId1" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/151"/>
+    <hyperlink ref="D24" r:id="rId2" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/45"/>
+    <hyperlink ref="D25" r:id="rId3" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/180"/>
+    <hyperlink ref="D26" r:id="rId4" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/188"/>
+    <hyperlink ref="D29" r:id="rId5" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/33"/>
+    <hyperlink ref="D27" r:id="rId6" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/181"/>
+    <hyperlink ref="D31" r:id="rId7" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/183"/>
+    <hyperlink ref="D28" r:id="rId8" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/91"/>
+    <hyperlink ref="D22" r:id="rId9" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/207"/>
+    <hyperlink ref="D23" r:id="rId10" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/207"/>
+    <hyperlink ref="D19" r:id="rId11" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/192"/>
+    <hyperlink ref="D20" r:id="rId12"/>
+    <hyperlink ref="D11:D19" r:id="rId13" display="https://github.com/nmfs-stock-synthesis/stock-synthesis/issues/192"/>
+    <hyperlink ref="D13" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D12" r:id="rId16"/>
+    <hyperlink ref="D11" r:id="rId17"/>
+    <hyperlink ref="D15" r:id="rId18"/>
+    <hyperlink ref="D18" r:id="rId19" location="issuecomment-988329558"/>
+    <hyperlink ref="D14" r:id="rId20"/>
+    <hyperlink ref="D17" r:id="rId21"/>
+    <hyperlink ref="D21" r:id="rId22"/>
+    <hyperlink ref="D10" r:id="rId23"/>
+    <hyperlink ref="D9" r:id="rId24"/>
+    <hyperlink ref="D8" r:id="rId25"/>
+    <hyperlink ref="D7" r:id="rId26"/>
+    <hyperlink ref="D6" r:id="rId27"/>
+    <hyperlink ref="D5" r:id="rId28"/>
+    <hyperlink ref="D4" r:id="rId29"/>
+    <hyperlink ref="D2" r:id="rId30"/>
+    <hyperlink ref="D3" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>